--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5435" documentId="11_A036919BCEDCCEE3E979BAFA8980FCDE016F55DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBBABF65-7FBB-4F69-A265-FA05BF34BE37}"/>
+  <xr:revisionPtr revIDLastSave="5517" documentId="11_A036919BCEDCCEE3E979BAFA8980FCDE016F55DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB81B1B-4685-4626-BEAA-66870E1F9B7F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="119">
   <si>
     <t>Money In Terms Of</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>17th April 2025</t>
+  </si>
+  <si>
+    <t>Social Welfare</t>
   </si>
   <si>
     <t>03th May 2025</t>
@@ -10885,7 +10888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E410128-C7AA-4335-9548-8A1FBFF72764}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -11210,7 +11213,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -11386,7 +11389,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -13757,6 +13760,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -14197,7 +14201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70450F9-E58B-48E7-B2C3-C3B422FBA5BC}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:G40"/>
     </sheetView>
   </sheetViews>
@@ -14523,7 +14527,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -14699,7 +14703,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -17070,6 +17074,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -17510,7 +17515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A615ABE1-ED79-40A7-958D-4E58DAAE3045}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -17834,7 +17839,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -18010,7 +18015,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -20381,6 +20386,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -20821,7 +20827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628B5D1C-A1EA-4FDF-B055-77B4FFDAC151}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -21147,7 +21153,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -21323,7 +21329,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -23694,6 +23700,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -24134,7 +24141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02693470-7D0F-49B7-A05A-4A71D50C16FE}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -24458,7 +24465,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -24634,7 +24641,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -27006,6 +27013,7 @@
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
     <protectedRange sqref="A68:C74" name="F4"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A189:B189"/>
@@ -27446,7 +27454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D63BC2C-F2EB-411B-940E-2EFD2713E71D}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G28"/>
     </sheetView>
   </sheetViews>
@@ -27770,7 +27778,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -27946,7 +27954,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -30317,6 +30325,7 @@
     <protectedRange sqref="A117" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A189:B189"/>
@@ -30757,7 +30766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA65ECD-1234-4154-84AE-122A6F6A70C2}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -31081,7 +31090,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -31257,7 +31266,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -33628,6 +33637,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A189:B189"/>
@@ -34068,7 +34078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5037C0-2D2A-4A46-895F-C10C72C6DE43}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
@@ -34394,7 +34404,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -34570,7 +34580,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -36941,6 +36951,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A189:B189"/>
@@ -37381,8 +37392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40533,7 +40544,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40681,12 +40692,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="155" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C10" s="155"/>
-      <c r="D10" s="155" t="s">
-        <v>51</v>
-      </c>
+      <c r="D10" s="155"/>
       <c r="E10" s="155"/>
       <c r="F10" s="150">
         <v>0</v>
@@ -40854,7 +40863,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -41030,7 +41039,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -41992,6 +42001,7 @@
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="28">
+        <f>(((Forecast_1!E131+Forecast_1!E158+Forecast_1!E185))+SUM(E118+E145+E172))-Forecast_1!C112</f>
         <v>0</v>
       </c>
       <c r="D98" s="44"/>
@@ -42007,7 +42017,7 @@
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="28">
-        <f>(((Forecast_1!E132+Forecast_1!E159+Forecast_1!E186))-SUM(E119+E146+E173))-Forecast_1!C113</f>
+        <f>(((Forecast_1!E132+Forecast_1!E159+Forecast_1!E186))+SUM(E119+E146+E173))-Forecast_1!C113</f>
         <v>0</v>
       </c>
       <c r="D99" s="44"/>
@@ -42023,6 +42033,7 @@
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="28">
+        <f>(((Forecast_1!E133+Forecast_1!E160+Forecast_1!E187))+SUM(E120+E147+E174))-Forecast_1!C114</f>
         <v>0</v>
       </c>
       <c r="D100" s="44"/>
@@ -42038,7 +42049,7 @@
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="28">
-        <f>((((Forecast_1!E134+Forecast_1!E161+Forecast_1!E188)))-SUM(E121+E148+E175))-Forecast_1!C115</f>
+        <f>((((Forecast_1!E134+Forecast_1!E161+Forecast_1!E188)))+SUM(E121+E148+E175))-Forecast_1!C115</f>
         <v>0</v>
       </c>
       <c r="D101" s="44"/>
@@ -42070,7 +42081,7 @@
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="28">
-        <f>((((Forecast_1!E136+Forecast_1!E163+Forecast_1!E190)))-SUM(E123+E150+E177))-Forecast_1!C117</f>
+        <f>((((Forecast_1!E136+Forecast_1!E163+Forecast_1!E190)))+SUM(E123+E150+E177))-Forecast_1!C117</f>
         <v>0</v>
       </c>
       <c r="D103" s="44"/>
@@ -42086,7 +42097,7 @@
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="28">
-        <f>((((Forecast_1!E137+Forecast_1!E164+Forecast_1!E190)))-SUM(E124+E151+E178))-Forecast_1!C118</f>
+        <f>((((Forecast_1!E137+Forecast_1!E164+Forecast_1!E190)))+SUM(E124+E151+E178))-Forecast_1!C118</f>
         <v>0</v>
       </c>
       <c r="D104" s="44"/>
@@ -42102,7 +42113,7 @@
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="28">
-        <f>((((Forecast_1!E138+Forecast_1!E165+Forecast_1!E192)))-SUM(E125+E152+E179))-Forecast_1!C119</f>
+        <f>((((Forecast_1!E138+Forecast_1!E165+Forecast_1!E192)))+SUM(E125+E152+E179))-Forecast_1!C119</f>
         <v>0</v>
       </c>
       <c r="D105" s="44"/>
@@ -42118,7 +42129,7 @@
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="28">
-        <f>((((Forecast_1!E139+Forecast_1!E166+Forecast_1!E193)))-SUM(E126+E153+E180))-Forecast_1!C120</f>
+        <f>((((Forecast_1!E139+Forecast_1!E166+Forecast_1!E193)))+SUM(E126+E153+E180))-Forecast_1!C120</f>
         <v>0</v>
       </c>
       <c r="D106" s="44"/>
@@ -42134,7 +42145,7 @@
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="28">
-        <f>((((Forecast_1!E140+Forecast_1!E167+Forecast_1!E194)))-SUM(E127+E154+E181))-Forecast_1!C121</f>
+        <f>((((Forecast_1!E140+Forecast_1!E167+Forecast_1!E194)))+SUM(E127+E154+E181))-Forecast_1!C121</f>
         <v>0</v>
       </c>
       <c r="D107" s="44"/>
@@ -43378,6 +43389,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="173">
     <mergeCell ref="C172:D172"/>
@@ -43807,8 +43819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0194D17C-96EB-4FD2-8587-7E7A0672619C}">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44127,7 +44139,7 @@
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -44303,7 +44315,7 @@
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -46653,6 +46665,7 @@
     <protectedRange sqref="A67:C74" name="F3"/>
     <protectedRange sqref="A76:C84" name="F4"/>
     <protectedRange sqref="A86:C94" name="F5"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="C173:D173"/>
@@ -47073,7 +47086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB7BA1-7701-4FD8-AB09-F7645F43CF33}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -47398,7 +47411,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -47574,7 +47587,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -49945,6 +49958,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A106" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -50385,7 +50399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57149C74-5589-4903-8EFC-FFF56B2CB1C8}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:G40"/>
     </sheetView>
   </sheetViews>
@@ -50711,7 +50725,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -50887,7 +50901,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -53258,6 +53272,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -53698,8 +53713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893696C1-98C3-4F01-A415-90003CF2A311}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G28"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54022,7 +54037,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -54198,7 +54213,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -56569,6 +56584,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A22:G28" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -57009,7 +57025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDDCB6F-10E3-4F34-B456-81FA80F60BFA}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -57333,7 +57349,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -57509,7 +57525,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -59880,6 +59896,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>
@@ -60320,7 +60337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F450479-C751-4C53-A2ED-EE5DA60A80DD}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -60645,7 +60662,7 @@
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="155" t="s">
         <v>54</v>
@@ -60821,7 +60838,7 @@
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>54</v>
@@ -63192,6 +63209,7 @@
     <protectedRange sqref="C117:E134" name="E1"/>
     <protectedRange sqref="C144:E161" name="E2"/>
     <protectedRange sqref="C171:E188" name="E3"/>
+    <protectedRange sqref="A98:A107" name="D1"/>
   </protectedRanges>
   <mergeCells count="174">
     <mergeCell ref="A5:B5"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5517" documentId="11_A036919BCEDCCEE3E979BAFA8980FCDE016F55DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB81B1B-4685-4626-BEAA-66870E1F9B7F}"/>
+  <xr:revisionPtr revIDLastSave="5680" documentId="11_A036919BCEDCCEE3E979BAFA8980FCDE016F55DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76CDD9C-E0C9-4F0C-8BD7-6722D9926599}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,7 +1537,67 @@
     <cellStyle name="Total Label" xfId="4" xr:uid="{593DEE20-3898-4E84-8526-B94A0DC45249}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="807">
+  <dxfs count="839">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1684,26 +1744,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1890,26 +1930,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2114,6 +2134,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2218,26 +2298,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2424,26 +2484,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2648,6 +2688,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2752,26 +2852,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2958,26 +3038,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -3182,6 +3242,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -3286,26 +3406,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -3492,26 +3592,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -3716,6 +3796,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -3820,26 +3960,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -4026,26 +4146,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -4250,6 +4350,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -4354,26 +4514,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -4560,26 +4700,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -4784,6 +4904,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -4888,26 +5068,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -5094,26 +5254,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -5318,6 +5458,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -5422,26 +5622,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -5628,26 +5808,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -5852,6 +6012,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -5956,26 +6176,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -6162,26 +6362,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -6386,6 +6566,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -6490,26 +6730,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -6696,26 +6916,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -6920,6 +7120,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -7024,26 +7284,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -7230,26 +7470,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -7454,6 +7674,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -7558,26 +7838,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -7764,26 +8024,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -7988,6 +8228,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -8092,26 +8372,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -8482,6 +8742,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -8586,26 +8906,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -8792,26 +9092,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -8996,6 +9276,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -9481,6 +9781,26 @@
     <dxf>
       <font>
         <color theme="3" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B9BD5"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -10888,8 +11208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E410128-C7AA-4335-9548-8A1FBFF72764}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12527,7 +12847,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -13939,257 +14259,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="407" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="406" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="422" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="405" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="404" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="420" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="403" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="402" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="418" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="401" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="400" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="416" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="399" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="398" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="397" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="396" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="412" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="395" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="394" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="393" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="409" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="392" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="408" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="391" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="390" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="406" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="389" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="388" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="387" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="386" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="385" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="384" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="383" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="382" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="400" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="381" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="399" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="380" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="398" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="379" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="397" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="378" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="377" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="376" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="394" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="375" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="393" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="374" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="392" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="373" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="391" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="390" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="389" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="388" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="387" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="386" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="385" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="384" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="383" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="382" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="381" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="380" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="379" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="378" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="377" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="376" priority="6" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="375" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="372" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="371" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="370" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="369" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="368" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="367" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="366" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="365" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="364" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="363" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="362" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="361" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="360" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="359" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="358" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="357" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="373" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="372" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="371" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14201,8 +14531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70450F9-E58B-48E7-B2C3-C3B422FBA5BC}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:G40"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15841,7 +16171,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -17253,257 +17583,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="356" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="355" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="354" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="353" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="352" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="351" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="350" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="349" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="348" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="347" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="361" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="346" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="345" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="344" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="343" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="342" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="356" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="341" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="355" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="340" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="339" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="338" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="337" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="336" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="335" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="334" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="333" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="349" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="332" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="331" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="347" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="330" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="329" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="345" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="328" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="327" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="326" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="325" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="341" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="324" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="323" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="339" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="322" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="337" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="336" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="335" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="334" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="333" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="332" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="331" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="330" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="329" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="328" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="327" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="326" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="325" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="324" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="321" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="320" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="319" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="318" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="317" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="316" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="315" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="314" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="313" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="312" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="311" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="310" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="309" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="308" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="307" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="306" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="321" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="320" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="319" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="318" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17515,8 +17855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A615ABE1-ED79-40A7-958D-4E58DAAE3045}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19153,7 +19493,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -20565,257 +20905,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="305" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="304" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="303" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="302" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="301" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="300" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="299" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="298" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="297" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="296" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="295" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="294" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="293" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="292" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="291" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="303" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="290" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="289" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="288" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="287" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="286" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="285" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="284" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="283" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="282" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="281" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="280" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="294" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="279" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="278" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="292" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="277" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="276" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="275" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="274" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="288" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="273" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="272" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="286" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="271" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="284" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="283" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="282" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="281" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="280" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="279" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="278" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="277" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="276" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="275" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="274" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="273" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="272" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="271" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="270" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="269" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="268" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="267" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="266" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="265" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="264" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="263" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="262" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="261" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="260" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="259" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="258" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="257" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="256" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="255" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="268" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="267" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="266" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="265" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20827,8 +21177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628B5D1C-A1EA-4FDF-B055-77B4FFDAC151}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22467,7 +22817,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -23879,257 +24229,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="254" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="253" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="252" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="251" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="250" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="249" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="248" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="247" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="246" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="245" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="244" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="243" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="242" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="241" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="240" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="250" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="239" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="238" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="237" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="236" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="235" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="234" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="233" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="232" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="231" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="230" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="229" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="241" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="228" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="227" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="239" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="226" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="225" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="224" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="223" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="235" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="222" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="221" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="233" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="220" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="231" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="230" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="229" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="228" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="227" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="226" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="225" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="224" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="223" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="222" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="220" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="219" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="218" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="219" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="218" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="217" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="215" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="214" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="212" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="211" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="210" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="209" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="208" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="207" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="206" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="204" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="215" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="214" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="213" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24141,8 +24501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02693470-7D0F-49B7-A05A-4A71D50C16FE}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25779,7 +26139,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -27192,257 +27552,267 @@
     <mergeCell ref="C4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="203" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="202" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="201" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="200" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="199" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="198" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="197" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="196" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="195" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="194" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="193" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="192" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="191" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="190" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="189" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="197" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="188" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="187" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="186" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="185" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="184" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="183" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="182" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="181" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="180" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="179" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="178" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="188" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="177" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="176" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="186" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="175" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="174" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="173" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="172" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="182" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="171" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="170" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="180" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="169" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="178" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="177" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="176" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="175" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="174" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="173" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="172" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="171" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="170" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="169" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="168" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="167" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="166" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="165" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="168" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="167" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="166" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="165" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="164" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="163" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="162" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="161" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="159" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="158" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="157" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="155" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="153" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="162" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="160" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27454,8 +27824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D63BC2C-F2EB-411B-940E-2EFD2713E71D}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G28"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29092,7 +29462,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -30504,257 +30874,267 @@
     <mergeCell ref="C4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
+    <cfRule type="cellIs" dxfId="158" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
+    <cfRule type="cellIs" dxfId="157" priority="56" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C66">
+    <cfRule type="cellIs" dxfId="156" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C66">
+    <cfRule type="cellIs" dxfId="155" priority="54" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="cellIs" dxfId="154" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="cellIs" dxfId="153" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
     <cfRule type="cellIs" dxfId="152" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
+  <conditionalFormatting sqref="C75">
     <cfRule type="cellIs" dxfId="151" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C66">
+  <conditionalFormatting sqref="C77">
     <cfRule type="cellIs" dxfId="150" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C66">
+  <conditionalFormatting sqref="C77">
     <cfRule type="cellIs" dxfId="149" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C69">
+  <conditionalFormatting sqref="C87:C89">
     <cfRule type="cellIs" dxfId="148" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C69">
+  <conditionalFormatting sqref="C87:C89">
     <cfRule type="cellIs" dxfId="147" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
+  <conditionalFormatting sqref="E117 E128:E135">
     <cfRule type="cellIs" dxfId="146" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
+  <conditionalFormatting sqref="E117 E128:E135">
     <cfRule type="cellIs" dxfId="145" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="143" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87:C89">
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="143" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C74">
     <cfRule type="cellIs" dxfId="142" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87:C89">
+  <conditionalFormatting sqref="C70:C74">
     <cfRule type="cellIs" dxfId="141" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117 E128:E135">
+  <conditionalFormatting sqref="C80:C84">
     <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117 E128:E135">
+  <conditionalFormatting sqref="C80:C84">
     <cfRule type="cellIs" dxfId="139" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="138" priority="37" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="137" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="136" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="135" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="134" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="133" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="132" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="131" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="130" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="129" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="128" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="127" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="126" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="125" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="124" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="123" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="122" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="121" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="120" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="119" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="118" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="125" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="124" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="123" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="122" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="121" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="120" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="118" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="117" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="116" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="115" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="114" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="113" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="112" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="117" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="116" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="115" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="114" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="109" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="106" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30766,8 +31146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA65ECD-1234-4154-84AE-122A6F6A70C2}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32404,7 +32784,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -33816,257 +34196,267 @@
     <mergeCell ref="C4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="100" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="99" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="98" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="96" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="94" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="92" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="90" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
+    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:C84">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C94">
+    <cfRule type="cellIs" dxfId="85" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C94">
+    <cfRule type="cellIs" dxfId="84" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144 E155:E162">
     <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="82" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="80" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="79" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="82" priority="32" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="81" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="80" priority="30" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="79" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171 E182:E189">
+    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171 E182:E189">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
     <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+  <conditionalFormatting sqref="E190">
     <cfRule type="cellIs" dxfId="75" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="E170">
     <cfRule type="cellIs" dxfId="74" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="E170">
     <cfRule type="cellIs" dxfId="73" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34078,8 +34468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5037C0-2D2A-4A46-895F-C10C72C6DE43}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35718,7 +36108,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -37130,257 +37520,267 @@
     <mergeCell ref="C4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37392,8 +37792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38250,7 +38650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24.75" customHeight="1">
+    <row r="36" spans="1:10" ht="54.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -39239,13 +39639,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75">
+    <row r="123" spans="1:8">
       <c r="A123" s="21"/>
       <c r="B123" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="20">
-        <f>ABS(C110+ABS(C122))</f>
+      <c r="C123" s="28">
+        <f>C122+C110</f>
         <v>0</v>
       </c>
     </row>
@@ -40296,242 +40696,252 @@
     <mergeCell ref="C143:D143"/>
   </mergeCells>
   <conditionalFormatting sqref="C61:C69 C99 C92:C93 C109:C110">
-    <cfRule type="cellIs" dxfId="806" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C69 C99 C92:C93 C109:C110">
-    <cfRule type="cellIs" dxfId="805" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="837" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="cellIs" dxfId="804" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="cellIs" dxfId="803" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="835" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C83">
-    <cfRule type="cellIs" dxfId="802" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C83">
-    <cfRule type="cellIs" dxfId="801" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="833" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="cellIs" dxfId="800" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="cellIs" dxfId="799" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="831" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="798" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="797" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="829" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:C103">
-    <cfRule type="cellIs" dxfId="796" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:C103">
-    <cfRule type="cellIs" dxfId="795" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="827" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130 E141:E148">
-    <cfRule type="cellIs" dxfId="794" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130 E141:E148">
-    <cfRule type="cellIs" dxfId="793" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="825" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="792" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="824" priority="46" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="791" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="823" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C88">
-    <cfRule type="cellIs" dxfId="790" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C88">
-    <cfRule type="cellIs" dxfId="789" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="821" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C98">
-    <cfRule type="cellIs" dxfId="788" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C98">
-    <cfRule type="cellIs" dxfId="787" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="819" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106:C108">
-    <cfRule type="cellIs" dxfId="786" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106:C108">
-    <cfRule type="cellIs" dxfId="785" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C123">
-    <cfRule type="cellIs" dxfId="784" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C123">
-    <cfRule type="cellIs" dxfId="783" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="817" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="816" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="815" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157 E168:E175">
-    <cfRule type="cellIs" dxfId="782" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157 E168:E175">
-    <cfRule type="cellIs" dxfId="781" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="813" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="780" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="812" priority="29" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="779" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="811" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="778" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="810" priority="25" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="777" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="809" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184 E195:E202">
-    <cfRule type="cellIs" dxfId="776" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184 E195:E202">
-    <cfRule type="cellIs" dxfId="775" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="807" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="774" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="806" priority="21" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="773" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="805" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="772" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="804" priority="19" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="771" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="803" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C121">
-    <cfRule type="cellIs" dxfId="770" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C121">
-    <cfRule type="cellIs" dxfId="769" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="801" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:E140">
-    <cfRule type="cellIs" dxfId="768" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:E140">
-    <cfRule type="cellIs" dxfId="767" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="799" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E167">
-    <cfRule type="cellIs" dxfId="766" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E167">
-    <cfRule type="cellIs" dxfId="765" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="797" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185:E194">
-    <cfRule type="cellIs" dxfId="764" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185:E194">
-    <cfRule type="cellIs" dxfId="763" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="795" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J50">
-    <cfRule type="cellIs" dxfId="762" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="794" priority="9" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N18">
-    <cfRule type="cellIs" dxfId="761" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="793" priority="8" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C105">
-    <cfRule type="cellIs" dxfId="760" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C105">
-    <cfRule type="cellIs" dxfId="759" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="791" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="790" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="789" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40543,8 +40953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9079557-DA90-4DEA-A8D7-E55CAD17F120}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42177,7 +42587,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -43567,247 +43977,257 @@
     <mergeCell ref="C163:D163"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C78:C79 C95:C96">
-    <cfRule type="cellIs" dxfId="758" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C78:C79 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="757" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="787" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="756" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="755" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="785" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="754" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="753" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="783" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="752" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="751" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="781" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="750" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="749" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="779" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="748" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="747" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="777" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="746" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="745" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="775" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="744" priority="39" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="774" priority="41" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="743" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="773" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="742" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="741" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="771" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="740" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="739" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="769" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="738" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="737" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="736" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="735" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="767" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="766" priority="33" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="765" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="734" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="733" priority="25" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="763" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="732" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="762" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="731" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="761" priority="25" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="730" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="760" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="729" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="728" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="758" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="727" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="757" priority="21" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="726" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="756" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="725" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="755" priority="19" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="724" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="754" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="723" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="17" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="722" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="752" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="721" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="751" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="720" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="750" priority="14" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="719" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="718" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="748" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="717" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="716" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="746" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="715" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="714" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="744" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="713" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="743" priority="7" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="712" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="742" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="711" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="710" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="740" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="739" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="738" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43819,8 +44239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0194D17C-96EB-4FD2-8587-7E7A0672619C}">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45453,7 +45873,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -46844,237 +47264,247 @@
     <mergeCell ref="F15:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C78:C79 C95:C96">
-    <cfRule type="cellIs" dxfId="709" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C78:C79 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="708" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="736" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="707" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="706" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="734" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="705" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="704" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="732" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="703" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="702" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="730" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="701" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="700" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="728" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="699" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="698" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="726" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="697" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="696" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="724" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="695" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="723" priority="39" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="694" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="722" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="693" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="692" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="720" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="691" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="690" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="718" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C94">
-    <cfRule type="cellIs" dxfId="689" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C94">
-    <cfRule type="cellIs" dxfId="688" priority="26" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="687" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="686" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="716" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="685" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="684" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="714" priority="28" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="683" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="713" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="682" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="712" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="681" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="711" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="680" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="679" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="709" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="678" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="708" priority="22" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="677" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="707" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="676" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="706" priority="20" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="675" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="705" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="704" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="703" priority="15" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="702" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="701" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="700" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="699" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="698" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="697" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="696" priority="8" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="695" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="694" priority="6" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="693" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="674" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="673" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="672" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="671" priority="9" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="670" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="669" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="668" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="667" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="666" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="665" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="664" priority="2" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="663" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="691" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="690" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="689" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47086,8 +47516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB7BA1-7701-4FD8-AB09-F7645F43CF33}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48725,7 +49155,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -50137,257 +50567,267 @@
     <mergeCell ref="A170:B170"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="662" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="661" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="687" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="660" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="659" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="685" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="658" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="657" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="683" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="656" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="655" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="681" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="654" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="653" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="679" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="652" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="651" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="677" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="650" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="649" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="675" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="648" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="674" priority="41" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="647" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="673" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="646" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="645" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="671" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="644" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="643" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="669" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="642" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="641" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="640" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="639" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="667" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="666" priority="33" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="665" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="638" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="637" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="663" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="636" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="662" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="635" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="661" priority="28" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="634" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="660" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="633" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="632" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="658" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="631" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="657" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="630" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="656" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="629" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="655" priority="22" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="628" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="654" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="653" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="652" priority="17" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="651" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="650" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="649" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="648" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="647" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="646" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="645" priority="10" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="644" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="643" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="642" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="641" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="640" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="627" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="626" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="625" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="624" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="623" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="622" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="621" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="620" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="619" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="618" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="617" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="616" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="615" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="614" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="613" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="612" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="638" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="637" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="636" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50399,8 +50839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57149C74-5589-4903-8EFC-FFF56B2CB1C8}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:G40"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52039,7 +52479,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -53451,257 +53891,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="611" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="610" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="634" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="609" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="608" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="632" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="607" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="606" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="630" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="605" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="604" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="628" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="603" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="602" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="626" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="601" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="600" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="624" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="599" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="598" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="622" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="597" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="621" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="596" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="620" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="595" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="594" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="618" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="593" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="592" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="616" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="591" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="590" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="589" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="588" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="614" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="587" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="586" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="612" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="585" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="611" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="584" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="610" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="583" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="609" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="582" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="581" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="607" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="580" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="606" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="579" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="605" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="578" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="604" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="577" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="603" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="602" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="601" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="600" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="599" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="598" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="597" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="596" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="595" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="594" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="593" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="592" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="591" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="590" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="589" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="576" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="575" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="574" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="573" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="572" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="571" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="570" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="569" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="568" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="567" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="566" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="565" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="564" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="563" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="562" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="561" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="587" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="586" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="585" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="584" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="583" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53713,8 +54163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893696C1-98C3-4F01-A415-90003CF2A311}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:A107"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55351,7 +55801,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -56763,257 +57213,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="560" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="559" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="581" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="558" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="557" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="579" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="556" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="555" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="577" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="554" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="553" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="575" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="552" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="551" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="573" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="550" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="549" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="571" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="548" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="547" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="569" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="546" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="568" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="545" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="567" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="544" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="543" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="565" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="542" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="541" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="563" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="540" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="539" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="538" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="537" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="561" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="536" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="535" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="559" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="534" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="558" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="533" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="557" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="532" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="556" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="531" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="530" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="554" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="529" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="553" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="528" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="552" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="527" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="551" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="526" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="550" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="549" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="548" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="547" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="546" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="545" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="544" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="543" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="542" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="541" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="540" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="539" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="538" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="537" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="536" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="525" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="524" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="523" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="522" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="521" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="520" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="519" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="518" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="517" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="516" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="515" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="514" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="513" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="512" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="511" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="510" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="534" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="533" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="532" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="531" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="530" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57025,8 +57485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDDCB6F-10E3-4F34-B456-81FA80F60BFA}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58663,7 +59123,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -60075,257 +60535,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="509" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="508" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="528" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="507" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="506" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="526" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="505" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="504" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="524" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="503" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="502" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="522" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="501" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="500" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="520" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="499" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="498" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="518" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="497" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="496" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="516" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="495" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="515" priority="43" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="494" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="514" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="493" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="492" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="512" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="491" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="490" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="510" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="489" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="488" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="487" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="486" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="508" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="485" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="484" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="506" priority="32" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="483" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="505" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="482" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="504" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="481" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="503" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="480" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="479" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="501" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="478" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="500" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="477" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="499" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="476" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="498" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="475" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="497" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="496" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="495" priority="19" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="494" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="493" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="492" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="491" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="490" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="489" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="488" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="487" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="486" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="485" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="484" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="483" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="474" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="473" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="472" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="471" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="470" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="469" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="468" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="467" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="466" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="465" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="464" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="463" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="462" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="461" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="460" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="459" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="481" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="480" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="479" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="478" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="477" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60337,8 +60807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F450479-C751-4C53-A2ED-EE5DA60A80DD}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -61976,7 +62446,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="28">
-        <f>ABS(C96+ABS(C108))</f>
+        <f>C108-C96</f>
         <v>0</v>
       </c>
       <c r="D109" s="44"/>
@@ -63388,257 +63858,267 @@
     <mergeCell ref="C186:D186"/>
   </mergeCells>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96">
-    <cfRule type="cellIs" dxfId="458" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C55 C85 C95:C96 E144 E155:E162">
-    <cfRule type="cellIs" dxfId="457" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="475" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="456" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="455" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="473" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="454" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="453" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="471" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="452" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="451" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="469" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="450" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="449" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="467" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="448" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="cellIs" dxfId="447" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="465" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="446" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128:E135">
-    <cfRule type="cellIs" dxfId="445" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="463" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="444" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="462" priority="47" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="443" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="461" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="442" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="441" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="459" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="440" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="439" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="457" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="438" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="437" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="436" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="cellIs" dxfId="435" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="455" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="434" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="433" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="453" priority="36" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="432" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="452" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="431" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="451" priority="34" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="430" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="450" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="429" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="428" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="448" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="427" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="447" priority="30" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="426" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="446" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="425" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="445" priority="28" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="424" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="444" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="443" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C107">
+    <cfRule type="cellIs" dxfId="442" priority="23" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="441" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E127">
+    <cfRule type="cellIs" dxfId="440" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="439" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E154">
+    <cfRule type="cellIs" dxfId="438" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="437" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172:E181">
+    <cfRule type="cellIs" dxfId="436" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="435" priority="16" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="434" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="433" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="432" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="431" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="cellIs" dxfId="430" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="423" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="422" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="421" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="420" priority="13" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="419" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="418" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="417" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="416" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="415" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="414" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="413" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="412" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="411" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="410" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="409" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="408" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="428" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="427" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="426" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="425" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="424" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="2"/>
+    <workbookView windowHeight="21560"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -2377,8 +2377,8 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:Z62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
@@ -4124,6 +4124,7 @@
       <c r="Z62" s="175"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:Z31"/>
     <mergeCell ref="A32:Z62"/>
@@ -31884,8 +31885,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:G26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -34725,7 +34726,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560"/>
+    <workbookView windowHeight="21560" firstSheet="4" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1733,11 +1733,11 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2377,7 +2377,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
@@ -4139,7 +4139,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -5029,7 +5029,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -5149,7 +5149,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -5282,7 +5282,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -5415,7 +5415,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -5431,7 +5431,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -5600,7 +5600,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -5616,7 +5616,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -7161,7 +7161,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -8051,7 +8051,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -8171,7 +8171,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -8304,7 +8304,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -8437,7 +8437,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -8453,7 +8453,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -8622,7 +8622,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="93" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -8638,7 +8638,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="42" t="s">
+      <c r="B109" s="93" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -10183,7 +10183,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -10928,7 +10928,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -11074,7 +11074,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -11194,7 +11194,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -11327,7 +11327,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -11460,7 +11460,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -11476,7 +11476,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -11645,7 +11645,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -11661,7 +11661,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -13206,7 +13206,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -13949,7 +13949,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -14095,7 +14095,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -14215,7 +14215,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -14348,7 +14348,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -14481,7 +14481,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -14497,7 +14497,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -14666,7 +14666,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -14682,7 +14682,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -16227,7 +16227,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -17105,7 +17105,7 @@
     </row>
     <row r="65" ht="24.75" customHeight="1" spans="1:9">
       <c r="A65" s="35"/>
-      <c r="B65" s="93"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="37">
         <v>0</v>
       </c>
@@ -17118,7 +17118,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -17238,7 +17238,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -17371,7 +17371,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -17504,7 +17504,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -17520,7 +17520,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -17689,7 +17689,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -17705,7 +17705,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -19250,7 +19250,7 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -19993,7 +19993,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -20139,7 +20139,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -20259,7 +20259,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -20392,7 +20392,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -20525,7 +20525,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -20541,7 +20541,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -20710,7 +20710,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -20726,7 +20726,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -22272,7 +22272,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -23161,7 +23161,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -23281,7 +23281,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -23414,7 +23414,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -23547,7 +23547,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -23563,7 +23563,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -23732,7 +23732,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -23748,7 +23748,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -25293,7 +25293,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -26036,7 +26036,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -26182,7 +26182,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -26302,7 +26302,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -26435,7 +26435,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -26568,7 +26568,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -26584,7 +26584,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -26753,7 +26753,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -26769,7 +26769,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -28314,8 +28314,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -30920,7 +30920,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -31885,8 +31885,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A52" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -33107,7 +33107,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="41"/>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="126">
@@ -33326,7 +33326,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="52"/>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C99" s="37">
@@ -33399,7 +33399,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="40"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C109" s="126">
@@ -33409,7 +33409,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="52"/>
-      <c r="B110" s="92" t="s">
+      <c r="B110" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C110" s="126">
@@ -34726,8 +34726,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35467,7 +35467,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -35613,7 +35613,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -35733,7 +35733,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -35866,7 +35866,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -35999,7 +35999,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -36015,7 +36015,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -36184,7 +36184,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="94">
@@ -36200,7 +36200,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="94">
@@ -37715,7 +37715,7 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
@@ -38454,7 +38454,7 @@
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -38600,7 +38600,7 @@
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -38720,7 +38720,7 @@
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -38853,7 +38853,7 @@
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -38986,7 +38986,7 @@
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -39002,7 +39002,7 @@
     </row>
     <row r="96" ht="30" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -39171,7 +39171,7 @@
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -39187,7 +39187,7 @@
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -40695,7 +40695,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -41439,7 +41439,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -41585,7 +41585,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -41705,7 +41705,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -41838,7 +41838,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -41971,7 +41971,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -41987,7 +41987,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -42156,7 +42156,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -42172,7 +42172,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -43717,8 +43717,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -44462,7 +44462,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -44608,7 +44608,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -44728,7 +44728,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -44861,7 +44861,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -44994,7 +44994,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -45010,7 +45010,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -45179,7 +45179,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="37">
@@ -45195,7 +45195,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="37">
@@ -46740,7 +46740,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -47483,7 +47483,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -47629,7 +47629,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -47749,7 +47749,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -47882,7 +47882,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -48015,7 +48015,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -48031,7 +48031,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -48200,7 +48200,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="94">
@@ -48216,7 +48216,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="94">
@@ -49761,8 +49761,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -50504,7 +50504,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="41"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="37">
@@ -50650,7 +50650,7 @@
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="52"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="37">
@@ -50770,7 +50770,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="52"/>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="37">
@@ -50903,7 +50903,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="52"/>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="37">
@@ -51036,7 +51036,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="40"/>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="37">
@@ -51052,7 +51052,7 @@
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="52"/>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="37">
@@ -51221,7 +51221,7 @@
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="52"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="94">
@@ -51237,7 +51237,7 @@
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="52"/>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="94">

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" firstSheet="4" activeTab="17"/>
+    <workbookView windowHeight="21560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -74,10 +74,11 @@
     <t>Your Personal Finance Organizer</t>
   </si>
   <si>
-    <t>Money In Terms Of</t>
+    <t>Money In Terms Of
+(tens, hundred, thousands, millions)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>tens</t>
   </si>
   <si>
     <t>A Month</t>
@@ -28314,7 +28315,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B108" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
@@ -31337,8 +31338,8 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -31849,7 +31850,7 @@
     <row r="133" s="153" customFormat="1" ht="20.25" customHeight="1"/>
     <row r="134" s="153" customFormat="1" ht="20.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" objects="1"/>
+  <sheetProtection formatCells="0"/>
   <protectedRanges>
     <protectedRange sqref="B1:B6" name="Settings"/>
     <protectedRange sqref="B9:B56" name="NameOfWorkSheet"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="1"/>
+    <workbookView windowHeight="21560"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -2378,7 +2378,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
@@ -31338,7 +31338,7 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="1"/>
+    <workbookView windowHeight="21560"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Forecast_4" sheetId="5" r:id="rId6"/>
     <sheet name="Forecast_5" sheetId="6" r:id="rId7"/>
     <sheet name="Forecast_6" sheetId="7" r:id="rId8"/>
-    <sheet name="October 2026 - November 2026" sheetId="8" r:id="rId9"/>
+    <sheet name="Forecast_7" sheetId="8" r:id="rId9"/>
     <sheet name="Forecast_8" sheetId="9" r:id="rId10"/>
     <sheet name="Forecast_9" sheetId="10" r:id="rId11"/>
     <sheet name="Forecast_10" sheetId="11" r:id="rId12"/>
@@ -2378,7 +2378,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
@@ -4189,9 +4189,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4205,9 +4205,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4221,9 +4221,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -5462,9 +5462,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -5476,9 +5476,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -5490,9 +5490,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -5504,9 +5504,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -5518,9 +5518,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -5532,9 +5532,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -5546,9 +5546,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -5560,9 +5560,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -5574,9 +5574,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -5588,9 +5588,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -5604,9 +5604,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -5620,9 +5620,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -5714,9 +5714,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -5982,9 +5982,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -6074,9 +6074,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -6342,9 +6342,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -6434,9 +6434,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -6702,9 +6702,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -6745,7 +6745,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -7211,9 +7211,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -7227,9 +7227,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -7243,9 +7243,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -8484,9 +8484,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -8498,9 +8498,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -8512,9 +8512,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -8526,9 +8526,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -8540,9 +8540,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -8554,9 +8554,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -8568,9 +8568,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -8582,9 +8582,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -8596,9 +8596,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -8610,9 +8610,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -8626,9 +8626,9 @@
       <c r="B108" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -8642,9 +8642,9 @@
       <c r="B109" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -8736,9 +8736,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -9004,9 +9004,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -9096,9 +9096,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -9364,9 +9364,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -9456,9 +9456,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -9724,9 +9724,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -9767,7 +9767,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -10234,9 +10234,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -10250,9 +10250,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10266,9 +10266,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -11507,9 +11507,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -11521,9 +11521,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -11535,9 +11535,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -11549,9 +11549,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -11563,9 +11563,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -11577,9 +11577,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -11591,9 +11591,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -11605,9 +11605,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -11619,9 +11619,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -11633,9 +11633,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -11649,9 +11649,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -11665,9 +11665,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -11759,9 +11759,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -12027,9 +12027,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -12119,9 +12119,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -12387,9 +12387,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -12479,9 +12479,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -12747,9 +12747,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -12790,7 +12790,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -13255,9 +13255,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -13271,9 +13271,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13287,9 +13287,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -14528,9 +14528,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -14542,9 +14542,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -14556,9 +14556,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -14570,9 +14570,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -14584,9 +14584,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -14598,9 +14598,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -14612,9 +14612,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -14626,9 +14626,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -14640,9 +14640,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -14654,9 +14654,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -14670,9 +14670,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -14686,9 +14686,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -14780,9 +14780,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -15048,9 +15048,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -15140,9 +15140,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -15408,9 +15408,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -15500,9 +15500,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -15768,9 +15768,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -15811,7 +15811,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -16278,9 +16278,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -16294,9 +16294,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16310,9 +16310,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -17551,9 +17551,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -17565,9 +17565,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -17579,9 +17579,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -17593,9 +17593,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -17607,9 +17607,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -17621,9 +17621,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -17635,9 +17635,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -17649,9 +17649,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -17663,9 +17663,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -17677,9 +17677,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -17693,9 +17693,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -17709,9 +17709,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -17803,9 +17803,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -18071,9 +18071,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -18163,9 +18163,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -18431,9 +18431,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -18523,9 +18523,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -18791,9 +18791,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18834,7 +18834,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -19299,9 +19299,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -19315,9 +19315,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -19331,9 +19331,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -20572,9 +20572,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -20586,9 +20586,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -20600,9 +20600,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -20614,9 +20614,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -20628,9 +20628,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -20642,9 +20642,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -20656,9 +20656,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -20670,9 +20670,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -20684,9 +20684,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -20698,9 +20698,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -20714,9 +20714,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -20730,9 +20730,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -20824,9 +20824,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -21092,9 +21092,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -21184,9 +21184,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -21452,9 +21452,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -21544,9 +21544,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21812,9 +21812,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21856,7 +21856,7 @@
     </row>
     <row r="194" ht="24.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -22321,9 +22321,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -22337,9 +22337,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -22353,9 +22353,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -23594,9 +23594,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -23608,9 +23608,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -23622,9 +23622,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -23636,9 +23636,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -23650,9 +23650,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -23664,9 +23664,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -23678,9 +23678,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -23692,9 +23692,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -23706,9 +23706,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -23720,9 +23720,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -23736,9 +23736,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -23752,9 +23752,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -23846,9 +23846,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -24114,9 +24114,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -24206,9 +24206,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24474,9 +24474,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24566,9 +24566,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24834,9 +24834,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -24877,7 +24877,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -25342,9 +25342,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25358,9 +25358,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -25374,9 +25374,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -26615,9 +26615,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -26629,9 +26629,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -26643,9 +26643,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -26657,9 +26657,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -26671,9 +26671,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -26685,9 +26685,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -26699,9 +26699,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -26713,9 +26713,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -26727,9 +26727,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -26741,9 +26741,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -26757,9 +26757,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -26773,9 +26773,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -26867,9 +26867,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27135,9 +27135,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27227,9 +27227,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27495,9 +27495,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27587,9 +27587,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27855,9 +27855,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -27898,7 +27898,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -28315,8 +28315,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126:D126"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -28365,9 +28365,9 @@
       <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="e">
+      <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28381,9 +28381,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -28397,9 +28397,9 @@
         <v>64</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -29638,9 +29638,9 @@
     <row r="98" ht="24.75" customHeight="1" spans="1:9">
       <c r="A98" s="40"/>
       <c r="B98" s="36"/>
-      <c r="C98" s="37" t="e" cm="1">
+      <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -29652,9 +29652,9 @@
     <row r="99" ht="24.75" customHeight="1" spans="1:9">
       <c r="A99" s="40"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="37" t="e" cm="1">
+      <c r="C99" s="37" cm="1">
         <f ca="1" t="array" ref="C99">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C99")+SUM(E119+E146+E173)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -29666,9 +29666,9 @@
     <row r="100" ht="24.75" customHeight="1" spans="1:9">
       <c r="A100" s="40"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="37" t="e" cm="1">
+      <c r="C100" s="37" cm="1">
         <f ca="1" t="array" ref="C100">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C100")+SUM(E120+E147+E174)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -29680,9 +29680,9 @@
     <row r="101" ht="24.75" customHeight="1" spans="1:9">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="37" t="e" cm="1">
+      <c r="C101" s="37" cm="1">
         <f ca="1" t="array" ref="C101">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C101")+SUM(E121+E148+E175)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -29694,9 +29694,9 @@
     <row r="102" ht="24.75" customHeight="1" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="36"/>
-      <c r="C102" s="37" t="e" cm="1">
+      <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -29708,9 +29708,9 @@
     <row r="103" ht="24.75" customHeight="1" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="36"/>
-      <c r="C103" s="37" t="e" cm="1">
+      <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -29722,9 +29722,9 @@
     <row r="104" ht="24.75" customHeight="1" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="37" t="e" cm="1">
+      <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -29736,9 +29736,9 @@
     <row r="105" ht="24.75" customHeight="1" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
-      <c r="C105" s="37" t="e" cm="1">
+      <c r="C105" s="37" cm="1">
         <f ca="1" t="array" ref="C105">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C105")+SUM(E125+E152+E179)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -29750,9 +29750,9 @@
     <row r="106" ht="24.75" customHeight="1" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="36"/>
-      <c r="C106" s="37" t="e" cm="1">
+      <c r="C106" s="37" cm="1">
         <f ca="1" t="array" ref="C106">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C106")+SUM(E126+E153+E180)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -29764,9 +29764,9 @@
     <row r="107" ht="24.75" customHeight="1" spans="1:9">
       <c r="A107" s="35"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="37" t="e" cm="1">
+      <c r="C107" s="37" cm="1">
         <f ca="1" t="array" ref="C107">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C107")+SUM(E127+E154+E181)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -29780,9 +29780,9 @@
       <c r="B108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="37" t="e">
+      <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -29796,9 +29796,9 @@
       <c r="B109" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="37" t="e">
+      <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -29890,9 +29890,9 @@
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
-      <c r="E116" s="71" t="e" cm="1">
+      <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30158,9 +30158,9 @@
         <v>61</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="88" t="e">
+      <c r="E136" s="88">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30250,9 +30250,9 @@
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
-      <c r="E143" s="88" t="e">
+      <c r="E143" s="88">
         <f ca="1">E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30518,9 +30518,9 @@
         <v>61</v>
       </c>
       <c r="D163" s="82"/>
-      <c r="E163" s="91" t="e">
+      <c r="E163" s="91">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30610,9 +30610,9 @@
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
-      <c r="E170" s="91" t="e">
+      <c r="E170" s="91">
         <f ca="1">E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -30878,9 +30878,9 @@
         <v>61</v>
       </c>
       <c r="D190" s="82"/>
-      <c r="E190" s="91" t="e">
+      <c r="E190" s="91">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -30921,7 +30921,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -31338,7 +31338,7 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -32175,7 +32175,7 @@
         <v>11 October 2026 - 10 January 2027</v>
       </c>
       <c r="N9" s="144">
-        <f ca="1">'October 2026 - November 2026'!C5</f>
+        <f ca="1">Forecast_7!C5</f>
         <v>0</v>
       </c>
     </row>
@@ -32206,9 +32206,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
         <v>11 January 2027 - 10 April 2027</v>
       </c>
-      <c r="N10" s="135" t="e">
+      <c r="N10" s="135">
         <f ca="1">Forecast_8!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:14">
@@ -32235,9 +32235,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
         <v>11 April 2027 - 10 July 2027</v>
       </c>
-      <c r="N11" s="139" t="e">
+      <c r="N11" s="139">
         <f ca="1">Forecast_9!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:14">
@@ -32263,9 +32263,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
         <v>11 July 2027 - 10 October 2027</v>
       </c>
-      <c r="N12" s="139" t="e">
+      <c r="N12" s="139">
         <f ca="1">Forecast_10!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:14">
@@ -32291,9 +32291,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
         <v>11 October 2027 - 10 January 2028</v>
       </c>
-      <c r="N13" s="139" t="e">
+      <c r="N13" s="139">
         <f ca="1">Forecast_11!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="35.25" customHeight="1" spans="1:14">
@@ -32319,9 +32319,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
         <v>11 January 2028 - 10 April 2028</v>
       </c>
-      <c r="N14" s="139" t="e">
+      <c r="N14" s="139">
         <f ca="1">Forecast_12!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="35.25" customHeight="1" spans="1:14">
@@ -32347,9 +32347,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
         <v>11 April 2028 - 10 July 2028</v>
       </c>
-      <c r="N15" s="139" t="e">
+      <c r="N15" s="139">
         <f ca="1">Forecast_13!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="35.25" customHeight="1" spans="1:14">
@@ -32381,9 +32381,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
         <v>11 July 2028 - 10 October 2028</v>
       </c>
-      <c r="N16" s="139" t="e">
+      <c r="N16" s="139">
         <f ca="1">Forecast_14!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="35.25" customHeight="1" spans="9:14">
@@ -32399,9 +32399,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
         <v>11 October 2028 - 10 January 2029</v>
       </c>
-      <c r="N17" s="139" t="e">
+      <c r="N17" s="139">
         <f ca="1">Forecast_15!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="9:14">
@@ -32417,9 +32417,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
         <v>11 January 2029 - 10 April 2029</v>
       </c>
-      <c r="N18" s="135" t="e">
+      <c r="N18" s="135">
         <f ca="1">Forecast_16!C5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="9:10">
@@ -32448,7 +32448,7 @@
         <v>11 October 2026 - 10 November 2026</v>
       </c>
       <c r="J21" s="139">
-        <f ca="1">'October 2026 - November 2026'!E136</f>
+        <f ca="1">Forecast_7!E136</f>
         <v>0</v>
       </c>
     </row>
@@ -32468,7 +32468,7 @@
         <v>11 November 2026 - 10 December 2026</v>
       </c>
       <c r="J22" s="139">
-        <f ca="1">'October 2026 - November 2026'!E163</f>
+        <f ca="1">Forecast_7!E163</f>
         <v>0</v>
       </c>
     </row>
@@ -32493,7 +32493,7 @@
         <v>11 December 2026 - 10 January 2027</v>
       </c>
       <c r="J23" s="139">
-        <f ca="1">'October 2026 - November 2026'!E190</f>
+        <f ca="1">Forecast_7!E190</f>
         <v>0</v>
       </c>
     </row>
@@ -32511,9 +32511,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21)+21,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,22)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*22+21),"dd mmmm yyyy"))</f>
         <v>11 January 2027 - 10 February 2027</v>
       </c>
-      <c r="J24" s="139" t="e">
+      <c r="J24" s="139">
         <f ca="1">Forecast_8!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -32530,9 +32530,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,22),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*22)+22,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,23)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*23+22),"dd mmmm yyyy"))</f>
         <v>11 February 2027 - 10 March 2027</v>
       </c>
-      <c r="J25" s="139" t="e">
+      <c r="J25" s="139">
         <f ca="1">Forecast_8!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -32549,9 +32549,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,23),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*23)+23,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
         <v>11 March 2027 - 10 April 2027</v>
       </c>
-      <c r="J26" s="139" t="e">
+      <c r="J26" s="139">
         <f ca="1">Forecast_8!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -32568,9 +32568,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24)+24,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,25)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*25+24),"dd mmmm yyyy"))</f>
         <v>11 April 2027 - 10 May 2027</v>
       </c>
-      <c r="J27" s="139" t="e">
+      <c r="J27" s="139">
         <f ca="1">Forecast_9!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -32587,9 +32587,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,25),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*25)+25,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,26)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*26+25),"dd mmmm yyyy"))</f>
         <v>11 May 2027 - 10 June 2027</v>
       </c>
-      <c r="J28" s="139" t="e">
+      <c r="J28" s="139">
         <f ca="1">Forecast_9!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -32606,9 +32606,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,26),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*26)+26,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
         <v>11 June 2027 - 10 July 2027</v>
       </c>
-      <c r="J29" s="135" t="e">
+      <c r="J29" s="135">
         <f ca="1">Forecast_9!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -32628,9 +32628,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27)+27,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,28)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*28+27),"dd mmmm yyyy"))</f>
         <v>11 July 2027 - 10 August 2027</v>
       </c>
-      <c r="J30" s="141" t="e">
+      <c r="J30" s="141">
         <f ca="1">Forecast_10!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -32638,9 +32638,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,28),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*28)+28,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,29)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*29+28),"dd mmmm yyyy"))</f>
         <v>11 August 2027 - 10 September 2027</v>
       </c>
-      <c r="J31" s="139" t="e">
+      <c r="J31" s="139">
         <f ca="1">Forecast_10!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -32648,9 +32648,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,29),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*29)+29,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
         <v>11 September 2027 - 10 October 2027</v>
       </c>
-      <c r="J32" s="139" t="e">
+      <c r="J32" s="139">
         <f ca="1">Forecast_10!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -32658,9 +32658,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30)+30,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,31)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*31+30),"dd mmmm yyyy"))</f>
         <v>11 October 2027 - 10 November 2027</v>
       </c>
-      <c r="J33" s="139" t="e">
+      <c r="J33" s="139">
         <f ca="1">Forecast_11!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -32678,9 +32678,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,31),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*31)+31,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,32)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*32+31),"dd mmmm yyyy"))</f>
         <v>11 November 2027 - 10 December 2027</v>
       </c>
-      <c r="J34" s="139" t="e">
+      <c r="J34" s="139">
         <f ca="1">Forecast_11!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -32703,9 +32703,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,32),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*32)+32,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
         <v>11 December 2027 - 10 January 2028</v>
       </c>
-      <c r="J35" s="139" t="e">
+      <c r="J35" s="139">
         <f ca="1">Forecast_11!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="54.75" customHeight="1" spans="1:10">
@@ -32722,9 +32722,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33)+33,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,34)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*34+33),"dd mmmm yyyy"))</f>
         <v>11 January 2028 - 10 February 2028</v>
       </c>
-      <c r="J36" s="139" t="e">
+      <c r="J36" s="139">
         <f ca="1">Forecast_12!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -32741,9 +32741,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,34),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*34)+34,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,35)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*35+34),"dd mmmm yyyy"))</f>
         <v>11 February 2028 - 10 March 2028</v>
       </c>
-      <c r="J37" s="139" t="e">
+      <c r="J37" s="139">
         <f ca="1">Forecast_12!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -32760,9 +32760,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,35),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*35)+35,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
         <v>11 March 2028 - 10 April 2028</v>
       </c>
-      <c r="J38" s="139" t="e">
+      <c r="J38" s="139">
         <f ca="1">Forecast_12!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -32779,9 +32779,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36)+36,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,37)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*37+36),"dd mmmm yyyy"))</f>
         <v>11 April 2028 - 10 May 2028</v>
       </c>
-      <c r="J39" s="139" t="e">
+      <c r="J39" s="139">
         <f ca="1">Forecast_13!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -32798,9 +32798,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,37),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*37)+37,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,38)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*38+37),"dd mmmm yyyy"))</f>
         <v>11 May 2028 - 10 June 2028</v>
       </c>
-      <c r="J40" s="139" t="e">
+      <c r="J40" s="139">
         <f ca="1">Forecast_13!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -32817,9 +32817,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,38),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*38)+38,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
         <v>11 June 2028 - 10 July 2028</v>
       </c>
-      <c r="J41" s="139" t="e">
+      <c r="J41" s="139">
         <f ca="1">Forecast_13!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -32839,9 +32839,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39)+39,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,40)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*40+39),"dd mmmm yyyy"))</f>
         <v>11 July 2028 - 10 August 2028</v>
       </c>
-      <c r="J42" s="139" t="e">
+      <c r="J42" s="139">
         <f ca="1">Forecast_14!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -32849,9 +32849,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,40),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*40)+40,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,41)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*41+40),"dd mmmm yyyy"))</f>
         <v>11 August 2028 - 10 September 2028</v>
       </c>
-      <c r="J43" s="139" t="e">
+      <c r="J43" s="139">
         <f ca="1">Forecast_14!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -32859,9 +32859,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,41),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*41)+41,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
         <v>11 September 2028 - 10 October 2028</v>
       </c>
-      <c r="J44" s="139" t="e">
+      <c r="J44" s="139">
         <f ca="1">Forecast_14!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -32869,9 +32869,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42)+42,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,43)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*43+42),"dd mmmm yyyy"))</f>
         <v>11 October 2028 - 10 November 2028</v>
       </c>
-      <c r="J45" s="139" t="e">
+      <c r="J45" s="139">
         <f ca="1">Forecast_15!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -32889,9 +32889,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,43),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*43)+43,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,44)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*44+43),"dd mmmm yyyy"))</f>
         <v>11 November 2028 - 10 December 2028</v>
       </c>
-      <c r="J46" s="139" t="e">
+      <c r="J46" s="139">
         <f ca="1">Forecast_15!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -32914,9 +32914,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,44),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*44)+44,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
         <v>11 December 2028 - 10 January 2029</v>
       </c>
-      <c r="J47" s="139" t="e">
+      <c r="J47" s="139">
         <f ca="1">Forecast_15!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -32933,9 +32933,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45)+45,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,46)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*46+45),"dd mmmm yyyy"))</f>
         <v>11 January 2029 - 10 February 2029</v>
       </c>
-      <c r="J48" s="139" t="e">
+      <c r="J48" s="139">
         <f ca="1">Forecast_16!E136</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -32952,9 +32952,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,46),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*46)+46,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,47)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*47+46),"dd mmmm yyyy"))</f>
         <v>11 February 2029 - 10 March 2029</v>
       </c>
-      <c r="J49" s="139" t="e">
+      <c r="J49" s="139">
         <f ca="1">Forecast_16!E163</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -32971,9 +32971,9 @@
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,47),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*47)+47,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
         <v>11 March 2029 - 10 April 2029</v>
       </c>
-      <c r="J50" s="135" t="e">
+      <c r="J50" s="135">
         <f ca="1">Forecast_16!E190</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1" spans="1:7">
@@ -37308,7 +37308,7 @@
     </row>
     <row r="193" s="43" customFormat="1" ht="24.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -40295,7 +40295,7 @@
     </row>
     <row r="192" ht="30" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -43301,7 +43301,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G29" name="R2"/>
@@ -46324,7 +46324,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -49345,7 +49345,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -49763,7 +49763,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -52366,7 +52366,7 @@
       <c r="I193" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4140,8 +4140,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -4174,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -7162,8 +7162,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -7196,7 +7196,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -10184,8 +10184,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -10219,7 +10219,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -13207,8 +13207,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -13240,7 +13240,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -16228,8 +16228,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -16263,7 +16263,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -19251,8 +19251,8 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -19284,7 +19284,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -22273,8 +22273,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -22306,7 +22306,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -25294,8 +25294,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -25327,7 +25327,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -28315,8 +28315,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -28350,7 +28350,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -31886,8 +31886,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -34727,8 +34727,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -34762,7 +34762,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -37716,8 +37716,8 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -37749,7 +37749,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -40696,8 +40696,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -40730,7 +40730,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -43718,8 +43718,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -43753,7 +43753,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -46741,8 +46741,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -46774,7 +46774,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
@@ -49762,8 +49762,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -49795,7 +49795,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$15")</f>
+        <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
         <v>0</v>
       </c>
       <c r="D2" s="4"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560"/>
+    <workbookView windowHeight="21560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -81,7 +81,8 @@
     <t>tens</t>
   </si>
   <si>
-    <t>A Month</t>
+    <t>A Month
+TRUE or FALSE</t>
   </si>
   <si>
     <t>Date Range Start From
@@ -2404,8 +2405,8 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC36" sqref="AC36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
@@ -4166,7 +4167,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -34074,8 +34075,8 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -34622,8 +34623,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B79" sqref="A71:B79"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -36832,7 +36833,7 @@
       </c>
       <c r="D176" s="81"/>
       <c r="E176" s="90">
-        <f>(F42+E156)-(SUM(E159:E167)+SUM(E169:E175))</f>
+        <f>(F42+E156)-(SUM(E158:E167)+SUM(E169:E175))</f>
         <v>0</v>
       </c>
     </row>
@@ -37087,7 +37088,7 @@
       </c>
       <c r="D203" s="81"/>
       <c r="E203" s="90">
-        <f>(F54+E183)-(SUM(E189:E194)+SUM(E196:E202))</f>
+        <f>(F54+E183)-(SUM(E185:E194)+SUM(E196:E202))</f>
         <v>0</v>
       </c>
     </row>
@@ -37495,8 +37496,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -34623,8 +34623,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -37496,8 +37496,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -39082,7 +39082,7 @@
         <v/>
       </c>
       <c r="C99" s="95" cm="1">
-        <f ca="1" t="array" ref="C99">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E132")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E159")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E186")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C113")</f>
+        <f ca="1" t="array" ref="C99">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E132")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E159")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E186")))+SUM(E119+E146+E173))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C113")</f>
         <v>0</v>
       </c>
       <c r="D99" s="14"/>
@@ -39102,7 +39102,7 @@
         <v/>
       </c>
       <c r="C100" s="95" cm="1">
-        <f ca="1" t="array" ref="C100">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E133")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E160")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E187")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C114")</f>
+        <f ca="1" t="array" ref="C100">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E133")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E160")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E187")))+SUM(E120+E147+E174))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C114")</f>
         <v>0</v>
       </c>
       <c r="D100" s="14"/>
@@ -39122,7 +39122,7 @@
         <v/>
       </c>
       <c r="C101" s="95" cm="1">
-        <f ca="1" t="array" ref="C101">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E134")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E161")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E188")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C115")</f>
+        <f ca="1" t="array" ref="C101">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E134")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E161")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E188")))+SUM(E121+E148+E175))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C115")</f>
         <v>0</v>
       </c>
       <c r="D101" s="14"/>
@@ -39142,7 +39142,7 @@
         <v/>
       </c>
       <c r="C102" s="95" cm="1">
-        <f ca="1" t="array" ref="C102">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E135")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E162")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E189")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C116")</f>
+        <f ca="1" t="array" ref="C102">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E135")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E162")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E189")))+SUM(E122+E149+E176))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C116")</f>
         <v>0</v>
       </c>
       <c r="D102" s="14"/>
@@ -39162,7 +39162,7 @@
         <v/>
       </c>
       <c r="C103" s="95" cm="1">
-        <f ca="1" t="array" ref="C103">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E136")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E163")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E190")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C117")</f>
+        <f ca="1" t="array" ref="C103">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E136")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E163")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E190")))+SUM(EE123+E150+E177)-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C117"))</f>
         <v>0</v>
       </c>
       <c r="D103" s="14"/>
@@ -39182,7 +39182,7 @@
         <v/>
       </c>
       <c r="C104" s="95" cm="1">
-        <f ca="1" t="array" ref="C104">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E137")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E164")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E191")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C118")</f>
+        <f ca="1" t="array" ref="C104">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E137")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E164")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E191")))+SUM(E124+E151+E178))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C118")</f>
         <v>0</v>
       </c>
       <c r="D104" s="14"/>
@@ -39202,7 +39202,7 @@
         <v/>
       </c>
       <c r="C105" s="95" cm="1">
-        <f ca="1" t="array" ref="C105">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E138")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E165")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E192")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C119")</f>
+        <f ca="1" t="array" ref="C105">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E138")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E165")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E192")))+SUM(E125+E152+E179)-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C119"))</f>
         <v>0</v>
       </c>
       <c r="D105" s="14"/>
@@ -39222,7 +39222,7 @@
         <v/>
       </c>
       <c r="C106" s="95" cm="1">
-        <f ca="1" t="array" ref="C106">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E139")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E166")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E193")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C120")</f>
+        <f ca="1" t="array" ref="C106">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E139")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E166")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E193")))+SUM(E126+E153+E180))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C120")</f>
         <v>0</v>
       </c>
       <c r="D106" s="14"/>
@@ -39242,7 +39242,7 @@
         <v/>
       </c>
       <c r="C107" s="95" cm="1">
-        <f ca="1" t="array" ref="C107">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E140")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E167")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E194")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C121")</f>
+        <f ca="1" t="array" ref="C107">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E140")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E167")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E194")))+SUM(E127+E154+E181))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C121")</f>
         <v>0</v>
       </c>
       <c r="D107" s="14"/>
@@ -40787,8 +40787,8 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -43666,7 +43666,7 @@
     </row>
     <row r="192" ht="30" customHeight="1"/>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -47393,8 +47393,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="3"/>
+    <workbookView windowHeight="21560"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -2405,7 +2405,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
@@ -4168,7 +4168,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -7492,7 +7492,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -10816,7 +10816,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -14141,7 +14141,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -17464,7 +17464,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -20789,7 +20789,7 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -24113,7 +24113,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -27436,7 +27436,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -30760,7 +30760,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -34076,7 +34076,7 @@
   <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -34587,7 +34587,7 @@
     <row r="133" s="152" customFormat="1" ht="20.25" customHeight="1"/>
     <row r="134" s="152" customFormat="1" ht="20.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0"/>
+  <sheetProtection sheet="1" formatCells="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="B1:B6" name="Settings"/>
     <protectedRange sqref="B9:B56" name="NameOfWorkSheet"/>
@@ -37496,8 +37496,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -40788,7 +40788,7 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -43666,7 +43666,7 @@
     </row>
     <row r="192" ht="30" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15" name="R1"/>
     <protectedRange sqref="A22:G27" name="R2"/>
@@ -44070,7 +44070,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -47394,7 +47394,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -50719,7 +50719,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -54042,7 +54042,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="66">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -217,30 +217,6 @@
   </si>
   <si>
     <t>Mobile And Communications/ Housing Expenses</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>Total Expenses</t>
@@ -4198,7 +4174,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -4214,7 +4190,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -4245,7 +4221,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -4808,11 +4784,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -4827,11 +4803,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -4846,11 +4822,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -4865,11 +4841,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -4884,11 +4860,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -4903,11 +4879,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -4922,11 +4898,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -4941,11 +4917,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -4960,7 +4936,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -4975,7 +4951,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -5160,7 +5136,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -5175,7 +5151,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -5322,7 +5298,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -5337,7 +5313,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -5503,7 +5479,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -5518,7 +5494,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -5684,7 +5660,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -5700,7 +5676,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -5715,7 +5691,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -5929,7 +5905,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -5945,7 +5921,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -6018,7 +5994,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -6052,11 +6028,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -6199,7 +6175,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -6288,7 +6264,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -6306,7 +6282,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -6378,7 +6354,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -6412,11 +6388,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -6559,7 +6535,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -6648,7 +6624,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -6666,7 +6642,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -6738,7 +6714,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -6772,11 +6748,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -6919,7 +6895,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -7008,7 +6984,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -7026,7 +7002,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -7522,7 +7498,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -7538,7 +7514,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -7569,7 +7545,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -8132,11 +8108,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -8151,11 +8127,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -8170,11 +8146,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -8189,11 +8165,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -8208,11 +8184,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -8227,11 +8203,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -8246,11 +8222,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -8265,11 +8241,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -8284,7 +8260,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -8299,7 +8275,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -8484,7 +8460,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -8499,7 +8475,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -8646,7 +8622,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -8661,7 +8637,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -8827,7 +8803,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -8842,7 +8818,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -9008,7 +8984,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -9024,7 +9000,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -9039,7 +9015,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -9253,7 +9229,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -9269,7 +9245,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -9342,7 +9318,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -9376,11 +9352,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -9523,7 +9499,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -9612,7 +9588,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -9630,7 +9606,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -9702,7 +9678,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -9736,11 +9712,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -9883,7 +9859,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -9972,7 +9948,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -9990,7 +9966,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -10062,7 +10038,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -10096,11 +10072,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -10243,7 +10219,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -10332,7 +10308,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -10350,7 +10326,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -10847,7 +10823,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -10863,7 +10839,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -10894,7 +10870,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -11457,11 +11433,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -11476,11 +11452,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -11495,11 +11471,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -11514,11 +11490,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -11533,11 +11509,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -11552,11 +11528,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -11571,11 +11547,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -11590,11 +11566,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -11609,7 +11585,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -11624,7 +11600,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -11809,7 +11785,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -11824,7 +11800,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -11971,7 +11947,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -11986,7 +11962,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -12152,7 +12128,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -12167,7 +12143,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -12333,7 +12309,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -12349,7 +12325,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -12364,7 +12340,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -12578,7 +12554,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -12594,7 +12570,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -12667,7 +12643,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -12701,11 +12677,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -12848,7 +12824,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -12937,7 +12913,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -12955,7 +12931,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -13027,7 +13003,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -13061,11 +13037,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -13208,7 +13184,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -13297,7 +13273,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -13315,7 +13291,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -13387,7 +13363,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -13421,11 +13397,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -13568,7 +13544,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -13657,7 +13633,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -13675,7 +13651,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -14170,7 +14146,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -14186,7 +14162,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -14217,7 +14193,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -14780,11 +14756,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -14799,11 +14775,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -14818,11 +14794,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -14837,11 +14813,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -14856,11 +14832,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -14875,11 +14851,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -14894,11 +14870,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -14913,11 +14889,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -14932,7 +14908,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -14947,7 +14923,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -15132,7 +15108,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -15147,7 +15123,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -15294,7 +15270,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -15309,7 +15285,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -15475,7 +15451,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -15490,7 +15466,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -15656,7 +15632,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -15672,7 +15648,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -15687,7 +15663,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -15901,7 +15877,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -15917,7 +15893,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -15990,7 +15966,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -16024,11 +16000,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -16171,7 +16147,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -16260,7 +16236,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -16278,7 +16254,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -16350,7 +16326,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -16384,11 +16360,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -16531,7 +16507,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -16620,7 +16596,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -16638,7 +16614,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -16710,7 +16686,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -16744,11 +16720,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -16891,7 +16867,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -16980,7 +16956,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -16998,7 +16974,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -17495,7 +17471,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -17511,7 +17487,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -17542,7 +17518,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -18105,11 +18081,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -18124,11 +18100,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -18143,11 +18119,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -18162,11 +18138,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -18181,11 +18157,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -18200,11 +18176,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -18219,11 +18195,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -18238,11 +18214,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -18257,7 +18233,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -18272,7 +18248,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -18457,7 +18433,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -18472,7 +18448,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -18619,7 +18595,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -18634,7 +18610,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -18800,7 +18776,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -18815,7 +18791,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -18981,7 +18957,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -18997,7 +18973,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -19012,7 +18988,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -19226,7 +19202,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -19242,7 +19218,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -19315,7 +19291,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -19349,11 +19325,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -19496,7 +19472,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -19585,7 +19561,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -19603,7 +19579,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -19675,7 +19651,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -19709,11 +19685,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -19856,7 +19832,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -19945,7 +19921,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -19963,7 +19939,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -20035,7 +20011,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -20069,11 +20045,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -20216,7 +20192,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -20305,7 +20281,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -20323,7 +20299,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -20818,7 +20794,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -20834,7 +20810,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -20865,7 +20841,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -21428,11 +21404,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -21447,11 +21423,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -21466,11 +21442,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -21485,11 +21461,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -21504,11 +21480,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -21523,11 +21499,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -21542,11 +21518,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -21561,11 +21537,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -21580,7 +21556,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -21595,7 +21571,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -21780,7 +21756,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -21795,7 +21771,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -21942,7 +21918,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -21957,7 +21933,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -22123,7 +22099,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -22138,7 +22114,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -22304,7 +22280,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -22320,7 +22296,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -22335,7 +22311,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -22549,7 +22525,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -22565,7 +22541,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -22638,7 +22614,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -22672,11 +22648,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -22819,7 +22795,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -22908,7 +22884,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -22926,7 +22902,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -22998,7 +22974,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -23032,11 +23008,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -23179,7 +23155,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -23268,7 +23244,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -23286,7 +23262,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -23358,7 +23334,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -23392,11 +23368,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -23539,7 +23515,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -23628,7 +23604,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -23646,7 +23622,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -24142,7 +24118,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -24158,7 +24134,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -24189,7 +24165,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -24752,11 +24728,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -24771,11 +24747,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -24790,11 +24766,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -24809,11 +24785,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -24828,11 +24804,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -24847,11 +24823,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -24866,11 +24842,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -24885,11 +24861,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -24904,7 +24880,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -24919,7 +24895,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -25104,7 +25080,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -25119,7 +25095,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -25266,7 +25242,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -25281,7 +25257,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -25447,7 +25423,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -25462,7 +25438,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -25628,7 +25604,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -25644,7 +25620,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -25659,7 +25635,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -25873,7 +25849,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -25889,7 +25865,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -25962,7 +25938,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -25996,11 +25972,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -26143,7 +26119,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -26232,7 +26208,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -26250,7 +26226,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -26322,7 +26298,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -26356,11 +26332,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -26503,7 +26479,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -26592,7 +26568,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -26610,7 +26586,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -26682,7 +26658,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -26716,11 +26692,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -26863,7 +26839,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -26952,7 +26928,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -26970,7 +26946,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -27465,7 +27441,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -27481,7 +27457,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -27512,7 +27488,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -28075,11 +28051,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -28094,11 +28070,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -28113,11 +28089,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -28132,11 +28108,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -28151,11 +28127,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -28170,11 +28146,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -28189,11 +28165,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -28208,11 +28184,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -28227,7 +28203,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -28242,7 +28218,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -28427,7 +28403,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -28442,7 +28418,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -28589,7 +28565,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -28604,7 +28580,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -28770,7 +28746,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -28785,7 +28761,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -28951,7 +28927,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -28967,7 +28943,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -28982,7 +28958,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -29079,7 +29055,7 @@
         <v/>
       </c>
       <c r="B102" s="37" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C102" s="36" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -29195,7 +29171,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -29211,7 +29187,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -29284,7 +29260,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -29318,11 +29294,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -29465,7 +29441,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -29554,7 +29530,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -29572,7 +29548,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -29644,7 +29620,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -29678,11 +29654,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -29825,7 +29801,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -29914,7 +29890,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -29932,7 +29908,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -30004,7 +29980,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -30038,11 +30014,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -30185,7 +30161,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -30274,7 +30250,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -30292,7 +30268,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -30791,7 +30767,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -30807,7 +30783,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -30838,7 +30814,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -31401,11 +31377,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -31420,11 +31396,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -31439,11 +31415,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -31458,11 +31434,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -31477,11 +31453,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -31496,11 +31472,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -31515,11 +31491,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -31534,11 +31510,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -31553,7 +31529,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -31568,7 +31544,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="34"/>
@@ -31753,7 +31729,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -31768,7 +31744,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="34"/>
@@ -31915,7 +31891,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -31930,7 +31906,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
@@ -32096,7 +32072,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -32111,7 +32087,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="32" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="33"/>
       <c r="C86" s="34"/>
@@ -32277,7 +32253,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -32293,7 +32269,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -32308,7 +32284,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
@@ -32522,7 +32498,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -32538,7 +32514,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -32611,7 +32587,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -32645,11 +32621,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -32792,7 +32768,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -32881,7 +32857,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -32899,7 +32875,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -32971,7 +32947,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -33005,11 +32981,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -33152,7 +33128,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -33241,7 +33217,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -33259,7 +33235,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -33331,7 +33307,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -33365,11 +33341,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -33512,7 +33488,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -33601,7 +33577,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -33619,7 +33595,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -34623,8 +34599,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B68" sqref="A61:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35788,89 +35764,57 @@
       <c r="C60" s="126"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="127">
-        <v>1</v>
-      </c>
+      <c r="A61" s="51"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="127">
-        <v>2</v>
-      </c>
+      <c r="A62" s="51"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:3">
-      <c r="A63" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="127">
-        <v>3</v>
-      </c>
+      <c r="A63" s="51"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="127">
-        <v>4</v>
-      </c>
+      <c r="A64" s="50"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="127">
-        <v>5</v>
-      </c>
+      <c r="A65" s="50"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="127">
-        <v>6</v>
-      </c>
+      <c r="A66" s="50"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="127">
-        <v>7</v>
-      </c>
+      <c r="A67" s="50"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="127">
-        <v>8</v>
-      </c>
+      <c r="A68" s="50"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="128">
         <v>0</v>
       </c>
@@ -35878,7 +35822,7 @@
     <row r="69" spans="1:3">
       <c r="A69" s="38"/>
       <c r="B69" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C69" s="128">
         <f>SUM(C61:C68)</f>
@@ -35887,7 +35831,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="124" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B70" s="125"/>
       <c r="C70" s="126"/>
@@ -35958,7 +35902,7 @@
     <row r="80" spans="1:3">
       <c r="A80" s="148"/>
       <c r="B80" s="149" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C80" s="128">
         <f>SUM(C71:C79)</f>
@@ -35967,7 +35911,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="124" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B81" s="125"/>
       <c r="C81" s="126"/>
@@ -36024,7 +35968,7 @@
     <row r="89" spans="1:3">
       <c r="A89" s="148"/>
       <c r="B89" s="149" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C89" s="36">
         <f>SUM(C82:C88)</f>
@@ -36033,7 +35977,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="124" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B90" s="125"/>
       <c r="C90" s="126"/>
@@ -36097,7 +36041,7 @@
     <row r="99" spans="1:3">
       <c r="A99" s="49"/>
       <c r="B99" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C99" s="36">
         <f>SUM(C91:C98)</f>
@@ -36106,7 +36050,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="124" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B100" s="125"/>
       <c r="C100" s="126"/>
@@ -36170,7 +36114,7 @@
     <row r="109" spans="1:3">
       <c r="A109" s="51"/>
       <c r="B109" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C109" s="128">
         <f>SUM(C101:C108)</f>
@@ -36180,7 +36124,7 @@
     <row r="110" spans="1:3">
       <c r="A110" s="49"/>
       <c r="B110" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C110" s="128">
         <f>C69+C80+C89+C99+C109</f>
@@ -36189,7 +36133,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="124" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B111" s="125"/>
       <c r="C111" s="126"/>
@@ -36317,7 +36261,7 @@
     <row r="122" spans="1:3">
       <c r="A122" s="148"/>
       <c r="B122" s="149" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C122" s="128">
         <f>SUM(C112:C121)</f>
@@ -36327,7 +36271,7 @@
     <row r="123" spans="1:3">
       <c r="A123" s="148"/>
       <c r="B123" s="149" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C123" s="36">
         <f>C122+C110</f>
@@ -36353,7 +36297,7 @@
     </row>
     <row r="129" ht="45" customHeight="1" spans="1:5">
       <c r="A129" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B129" s="54"/>
       <c r="C129" s="52" t="s">
@@ -36366,11 +36310,11 @@
     </row>
     <row r="130" ht="24.75" customHeight="1" spans="1:5">
       <c r="A130" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B130" s="59"/>
       <c r="C130" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D130" s="61"/>
       <c r="E130" s="71"/>
@@ -36499,7 +36443,7 @@
       <c r="A141" s="62"/>
       <c r="B141" s="63"/>
       <c r="C141" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D141" s="61"/>
       <c r="E141" s="71"/>
@@ -36560,7 +36504,7 @@
     </row>
     <row r="148" ht="24.75" customHeight="1" spans="1:5">
       <c r="A148" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B148" s="76"/>
       <c r="C148" s="77"/>
@@ -36574,7 +36518,7 @@
       <c r="A149" s="79"/>
       <c r="B149" s="80"/>
       <c r="C149" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D149" s="81"/>
       <c r="E149" s="87">
@@ -36595,7 +36539,7 @@
     </row>
     <row r="155" ht="24.75" customHeight="1" spans="1:5">
       <c r="A155" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B155" s="54"/>
       <c r="C155" s="82" t="s">
@@ -36621,11 +36565,11 @@
     </row>
     <row r="157" ht="24.75" customHeight="1" spans="1:5">
       <c r="A157" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B157" s="59"/>
       <c r="C157" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D157" s="85"/>
       <c r="E157" s="89"/>
@@ -36754,7 +36698,7 @@
       <c r="A168" s="62"/>
       <c r="B168" s="63"/>
       <c r="C168" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D168" s="61"/>
       <c r="E168" s="71"/>
@@ -36815,7 +36759,7 @@
     </row>
     <row r="175" ht="24.75" customHeight="1" spans="1:5">
       <c r="A175" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B175" s="76"/>
       <c r="C175" s="77"/>
@@ -36829,7 +36773,7 @@
       <c r="A176" s="79"/>
       <c r="B176" s="80"/>
       <c r="C176" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D176" s="81"/>
       <c r="E176" s="90">
@@ -36850,7 +36794,7 @@
     </row>
     <row r="182" ht="24.75" customHeight="1" spans="1:5">
       <c r="A182" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B182" s="54"/>
       <c r="C182" s="82" t="s">
@@ -36876,11 +36820,11 @@
     </row>
     <row r="184" ht="24.75" customHeight="1" spans="1:5">
       <c r="A184" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B184" s="59"/>
       <c r="C184" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D184" s="85"/>
       <c r="E184" s="89"/>
@@ -37009,7 +36953,7 @@
       <c r="A195" s="62"/>
       <c r="B195" s="63"/>
       <c r="C195" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D195" s="61"/>
       <c r="E195" s="71"/>
@@ -37070,7 +37014,7 @@
     </row>
     <row r="202" ht="24.75" customHeight="1" spans="1:5">
       <c r="A202" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B202" s="76"/>
       <c r="C202" s="77"/>
@@ -37084,7 +37028,7 @@
       <c r="A203" s="79"/>
       <c r="B203" s="80"/>
       <c r="C203" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D203" s="81"/>
       <c r="E203" s="90">
@@ -37528,7 +37472,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -37542,7 +37486,7 @@
     <row r="3" ht="42" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -37571,7 +37515,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -38134,11 +38078,11 @@
     <row r="47" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -38153,11 +38097,11 @@
     <row r="48" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -38172,11 +38116,11 @@
     <row r="49" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -38191,11 +38135,11 @@
     <row r="50" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -38210,11 +38154,11 @@
     <row r="51" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -38229,11 +38173,11 @@
     <row r="52" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -38248,11 +38192,11 @@
     <row r="53" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -38267,11 +38211,11 @@
     <row r="54" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -38286,7 +38230,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -38301,7 +38245,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -38486,7 +38430,7 @@
     <row r="66" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -38501,7 +38445,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -38648,7 +38592,7 @@
     <row r="75" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -38663,7 +38607,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -38829,7 +38773,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -38844,7 +38788,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -39010,7 +38954,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -39026,7 +38970,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -39041,7 +38985,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -39255,7 +39199,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="95">
         <f ca="1">SUM(C98:C107)</f>
@@ -39271,7 +39215,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="95">
         <f ca="1">C108-C96</f>
@@ -39344,7 +39288,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -39378,11 +39322,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -39525,7 +39469,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -39614,7 +39558,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -39632,7 +39576,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -39704,7 +39648,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -39738,11 +39682,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -39885,7 +39829,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -39974,7 +39918,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -39992,7 +39936,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -40064,7 +40008,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -40098,11 +40042,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -40245,7 +40189,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -40334,7 +40278,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -40352,7 +40296,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -40817,7 +40761,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -40831,7 +40775,7 @@
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -40860,7 +40804,7 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -41423,11 +41367,11 @@
     <row r="47" ht="30" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -41442,11 +41386,11 @@
     <row r="48" ht="30" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -41461,11 +41405,11 @@
     <row r="49" ht="30" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -41480,11 +41424,11 @@
     <row r="50" ht="30" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -41499,11 +41443,11 @@
     <row r="51" ht="30" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -41518,11 +41462,11 @@
     <row r="52" ht="30" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -41537,11 +41481,11 @@
     <row r="53" ht="30" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -41556,11 +41500,11 @@
     <row r="54" ht="30" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -41575,7 +41519,7 @@
     <row r="55" ht="30" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -41590,7 +41534,7 @@
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -41775,7 +41719,7 @@
     <row r="66" ht="30" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -41790,7 +41734,7 @@
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -41937,7 +41881,7 @@
     <row r="75" ht="30" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -41952,7 +41896,7 @@
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -42118,7 +42062,7 @@
     <row r="85" ht="30" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -42133,7 +42077,7 @@
     </row>
     <row r="86" ht="30" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -42299,7 +42243,7 @@
     <row r="95" ht="30" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -42315,7 +42259,7 @@
     <row r="96" ht="30" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -42330,7 +42274,7 @@
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -42544,7 +42488,7 @@
     <row r="108" ht="30" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -42560,7 +42504,7 @@
     <row r="109" ht="30" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -42633,7 +42577,7 @@
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -42667,11 +42611,11 @@
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -42814,7 +42758,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -42903,7 +42847,7 @@
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -42921,7 +42865,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -42993,7 +42937,7 @@
     </row>
     <row r="142" ht="30" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -43027,11 +42971,11 @@
     </row>
     <row r="144" ht="30" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -43174,7 +43118,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -43263,7 +43207,7 @@
     </row>
     <row r="162" ht="30" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -43281,7 +43225,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -43353,7 +43297,7 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -43387,11 +43331,11 @@
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -43534,7 +43478,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -43623,7 +43567,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -43641,7 +43585,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -44100,7 +44044,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -44116,7 +44060,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -44147,7 +44091,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -44710,11 +44654,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -44729,11 +44673,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -44748,11 +44692,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -44767,11 +44711,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -44786,11 +44730,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -44805,11 +44749,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -44824,11 +44768,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -44843,11 +44787,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -44862,7 +44806,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -44877,7 +44821,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -45062,7 +45006,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -45077,7 +45021,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -45224,7 +45168,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -45239,7 +45183,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -45405,7 +45349,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -45420,7 +45364,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -45586,7 +45530,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -45602,7 +45546,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -45617,7 +45561,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -45831,7 +45775,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -45847,7 +45791,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -45920,7 +45864,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -45954,11 +45898,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -46101,7 +46045,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -46190,7 +46134,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -46208,7 +46152,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -46280,7 +46224,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -46314,11 +46258,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -46461,7 +46405,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -46550,7 +46494,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -46568,7 +46512,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -46640,7 +46584,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -46674,11 +46618,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -46821,7 +46765,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -46910,7 +46854,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -46928,7 +46872,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -47425,7 +47369,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -47441,7 +47385,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -47472,7 +47416,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -48035,11 +47979,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -48054,11 +47998,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -48073,11 +48017,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -48092,11 +48036,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -48111,11 +48055,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -48130,11 +48074,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -48149,11 +48093,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -48168,11 +48112,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -48187,7 +48131,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -48202,7 +48146,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -48387,7 +48331,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -48402,7 +48346,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -48549,7 +48493,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -48564,7 +48508,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -48730,7 +48674,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -48745,7 +48689,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -48911,7 +48855,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -48927,7 +48871,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -48942,7 +48886,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -49156,7 +49100,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
@@ -49172,7 +49116,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
@@ -49245,7 +49189,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -49279,11 +49223,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -49426,7 +49370,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -49515,7 +49459,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -49533,7 +49477,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -49605,7 +49549,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -49639,11 +49583,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -49786,7 +49730,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -49875,7 +49819,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -49893,7 +49837,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -49965,7 +49909,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -49999,11 +49943,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -50146,7 +50090,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -50235,7 +50179,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -50253,7 +50197,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -50748,7 +50692,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -50764,7 +50708,7 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -50795,7 +50739,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -51358,11 +51302,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -51377,11 +51321,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -51396,11 +51340,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -51415,11 +51359,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -51434,11 +51378,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -51453,11 +51397,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -51472,11 +51416,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -51491,11 +51435,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -51510,7 +51454,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -51525,7 +51469,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -51710,7 +51654,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -51725,7 +51669,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -51872,7 +51816,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -51887,7 +51831,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -52053,7 +51997,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -52068,7 +52012,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -52234,7 +52178,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -52250,7 +52194,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -52265,7 +52209,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -52479,7 +52423,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="95">
         <f ca="1">SUM(C98:C107)</f>
@@ -52495,7 +52439,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="95">
         <f ca="1">C108-C96</f>
@@ -52568,7 +52512,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -52602,11 +52546,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -52749,7 +52693,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -52838,7 +52782,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -52856,7 +52800,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -52928,7 +52872,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -52962,11 +52906,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -53109,7 +53053,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -53198,7 +53142,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -53216,7 +53160,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -53288,7 +53232,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -53322,11 +53266,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -53469,7 +53413,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -53558,7 +53502,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -53576,7 +53520,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
@@ -54071,7 +54015,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
@@ -54087,7 +54031,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
@@ -54118,7 +54062,7 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -54681,11 +54625,11 @@
     <row r="47" ht="24.75" customHeight="1" spans="1:9">
       <c r="A47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A61")))</f>
-        <v>A</v>
-      </c>
-      <c r="B47" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B47" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B47">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B61")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C47" s="36">
         <v>0</v>
@@ -54700,11 +54644,11 @@
     <row r="48" ht="24.75" customHeight="1" spans="1:9">
       <c r="A48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A62")))</f>
-        <v>B</v>
-      </c>
-      <c r="B48" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B48" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B48">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B62")))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C48" s="36">
         <v>0</v>
@@ -54719,11 +54663,11 @@
     <row r="49" ht="24.75" customHeight="1" spans="1:9">
       <c r="A49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A63")))</f>
-        <v>C</v>
-      </c>
-      <c r="B49" s="35" cm="1">
+        <v/>
+      </c>
+      <c r="B49" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B49">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B63")))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="C49" s="36">
         <v>0</v>
@@ -54738,11 +54682,11 @@
     <row r="50" ht="24.75" customHeight="1" spans="1:9">
       <c r="A50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A64")))</f>
-        <v>D</v>
-      </c>
-      <c r="B50" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B50" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B50">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B64")))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C50" s="36">
         <v>0</v>
@@ -54757,11 +54701,11 @@
     <row r="51" ht="24.75" customHeight="1" spans="1:9">
       <c r="A51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A65")))</f>
-        <v>E</v>
-      </c>
-      <c r="B51" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B51" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B51">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B65")))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C51" s="36">
         <v>0</v>
@@ -54776,11 +54720,11 @@
     <row r="52" ht="24.75" customHeight="1" spans="1:9">
       <c r="A52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A66")))</f>
-        <v>F</v>
-      </c>
-      <c r="B52" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B52" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B52">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B66")))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C52" s="36">
         <v>0</v>
@@ -54795,11 +54739,11 @@
     <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A67")))</f>
-        <v>G</v>
-      </c>
-      <c r="B53" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B53" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B53">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B67")))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C53" s="36">
         <v>0</v>
@@ -54814,11 +54758,11 @@
     <row r="54" ht="24.75" customHeight="1" spans="1:9">
       <c r="A54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A68")))</f>
-        <v>H</v>
-      </c>
-      <c r="B54" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="B54" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B54">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B68")))</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C54" s="36">
         <v>0</v>
@@ -54833,7 +54777,7 @@
     <row r="55" ht="24.75" customHeight="1" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" s="36">
         <f>SUM(C47:C54)</f>
@@ -54848,7 +54792,7 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:9">
       <c r="A56" s="91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -55033,7 +54977,7 @@
     <row r="66" ht="24.75" customHeight="1" spans="1:9">
       <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C66" s="36">
         <f>SUM(C57:C65)</f>
@@ -55048,7 +54992,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:9">
       <c r="A67" s="91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -55195,7 +55139,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:9">
       <c r="A75" s="49"/>
       <c r="B75" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36">
         <f>SUM(C68:C74)</f>
@@ -55210,7 +55154,7 @@
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:9">
       <c r="A76" s="91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -55376,7 +55320,7 @@
     <row r="85" ht="24.75" customHeight="1" spans="1:9">
       <c r="A85" s="49"/>
       <c r="B85" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="36">
         <f>SUM(C77:C84)</f>
@@ -55391,7 +55335,7 @@
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:9">
       <c r="A86" s="91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -55557,7 +55501,7 @@
     <row r="95" ht="24.75" customHeight="1" spans="1:9">
       <c r="A95" s="51"/>
       <c r="B95" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
@@ -55573,7 +55517,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -55588,7 +55532,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -55802,7 +55746,7 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C108" s="95">
         <f ca="1">SUM(C98:C107)</f>
@@ -55818,7 +55762,7 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="95">
         <f ca="1">C108-C96</f>
@@ -55891,7 +55835,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -55925,11 +55869,11 @@
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:9">
       <c r="A117" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -56072,7 +56016,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -56161,7 +56105,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -56179,7 +56123,7 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
@@ -56251,7 +56195,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -56285,11 +56229,11 @@
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:9">
       <c r="A144" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -56432,7 +56376,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -56521,7 +56465,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -56539,7 +56483,7 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
@@ -56611,7 +56555,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -56645,11 +56589,11 @@
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:9">
       <c r="A171" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -56792,7 +56736,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -56881,7 +56825,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -56899,7 +56843,7 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="4"/>
+    <workbookView windowHeight="21560"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1987,12 +1987,6 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2616,1751 +2610,1751 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="253"/>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="253"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="251"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="253"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="253"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="253"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
+      <c r="A3" s="251"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+      <c r="Y3" s="251"/>
+      <c r="Z3" s="251"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="253"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="253"/>
-      <c r="V4" s="253"/>
-      <c r="W4" s="253"/>
-      <c r="X4" s="253"/>
-      <c r="Y4" s="253"/>
-      <c r="Z4" s="253"/>
+      <c r="A4" s="251"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="251"/>
+      <c r="O4" s="251"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
+      <c r="T4" s="251"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
+      <c r="X4" s="251"/>
+      <c r="Y4" s="251"/>
+      <c r="Z4" s="251"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="253"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="253"/>
-      <c r="T5" s="253"/>
-      <c r="U5" s="253"/>
-      <c r="V5" s="253"/>
-      <c r="W5" s="253"/>
-      <c r="X5" s="253"/>
-      <c r="Y5" s="253"/>
-      <c r="Z5" s="253"/>
+      <c r="A5" s="251"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="251"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="251"/>
+      <c r="S5" s="251"/>
+      <c r="T5" s="251"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="251"/>
+      <c r="W5" s="251"/>
+      <c r="X5" s="251"/>
+      <c r="Y5" s="251"/>
+      <c r="Z5" s="251"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="253"/>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="253"/>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
-      <c r="U6" s="253"/>
-      <c r="V6" s="253"/>
-      <c r="W6" s="253"/>
-      <c r="X6" s="253"/>
-      <c r="Y6" s="253"/>
-      <c r="Z6" s="253"/>
+      <c r="A6" s="251"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="251"/>
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="251"/>
+      <c r="P6" s="251"/>
+      <c r="Q6" s="251"/>
+      <c r="R6" s="251"/>
+      <c r="S6" s="251"/>
+      <c r="T6" s="251"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="251"/>
+      <c r="W6" s="251"/>
+      <c r="X6" s="251"/>
+      <c r="Y6" s="251"/>
+      <c r="Z6" s="251"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="253"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="251"/>
+      <c r="R7" s="251"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
+      <c r="Y7" s="251"/>
+      <c r="Z7" s="251"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="253"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="253"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="253"/>
-      <c r="Q8" s="253"/>
-      <c r="R8" s="253"/>
-      <c r="S8" s="253"/>
-      <c r="T8" s="253"/>
-      <c r="U8" s="253"/>
-      <c r="V8" s="253"/>
-      <c r="W8" s="253"/>
-      <c r="X8" s="253"/>
-      <c r="Y8" s="253"/>
-      <c r="Z8" s="253"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="251"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="251"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="251"/>
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="253"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="253"/>
-      <c r="P9" s="253"/>
-      <c r="Q9" s="253"/>
-      <c r="R9" s="253"/>
-      <c r="S9" s="253"/>
-      <c r="T9" s="253"/>
-      <c r="U9" s="253"/>
-      <c r="V9" s="253"/>
-      <c r="W9" s="253"/>
-      <c r="X9" s="253"/>
-      <c r="Y9" s="253"/>
-      <c r="Z9" s="253"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="251"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="251"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="251"/>
+      <c r="Q9" s="251"/>
+      <c r="R9" s="251"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
+      <c r="Y9" s="251"/>
+      <c r="Z9" s="251"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="253"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="253"/>
-      <c r="O10" s="253"/>
-      <c r="P10" s="253"/>
-      <c r="Q10" s="253"/>
-      <c r="R10" s="253"/>
-      <c r="S10" s="253"/>
-      <c r="T10" s="253"/>
-      <c r="U10" s="253"/>
-      <c r="V10" s="253"/>
-      <c r="W10" s="253"/>
-      <c r="X10" s="253"/>
-      <c r="Y10" s="253"/>
-      <c r="Z10" s="253"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="251"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="253"/>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="253"/>
-      <c r="N11" s="253"/>
-      <c r="O11" s="253"/>
-      <c r="P11" s="253"/>
-      <c r="Q11" s="253"/>
-      <c r="R11" s="253"/>
-      <c r="S11" s="253"/>
-      <c r="T11" s="253"/>
-      <c r="U11" s="253"/>
-      <c r="V11" s="253"/>
-      <c r="W11" s="253"/>
-      <c r="X11" s="253"/>
-      <c r="Y11" s="253"/>
-      <c r="Z11" s="253"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="251"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="251"/>
+      <c r="Z11" s="251"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="253"/>
-      <c r="B12" s="253"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="253"/>
-      <c r="I12" s="253"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="253"/>
-      <c r="P12" s="253"/>
-      <c r="Q12" s="253"/>
-      <c r="R12" s="253"/>
-      <c r="S12" s="253"/>
-      <c r="T12" s="253"/>
-      <c r="U12" s="253"/>
-      <c r="V12" s="253"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="253"/>
-      <c r="Z12" s="253"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="251"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="251"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="253"/>
-      <c r="B13" s="253"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="253"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="253"/>
-      <c r="Q13" s="253"/>
-      <c r="R13" s="253"/>
-      <c r="S13" s="253"/>
-      <c r="T13" s="253"/>
-      <c r="U13" s="253"/>
-      <c r="V13" s="253"/>
-      <c r="W13" s="253"/>
-      <c r="X13" s="253"/>
-      <c r="Y13" s="253"/>
-      <c r="Z13" s="253"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="253"/>
-      <c r="B14" s="253"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
-      <c r="N14" s="253"/>
-      <c r="O14" s="253"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="253"/>
-      <c r="R14" s="253"/>
-      <c r="S14" s="253"/>
-      <c r="T14" s="253"/>
-      <c r="U14" s="253"/>
-      <c r="V14" s="253"/>
-      <c r="W14" s="253"/>
-      <c r="X14" s="253"/>
-      <c r="Y14" s="253"/>
-      <c r="Z14" s="253"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="251"/>
+      <c r="Q14" s="251"/>
+      <c r="R14" s="251"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="251"/>
+      <c r="W14" s="251"/>
+      <c r="X14" s="251"/>
+      <c r="Y14" s="251"/>
+      <c r="Z14" s="251"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="253"/>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="253"/>
-      <c r="N15" s="253"/>
-      <c r="O15" s="253"/>
-      <c r="P15" s="253"/>
-      <c r="Q15" s="253"/>
-      <c r="R15" s="253"/>
-      <c r="S15" s="253"/>
-      <c r="T15" s="253"/>
-      <c r="U15" s="253"/>
-      <c r="V15" s="253"/>
-      <c r="W15" s="253"/>
-      <c r="X15" s="253"/>
-      <c r="Y15" s="253"/>
-      <c r="Z15" s="253"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="251"/>
+      <c r="Q15" s="251"/>
+      <c r="R15" s="251"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="251"/>
+      <c r="W15" s="251"/>
+      <c r="X15" s="251"/>
+      <c r="Y15" s="251"/>
+      <c r="Z15" s="251"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="253"/>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="253"/>
-      <c r="M16" s="253"/>
-      <c r="N16" s="253"/>
-      <c r="O16" s="253"/>
-      <c r="P16" s="253"/>
-      <c r="Q16" s="253"/>
-      <c r="R16" s="253"/>
-      <c r="S16" s="253"/>
-      <c r="T16" s="253"/>
-      <c r="U16" s="253"/>
-      <c r="V16" s="253"/>
-      <c r="W16" s="253"/>
-      <c r="X16" s="253"/>
-      <c r="Y16" s="253"/>
-      <c r="Z16" s="253"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="251"/>
+      <c r="Q16" s="251"/>
+      <c r="R16" s="251"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="251"/>
+      <c r="W16" s="251"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="251"/>
+      <c r="Z16" s="251"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="253"/>
-      <c r="B17" s="253"/>
-      <c r="C17" s="253"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="253"/>
-      <c r="N17" s="253"/>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="253"/>
-      <c r="R17" s="253"/>
-      <c r="S17" s="253"/>
-      <c r="T17" s="253"/>
-      <c r="U17" s="253"/>
-      <c r="V17" s="253"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="253"/>
+      <c r="A17" s="251"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
+      <c r="R17" s="251"/>
+      <c r="S17" s="251"/>
+      <c r="T17" s="251"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="251"/>
+      <c r="X17" s="251"/>
+      <c r="Y17" s="251"/>
+      <c r="Z17" s="251"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="253"/>
-      <c r="B18" s="253"/>
-      <c r="C18" s="253"/>
-      <c r="D18" s="253"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="253"/>
-      <c r="N18" s="253"/>
-      <c r="O18" s="253"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="253"/>
-      <c r="R18" s="253"/>
-      <c r="S18" s="253"/>
-      <c r="T18" s="253"/>
-      <c r="U18" s="253"/>
-      <c r="V18" s="253"/>
-      <c r="W18" s="253"/>
-      <c r="X18" s="253"/>
-      <c r="Y18" s="253"/>
-      <c r="Z18" s="253"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="251"/>
+      <c r="Q18" s="251"/>
+      <c r="R18" s="251"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="251"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="253"/>
-      <c r="B19" s="253"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="253"/>
-      <c r="N19" s="253"/>
-      <c r="O19" s="253"/>
-      <c r="P19" s="253"/>
-      <c r="Q19" s="253"/>
-      <c r="R19" s="253"/>
-      <c r="S19" s="253"/>
-      <c r="T19" s="253"/>
-      <c r="U19" s="253"/>
-      <c r="V19" s="253"/>
-      <c r="W19" s="253"/>
-      <c r="X19" s="253"/>
-      <c r="Y19" s="253"/>
-      <c r="Z19" s="253"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="251"/>
+      <c r="Z19" s="251"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="253"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="253"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="253"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="253"/>
-      <c r="N20" s="253"/>
-      <c r="O20" s="253"/>
-      <c r="P20" s="253"/>
-      <c r="Q20" s="253"/>
-      <c r="R20" s="253"/>
-      <c r="S20" s="253"/>
-      <c r="T20" s="253"/>
-      <c r="U20" s="253"/>
-      <c r="V20" s="253"/>
-      <c r="W20" s="253"/>
-      <c r="X20" s="253"/>
-      <c r="Y20" s="253"/>
-      <c r="Z20" s="253"/>
+      <c r="A20" s="251"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="251"/>
+      <c r="S20" s="251"/>
+      <c r="T20" s="251"/>
+      <c r="U20" s="251"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="251"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="251"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="253"/>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="253"/>
-      <c r="N21" s="253"/>
-      <c r="O21" s="253"/>
-      <c r="P21" s="253"/>
-      <c r="Q21" s="253"/>
-      <c r="R21" s="253"/>
-      <c r="S21" s="253"/>
-      <c r="T21" s="253"/>
-      <c r="U21" s="253"/>
-      <c r="V21" s="253"/>
-      <c r="W21" s="253"/>
-      <c r="X21" s="253"/>
-      <c r="Y21" s="253"/>
-      <c r="Z21" s="253"/>
+      <c r="A21" s="251"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="251"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="251"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="251"/>
+      <c r="Q21" s="251"/>
+      <c r="R21" s="251"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="251"/>
+      <c r="W21" s="251"/>
+      <c r="X21" s="251"/>
+      <c r="Y21" s="251"/>
+      <c r="Z21" s="251"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="253"/>
-      <c r="B22" s="253"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="253"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="253"/>
-      <c r="N22" s="253"/>
-      <c r="O22" s="253"/>
-      <c r="P22" s="253"/>
-      <c r="Q22" s="253"/>
-      <c r="R22" s="253"/>
-      <c r="S22" s="253"/>
-      <c r="T22" s="253"/>
-      <c r="U22" s="253"/>
-      <c r="V22" s="253"/>
-      <c r="W22" s="253"/>
-      <c r="X22" s="253"/>
-      <c r="Y22" s="253"/>
-      <c r="Z22" s="253"/>
+      <c r="A22" s="251"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="251"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="251"/>
+      <c r="M22" s="251"/>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="251"/>
+      <c r="Q22" s="251"/>
+      <c r="R22" s="251"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="251"/>
+      <c r="W22" s="251"/>
+      <c r="X22" s="251"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="251"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="253"/>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="253"/>
-      <c r="S23" s="253"/>
-      <c r="T23" s="253"/>
-      <c r="U23" s="253"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
-      <c r="X23" s="253"/>
-      <c r="Y23" s="253"/>
-      <c r="Z23" s="253"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="251"/>
+      <c r="W23" s="251"/>
+      <c r="X23" s="251"/>
+      <c r="Y23" s="251"/>
+      <c r="Z23" s="251"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="253"/>
-      <c r="B24" s="253"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="253"/>
-      <c r="M24" s="253"/>
-      <c r="N24" s="253"/>
-      <c r="O24" s="253"/>
-      <c r="P24" s="253"/>
-      <c r="Q24" s="253"/>
-      <c r="R24" s="253"/>
-      <c r="S24" s="253"/>
-      <c r="T24" s="253"/>
-      <c r="U24" s="253"/>
-      <c r="V24" s="253"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
-      <c r="Y24" s="253"/>
-      <c r="Z24" s="253"/>
+      <c r="A24" s="251"/>
+      <c r="B24" s="251"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="251"/>
+      <c r="N24" s="251"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="251"/>
+      <c r="Q24" s="251"/>
+      <c r="R24" s="251"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="251"/>
+      <c r="W24" s="251"/>
+      <c r="X24" s="251"/>
+      <c r="Y24" s="251"/>
+      <c r="Z24" s="251"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="253"/>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="253"/>
-      <c r="M25" s="253"/>
-      <c r="N25" s="253"/>
-      <c r="O25" s="253"/>
-      <c r="P25" s="253"/>
-      <c r="Q25" s="253"/>
-      <c r="R25" s="253"/>
-      <c r="S25" s="253"/>
-      <c r="T25" s="253"/>
-      <c r="U25" s="253"/>
-      <c r="V25" s="253"/>
-      <c r="W25" s="253"/>
-      <c r="X25" s="253"/>
-      <c r="Y25" s="253"/>
-      <c r="Z25" s="253"/>
+      <c r="A25" s="251"/>
+      <c r="B25" s="251"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="251"/>
+      <c r="N25" s="251"/>
+      <c r="O25" s="251"/>
+      <c r="P25" s="251"/>
+      <c r="Q25" s="251"/>
+      <c r="R25" s="251"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="251"/>
+      <c r="W25" s="251"/>
+      <c r="X25" s="251"/>
+      <c r="Y25" s="251"/>
+      <c r="Z25" s="251"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="253"/>
-      <c r="B26" s="253"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="253"/>
-      <c r="M26" s="253"/>
-      <c r="N26" s="253"/>
-      <c r="O26" s="253"/>
-      <c r="P26" s="253"/>
-      <c r="Q26" s="253"/>
-      <c r="R26" s="253"/>
-      <c r="S26" s="253"/>
-      <c r="T26" s="253"/>
-      <c r="U26" s="253"/>
-      <c r="V26" s="253"/>
-      <c r="W26" s="253"/>
-      <c r="X26" s="253"/>
-      <c r="Y26" s="253"/>
-      <c r="Z26" s="253"/>
+      <c r="A26" s="251"/>
+      <c r="B26" s="251"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="251"/>
+      <c r="M26" s="251"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="251"/>
+      <c r="P26" s="251"/>
+      <c r="Q26" s="251"/>
+      <c r="R26" s="251"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="251"/>
+      <c r="W26" s="251"/>
+      <c r="X26" s="251"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="253"/>
-      <c r="B27" s="253"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="253"/>
-      <c r="N27" s="253"/>
-      <c r="O27" s="253"/>
-      <c r="P27" s="253"/>
-      <c r="Q27" s="253"/>
-      <c r="R27" s="253"/>
-      <c r="S27" s="253"/>
-      <c r="T27" s="253"/>
-      <c r="U27" s="253"/>
-      <c r="V27" s="253"/>
-      <c r="W27" s="253"/>
-      <c r="X27" s="253"/>
-      <c r="Y27" s="253"/>
-      <c r="Z27" s="253"/>
+      <c r="A27" s="251"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="251"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="251"/>
+      <c r="M27" s="251"/>
+      <c r="N27" s="251"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="251"/>
+      <c r="Q27" s="251"/>
+      <c r="R27" s="251"/>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="251"/>
+      <c r="W27" s="251"/>
+      <c r="X27" s="251"/>
+      <c r="Y27" s="251"/>
+      <c r="Z27" s="251"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="253"/>
-      <c r="B28" s="253"/>
-      <c r="C28" s="253"/>
-      <c r="D28" s="253"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="253"/>
-      <c r="M28" s="253"/>
-      <c r="N28" s="253"/>
-      <c r="O28" s="253"/>
-      <c r="P28" s="253"/>
-      <c r="Q28" s="253"/>
-      <c r="R28" s="253"/>
-      <c r="S28" s="253"/>
-      <c r="T28" s="253"/>
-      <c r="U28" s="253"/>
-      <c r="V28" s="253"/>
-      <c r="W28" s="253"/>
-      <c r="X28" s="253"/>
-      <c r="Y28" s="253"/>
-      <c r="Z28" s="253"/>
+      <c r="A28" s="251"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="251"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="251"/>
+      <c r="M28" s="251"/>
+      <c r="N28" s="251"/>
+      <c r="O28" s="251"/>
+      <c r="P28" s="251"/>
+      <c r="Q28" s="251"/>
+      <c r="R28" s="251"/>
+      <c r="S28" s="251"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="251"/>
+      <c r="W28" s="251"/>
+      <c r="X28" s="251"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="253"/>
-      <c r="B29" s="253"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="253"/>
-      <c r="M29" s="253"/>
-      <c r="N29" s="253"/>
-      <c r="O29" s="253"/>
-      <c r="P29" s="253"/>
-      <c r="Q29" s="253"/>
-      <c r="R29" s="253"/>
-      <c r="S29" s="253"/>
-      <c r="T29" s="253"/>
-      <c r="U29" s="253"/>
-      <c r="V29" s="253"/>
-      <c r="W29" s="253"/>
-      <c r="X29" s="253"/>
-      <c r="Y29" s="253"/>
-      <c r="Z29" s="253"/>
+      <c r="A29" s="251"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="251"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="251"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="251"/>
+      <c r="M29" s="251"/>
+      <c r="N29" s="251"/>
+      <c r="O29" s="251"/>
+      <c r="P29" s="251"/>
+      <c r="Q29" s="251"/>
+      <c r="R29" s="251"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="251"/>
+      <c r="W29" s="251"/>
+      <c r="X29" s="251"/>
+      <c r="Y29" s="251"/>
+      <c r="Z29" s="251"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="253"/>
-      <c r="B30" s="253"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="253"/>
-      <c r="M30" s="253"/>
-      <c r="N30" s="253"/>
-      <c r="O30" s="253"/>
-      <c r="P30" s="253"/>
-      <c r="Q30" s="253"/>
-      <c r="R30" s="253"/>
-      <c r="S30" s="253"/>
-      <c r="T30" s="253"/>
-      <c r="U30" s="253"/>
-      <c r="V30" s="253"/>
-      <c r="W30" s="253"/>
-      <c r="X30" s="253"/>
-      <c r="Y30" s="253"/>
-      <c r="Z30" s="253"/>
+      <c r="A30" s="251"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="251"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="251"/>
+      <c r="M30" s="251"/>
+      <c r="N30" s="251"/>
+      <c r="O30" s="251"/>
+      <c r="P30" s="251"/>
+      <c r="Q30" s="251"/>
+      <c r="R30" s="251"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="251"/>
+      <c r="W30" s="251"/>
+      <c r="X30" s="251"/>
+      <c r="Y30" s="251"/>
+      <c r="Z30" s="251"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="253"/>
-      <c r="B31" s="253"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
-      <c r="K31" s="253"/>
-      <c r="L31" s="253"/>
-      <c r="M31" s="253"/>
-      <c r="N31" s="253"/>
-      <c r="O31" s="253"/>
-      <c r="P31" s="253"/>
-      <c r="Q31" s="253"/>
-      <c r="R31" s="253"/>
-      <c r="S31" s="253"/>
-      <c r="T31" s="253"/>
-      <c r="U31" s="253"/>
-      <c r="V31" s="253"/>
-      <c r="W31" s="253"/>
-      <c r="X31" s="253"/>
-      <c r="Y31" s="253"/>
-      <c r="Z31" s="253"/>
+      <c r="A31" s="251"/>
+      <c r="B31" s="251"/>
+      <c r="C31" s="251"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="251"/>
+      <c r="M31" s="251"/>
+      <c r="N31" s="251"/>
+      <c r="O31" s="251"/>
+      <c r="P31" s="251"/>
+      <c r="Q31" s="251"/>
+      <c r="R31" s="251"/>
+      <c r="S31" s="251"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="251"/>
+      <c r="W31" s="251"/>
+      <c r="X31" s="251"/>
+      <c r="Y31" s="251"/>
+      <c r="Z31" s="251"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="254" t="s">
+      <c r="A32" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="254"/>
-      <c r="C32" s="254"/>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="254"/>
-      <c r="K32" s="254"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="254"/>
-      <c r="N32" s="254"/>
-      <c r="O32" s="254"/>
-      <c r="P32" s="254"/>
-      <c r="Q32" s="254"/>
-      <c r="R32" s="254"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="254"/>
-      <c r="W32" s="254"/>
-      <c r="X32" s="254"/>
-      <c r="Y32" s="254"/>
-      <c r="Z32" s="254"/>
+      <c r="B32" s="252"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="252"/>
+      <c r="N32" s="252"/>
+      <c r="O32" s="252"/>
+      <c r="P32" s="252"/>
+      <c r="Q32" s="252"/>
+      <c r="R32" s="252"/>
+      <c r="S32" s="252"/>
+      <c r="T32" s="252"/>
+      <c r="U32" s="252"/>
+      <c r="V32" s="252"/>
+      <c r="W32" s="252"/>
+      <c r="X32" s="252"/>
+      <c r="Y32" s="252"/>
+      <c r="Z32" s="252"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="254"/>
-      <c r="B33" s="254"/>
-      <c r="C33" s="254"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="254"/>
-      <c r="J33" s="254"/>
-      <c r="K33" s="254"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="254"/>
-      <c r="N33" s="254"/>
-      <c r="O33" s="254"/>
-      <c r="P33" s="254"/>
-      <c r="Q33" s="254"/>
-      <c r="R33" s="254"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="254"/>
-      <c r="W33" s="254"/>
-      <c r="X33" s="254"/>
-      <c r="Y33" s="254"/>
-      <c r="Z33" s="254"/>
+      <c r="A33" s="252"/>
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="252"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="252"/>
+      <c r="N33" s="252"/>
+      <c r="O33" s="252"/>
+      <c r="P33" s="252"/>
+      <c r="Q33" s="252"/>
+      <c r="R33" s="252"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="252"/>
+      <c r="X33" s="252"/>
+      <c r="Y33" s="252"/>
+      <c r="Z33" s="252"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="254"/>
-      <c r="B34" s="254"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="254"/>
-      <c r="E34" s="254"/>
-      <c r="F34" s="254"/>
-      <c r="G34" s="254"/>
-      <c r="H34" s="254"/>
-      <c r="I34" s="254"/>
-      <c r="J34" s="254"/>
-      <c r="K34" s="254"/>
-      <c r="L34" s="254"/>
-      <c r="M34" s="254"/>
-      <c r="N34" s="254"/>
-      <c r="O34" s="254"/>
-      <c r="P34" s="254"/>
-      <c r="Q34" s="254"/>
-      <c r="R34" s="254"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="254"/>
-      <c r="W34" s="254"/>
-      <c r="X34" s="254"/>
-      <c r="Y34" s="254"/>
-      <c r="Z34" s="254"/>
+      <c r="A34" s="252"/>
+      <c r="B34" s="252"/>
+      <c r="C34" s="252"/>
+      <c r="D34" s="252"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="252"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="252"/>
+      <c r="N34" s="252"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="252"/>
+      <c r="Q34" s="252"/>
+      <c r="R34" s="252"/>
+      <c r="S34" s="252"/>
+      <c r="T34" s="252"/>
+      <c r="U34" s="252"/>
+      <c r="V34" s="252"/>
+      <c r="W34" s="252"/>
+      <c r="X34" s="252"/>
+      <c r="Y34" s="252"/>
+      <c r="Z34" s="252"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="254"/>
-      <c r="B35" s="254"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="254"/>
-      <c r="E35" s="254"/>
-      <c r="F35" s="254"/>
-      <c r="G35" s="254"/>
-      <c r="H35" s="254"/>
-      <c r="I35" s="254"/>
-      <c r="J35" s="254"/>
-      <c r="K35" s="254"/>
-      <c r="L35" s="254"/>
-      <c r="M35" s="254"/>
-      <c r="N35" s="254"/>
-      <c r="O35" s="254"/>
-      <c r="P35" s="254"/>
-      <c r="Q35" s="254"/>
-      <c r="R35" s="254"/>
-      <c r="S35" s="254"/>
-      <c r="T35" s="254"/>
-      <c r="U35" s="254"/>
-      <c r="V35" s="254"/>
-      <c r="W35" s="254"/>
-      <c r="X35" s="254"/>
-      <c r="Y35" s="254"/>
-      <c r="Z35" s="254"/>
+      <c r="A35" s="252"/>
+      <c r="B35" s="252"/>
+      <c r="C35" s="252"/>
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="252"/>
+      <c r="I35" s="252"/>
+      <c r="J35" s="252"/>
+      <c r="K35" s="252"/>
+      <c r="L35" s="252"/>
+      <c r="M35" s="252"/>
+      <c r="N35" s="252"/>
+      <c r="O35" s="252"/>
+      <c r="P35" s="252"/>
+      <c r="Q35" s="252"/>
+      <c r="R35" s="252"/>
+      <c r="S35" s="252"/>
+      <c r="T35" s="252"/>
+      <c r="U35" s="252"/>
+      <c r="V35" s="252"/>
+      <c r="W35" s="252"/>
+      <c r="X35" s="252"/>
+      <c r="Y35" s="252"/>
+      <c r="Z35" s="252"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="254"/>
-      <c r="B36" s="254"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="254"/>
-      <c r="E36" s="254"/>
-      <c r="F36" s="254"/>
-      <c r="G36" s="254"/>
-      <c r="H36" s="254"/>
-      <c r="I36" s="254"/>
-      <c r="J36" s="254"/>
-      <c r="K36" s="254"/>
-      <c r="L36" s="254"/>
-      <c r="M36" s="254"/>
-      <c r="N36" s="254"/>
-      <c r="O36" s="254"/>
-      <c r="P36" s="254"/>
-      <c r="Q36" s="254"/>
-      <c r="R36" s="254"/>
-      <c r="S36" s="254"/>
-      <c r="T36" s="254"/>
-      <c r="U36" s="254"/>
-      <c r="V36" s="254"/>
-      <c r="W36" s="254"/>
-      <c r="X36" s="254"/>
-      <c r="Y36" s="254"/>
-      <c r="Z36" s="254"/>
+      <c r="A36" s="252"/>
+      <c r="B36" s="252"/>
+      <c r="C36" s="252"/>
+      <c r="D36" s="252"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="252"/>
+      <c r="H36" s="252"/>
+      <c r="I36" s="252"/>
+      <c r="J36" s="252"/>
+      <c r="K36" s="252"/>
+      <c r="L36" s="252"/>
+      <c r="M36" s="252"/>
+      <c r="N36" s="252"/>
+      <c r="O36" s="252"/>
+      <c r="P36" s="252"/>
+      <c r="Q36" s="252"/>
+      <c r="R36" s="252"/>
+      <c r="S36" s="252"/>
+      <c r="T36" s="252"/>
+      <c r="U36" s="252"/>
+      <c r="V36" s="252"/>
+      <c r="W36" s="252"/>
+      <c r="X36" s="252"/>
+      <c r="Y36" s="252"/>
+      <c r="Z36" s="252"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="254"/>
-      <c r="B37" s="254"/>
-      <c r="C37" s="254"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="254"/>
-      <c r="F37" s="254"/>
-      <c r="G37" s="254"/>
-      <c r="H37" s="254"/>
-      <c r="I37" s="254"/>
-      <c r="J37" s="254"/>
-      <c r="K37" s="254"/>
-      <c r="L37" s="254"/>
-      <c r="M37" s="254"/>
-      <c r="N37" s="254"/>
-      <c r="O37" s="254"/>
-      <c r="P37" s="254"/>
-      <c r="Q37" s="254"/>
-      <c r="R37" s="254"/>
-      <c r="S37" s="254"/>
-      <c r="T37" s="254"/>
-      <c r="U37" s="254"/>
-      <c r="V37" s="254"/>
-      <c r="W37" s="254"/>
-      <c r="X37" s="254"/>
-      <c r="Y37" s="254"/>
-      <c r="Z37" s="254"/>
+      <c r="A37" s="252"/>
+      <c r="B37" s="252"/>
+      <c r="C37" s="252"/>
+      <c r="D37" s="252"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="252"/>
+      <c r="H37" s="252"/>
+      <c r="I37" s="252"/>
+      <c r="J37" s="252"/>
+      <c r="K37" s="252"/>
+      <c r="L37" s="252"/>
+      <c r="M37" s="252"/>
+      <c r="N37" s="252"/>
+      <c r="O37" s="252"/>
+      <c r="P37" s="252"/>
+      <c r="Q37" s="252"/>
+      <c r="R37" s="252"/>
+      <c r="S37" s="252"/>
+      <c r="T37" s="252"/>
+      <c r="U37" s="252"/>
+      <c r="V37" s="252"/>
+      <c r="W37" s="252"/>
+      <c r="X37" s="252"/>
+      <c r="Y37" s="252"/>
+      <c r="Z37" s="252"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="254"/>
-      <c r="B38" s="254"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="254"/>
-      <c r="F38" s="254"/>
-      <c r="G38" s="254"/>
-      <c r="H38" s="254"/>
-      <c r="I38" s="254"/>
-      <c r="J38" s="254"/>
-      <c r="K38" s="254"/>
-      <c r="L38" s="254"/>
-      <c r="M38" s="254"/>
-      <c r="N38" s="254"/>
-      <c r="O38" s="254"/>
-      <c r="P38" s="254"/>
-      <c r="Q38" s="254"/>
-      <c r="R38" s="254"/>
-      <c r="S38" s="254"/>
-      <c r="T38" s="254"/>
-      <c r="U38" s="254"/>
-      <c r="V38" s="254"/>
-      <c r="W38" s="254"/>
-      <c r="X38" s="254"/>
-      <c r="Y38" s="254"/>
-      <c r="Z38" s="254"/>
+      <c r="A38" s="252"/>
+      <c r="B38" s="252"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="252"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="252"/>
+      <c r="K38" s="252"/>
+      <c r="L38" s="252"/>
+      <c r="M38" s="252"/>
+      <c r="N38" s="252"/>
+      <c r="O38" s="252"/>
+      <c r="P38" s="252"/>
+      <c r="Q38" s="252"/>
+      <c r="R38" s="252"/>
+      <c r="S38" s="252"/>
+      <c r="T38" s="252"/>
+      <c r="U38" s="252"/>
+      <c r="V38" s="252"/>
+      <c r="W38" s="252"/>
+      <c r="X38" s="252"/>
+      <c r="Y38" s="252"/>
+      <c r="Z38" s="252"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="254"/>
-      <c r="B39" s="254"/>
-      <c r="C39" s="254"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="254"/>
-      <c r="H39" s="254"/>
-      <c r="I39" s="254"/>
-      <c r="J39" s="254"/>
-      <c r="K39" s="254"/>
-      <c r="L39" s="254"/>
-      <c r="M39" s="254"/>
-      <c r="N39" s="254"/>
-      <c r="O39" s="254"/>
-      <c r="P39" s="254"/>
-      <c r="Q39" s="254"/>
-      <c r="R39" s="254"/>
-      <c r="S39" s="254"/>
-      <c r="T39" s="254"/>
-      <c r="U39" s="254"/>
-      <c r="V39" s="254"/>
-      <c r="W39" s="254"/>
-      <c r="X39" s="254"/>
-      <c r="Y39" s="254"/>
-      <c r="Z39" s="254"/>
+      <c r="A39" s="252"/>
+      <c r="B39" s="252"/>
+      <c r="C39" s="252"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
+      <c r="H39" s="252"/>
+      <c r="I39" s="252"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="252"/>
+      <c r="L39" s="252"/>
+      <c r="M39" s="252"/>
+      <c r="N39" s="252"/>
+      <c r="O39" s="252"/>
+      <c r="P39" s="252"/>
+      <c r="Q39" s="252"/>
+      <c r="R39" s="252"/>
+      <c r="S39" s="252"/>
+      <c r="T39" s="252"/>
+      <c r="U39" s="252"/>
+      <c r="V39" s="252"/>
+      <c r="W39" s="252"/>
+      <c r="X39" s="252"/>
+      <c r="Y39" s="252"/>
+      <c r="Z39" s="252"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="254"/>
-      <c r="B40" s="254"/>
-      <c r="C40" s="254"/>
-      <c r="D40" s="254"/>
-      <c r="E40" s="254"/>
-      <c r="F40" s="254"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="254"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="254"/>
-      <c r="L40" s="254"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="254"/>
-      <c r="O40" s="254"/>
-      <c r="P40" s="254"/>
-      <c r="Q40" s="254"/>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="254"/>
-      <c r="U40" s="254"/>
-      <c r="V40" s="254"/>
-      <c r="W40" s="254"/>
-      <c r="X40" s="254"/>
-      <c r="Y40" s="254"/>
-      <c r="Z40" s="254"/>
+      <c r="A40" s="252"/>
+      <c r="B40" s="252"/>
+      <c r="C40" s="252"/>
+      <c r="D40" s="252"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="252"/>
+      <c r="G40" s="252"/>
+      <c r="H40" s="252"/>
+      <c r="I40" s="252"/>
+      <c r="J40" s="252"/>
+      <c r="K40" s="252"/>
+      <c r="L40" s="252"/>
+      <c r="M40" s="252"/>
+      <c r="N40" s="252"/>
+      <c r="O40" s="252"/>
+      <c r="P40" s="252"/>
+      <c r="Q40" s="252"/>
+      <c r="R40" s="252"/>
+      <c r="S40" s="252"/>
+      <c r="T40" s="252"/>
+      <c r="U40" s="252"/>
+      <c r="V40" s="252"/>
+      <c r="W40" s="252"/>
+      <c r="X40" s="252"/>
+      <c r="Y40" s="252"/>
+      <c r="Z40" s="252"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="254"/>
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="254"/>
-      <c r="I41" s="254"/>
-      <c r="J41" s="254"/>
-      <c r="K41" s="254"/>
-      <c r="L41" s="254"/>
-      <c r="M41" s="254"/>
-      <c r="N41" s="254"/>
-      <c r="O41" s="254"/>
-      <c r="P41" s="254"/>
-      <c r="Q41" s="254"/>
-      <c r="R41" s="254"/>
-      <c r="S41" s="254"/>
-      <c r="T41" s="254"/>
-      <c r="U41" s="254"/>
-      <c r="V41" s="254"/>
-      <c r="W41" s="254"/>
-      <c r="X41" s="254"/>
-      <c r="Y41" s="254"/>
-      <c r="Z41" s="254"/>
+      <c r="A41" s="252"/>
+      <c r="B41" s="252"/>
+      <c r="C41" s="252"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="252"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="252"/>
+      <c r="H41" s="252"/>
+      <c r="I41" s="252"/>
+      <c r="J41" s="252"/>
+      <c r="K41" s="252"/>
+      <c r="L41" s="252"/>
+      <c r="M41" s="252"/>
+      <c r="N41" s="252"/>
+      <c r="O41" s="252"/>
+      <c r="P41" s="252"/>
+      <c r="Q41" s="252"/>
+      <c r="R41" s="252"/>
+      <c r="S41" s="252"/>
+      <c r="T41" s="252"/>
+      <c r="U41" s="252"/>
+      <c r="V41" s="252"/>
+      <c r="W41" s="252"/>
+      <c r="X41" s="252"/>
+      <c r="Y41" s="252"/>
+      <c r="Z41" s="252"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="254"/>
-      <c r="B42" s="254"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="254"/>
-      <c r="E42" s="254"/>
-      <c r="F42" s="254"/>
-      <c r="G42" s="254"/>
-      <c r="H42" s="254"/>
-      <c r="I42" s="254"/>
-      <c r="J42" s="254"/>
-      <c r="K42" s="254"/>
-      <c r="L42" s="254"/>
-      <c r="M42" s="254"/>
-      <c r="N42" s="254"/>
-      <c r="O42" s="254"/>
-      <c r="P42" s="254"/>
-      <c r="Q42" s="254"/>
-      <c r="R42" s="254"/>
-      <c r="S42" s="254"/>
-      <c r="T42" s="254"/>
-      <c r="U42" s="254"/>
-      <c r="V42" s="254"/>
-      <c r="W42" s="254"/>
-      <c r="X42" s="254"/>
-      <c r="Y42" s="254"/>
-      <c r="Z42" s="254"/>
+      <c r="A42" s="252"/>
+      <c r="B42" s="252"/>
+      <c r="C42" s="252"/>
+      <c r="D42" s="252"/>
+      <c r="E42" s="252"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="252"/>
+      <c r="H42" s="252"/>
+      <c r="I42" s="252"/>
+      <c r="J42" s="252"/>
+      <c r="K42" s="252"/>
+      <c r="L42" s="252"/>
+      <c r="M42" s="252"/>
+      <c r="N42" s="252"/>
+      <c r="O42" s="252"/>
+      <c r="P42" s="252"/>
+      <c r="Q42" s="252"/>
+      <c r="R42" s="252"/>
+      <c r="S42" s="252"/>
+      <c r="T42" s="252"/>
+      <c r="U42" s="252"/>
+      <c r="V42" s="252"/>
+      <c r="W42" s="252"/>
+      <c r="X42" s="252"/>
+      <c r="Y42" s="252"/>
+      <c r="Z42" s="252"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="254"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="254"/>
-      <c r="E43" s="254"/>
-      <c r="F43" s="254"/>
-      <c r="G43" s="254"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="254"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="254"/>
-      <c r="L43" s="254"/>
-      <c r="M43" s="254"/>
-      <c r="N43" s="254"/>
-      <c r="O43" s="254"/>
-      <c r="P43" s="254"/>
-      <c r="Q43" s="254"/>
-      <c r="R43" s="254"/>
-      <c r="S43" s="254"/>
-      <c r="T43" s="254"/>
-      <c r="U43" s="254"/>
-      <c r="V43" s="254"/>
-      <c r="W43" s="254"/>
-      <c r="X43" s="254"/>
-      <c r="Y43" s="254"/>
-      <c r="Z43" s="254"/>
+      <c r="A43" s="252"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+      <c r="G43" s="252"/>
+      <c r="H43" s="252"/>
+      <c r="I43" s="252"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="252"/>
+      <c r="L43" s="252"/>
+      <c r="M43" s="252"/>
+      <c r="N43" s="252"/>
+      <c r="O43" s="252"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="252"/>
+      <c r="R43" s="252"/>
+      <c r="S43" s="252"/>
+      <c r="T43" s="252"/>
+      <c r="U43" s="252"/>
+      <c r="V43" s="252"/>
+      <c r="W43" s="252"/>
+      <c r="X43" s="252"/>
+      <c r="Y43" s="252"/>
+      <c r="Z43" s="252"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="254"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
-      <c r="E44" s="254"/>
-      <c r="F44" s="254"/>
-      <c r="G44" s="254"/>
-      <c r="H44" s="254"/>
-      <c r="I44" s="254"/>
-      <c r="J44" s="254"/>
-      <c r="K44" s="254"/>
-      <c r="L44" s="254"/>
-      <c r="M44" s="254"/>
-      <c r="N44" s="254"/>
-      <c r="O44" s="254"/>
-      <c r="P44" s="254"/>
-      <c r="Q44" s="254"/>
-      <c r="R44" s="254"/>
-      <c r="S44" s="254"/>
-      <c r="T44" s="254"/>
-      <c r="U44" s="254"/>
-      <c r="V44" s="254"/>
-      <c r="W44" s="254"/>
-      <c r="X44" s="254"/>
-      <c r="Y44" s="254"/>
-      <c r="Z44" s="254"/>
+      <c r="A44" s="252"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
+      <c r="E44" s="252"/>
+      <c r="F44" s="252"/>
+      <c r="G44" s="252"/>
+      <c r="H44" s="252"/>
+      <c r="I44" s="252"/>
+      <c r="J44" s="252"/>
+      <c r="K44" s="252"/>
+      <c r="L44" s="252"/>
+      <c r="M44" s="252"/>
+      <c r="N44" s="252"/>
+      <c r="O44" s="252"/>
+      <c r="P44" s="252"/>
+      <c r="Q44" s="252"/>
+      <c r="R44" s="252"/>
+      <c r="S44" s="252"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="252"/>
+      <c r="V44" s="252"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="254"/>
-      <c r="B45" s="254"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="254"/>
-      <c r="E45" s="254"/>
-      <c r="F45" s="254"/>
-      <c r="G45" s="254"/>
-      <c r="H45" s="254"/>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="254"/>
-      <c r="L45" s="254"/>
-      <c r="M45" s="254"/>
-      <c r="N45" s="254"/>
-      <c r="O45" s="254"/>
-      <c r="P45" s="254"/>
-      <c r="Q45" s="254"/>
-      <c r="R45" s="254"/>
-      <c r="S45" s="254"/>
-      <c r="T45" s="254"/>
-      <c r="U45" s="254"/>
-      <c r="V45" s="254"/>
-      <c r="W45" s="254"/>
-      <c r="X45" s="254"/>
-      <c r="Y45" s="254"/>
-      <c r="Z45" s="254"/>
+      <c r="A45" s="252"/>
+      <c r="B45" s="252"/>
+      <c r="C45" s="252"/>
+      <c r="D45" s="252"/>
+      <c r="E45" s="252"/>
+      <c r="F45" s="252"/>
+      <c r="G45" s="252"/>
+      <c r="H45" s="252"/>
+      <c r="I45" s="252"/>
+      <c r="J45" s="252"/>
+      <c r="K45" s="252"/>
+      <c r="L45" s="252"/>
+      <c r="M45" s="252"/>
+      <c r="N45" s="252"/>
+      <c r="O45" s="252"/>
+      <c r="P45" s="252"/>
+      <c r="Q45" s="252"/>
+      <c r="R45" s="252"/>
+      <c r="S45" s="252"/>
+      <c r="T45" s="252"/>
+      <c r="U45" s="252"/>
+      <c r="V45" s="252"/>
+      <c r="W45" s="252"/>
+      <c r="X45" s="252"/>
+      <c r="Y45" s="252"/>
+      <c r="Z45" s="252"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="254"/>
-      <c r="B46" s="254"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="254"/>
-      <c r="E46" s="254"/>
-      <c r="F46" s="254"/>
-      <c r="G46" s="254"/>
-      <c r="H46" s="254"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="254"/>
-      <c r="K46" s="254"/>
-      <c r="L46" s="254"/>
-      <c r="M46" s="254"/>
-      <c r="N46" s="254"/>
-      <c r="O46" s="254"/>
-      <c r="P46" s="254"/>
-      <c r="Q46" s="254"/>
-      <c r="R46" s="254"/>
-      <c r="S46" s="254"/>
-      <c r="T46" s="254"/>
-      <c r="U46" s="254"/>
-      <c r="V46" s="254"/>
-      <c r="W46" s="254"/>
-      <c r="X46" s="254"/>
-      <c r="Y46" s="254"/>
-      <c r="Z46" s="254"/>
+      <c r="A46" s="252"/>
+      <c r="B46" s="252"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="252"/>
+      <c r="E46" s="252"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="252"/>
+      <c r="H46" s="252"/>
+      <c r="I46" s="252"/>
+      <c r="J46" s="252"/>
+      <c r="K46" s="252"/>
+      <c r="L46" s="252"/>
+      <c r="M46" s="252"/>
+      <c r="N46" s="252"/>
+      <c r="O46" s="252"/>
+      <c r="P46" s="252"/>
+      <c r="Q46" s="252"/>
+      <c r="R46" s="252"/>
+      <c r="S46" s="252"/>
+      <c r="T46" s="252"/>
+      <c r="U46" s="252"/>
+      <c r="V46" s="252"/>
+      <c r="W46" s="252"/>
+      <c r="X46" s="252"/>
+      <c r="Y46" s="252"/>
+      <c r="Z46" s="252"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="254"/>
-      <c r="B47" s="254"/>
-      <c r="C47" s="254"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="254"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="254"/>
-      <c r="H47" s="254"/>
-      <c r="I47" s="254"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="254"/>
-      <c r="L47" s="254"/>
-      <c r="M47" s="254"/>
-      <c r="N47" s="254"/>
-      <c r="O47" s="254"/>
-      <c r="P47" s="254"/>
-      <c r="Q47" s="254"/>
-      <c r="R47" s="254"/>
-      <c r="S47" s="254"/>
-      <c r="T47" s="254"/>
-      <c r="U47" s="254"/>
-      <c r="V47" s="254"/>
-      <c r="W47" s="254"/>
-      <c r="X47" s="254"/>
-      <c r="Y47" s="254"/>
-      <c r="Z47" s="254"/>
+      <c r="A47" s="252"/>
+      <c r="B47" s="252"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="252"/>
+      <c r="E47" s="252"/>
+      <c r="F47" s="252"/>
+      <c r="G47" s="252"/>
+      <c r="H47" s="252"/>
+      <c r="I47" s="252"/>
+      <c r="J47" s="252"/>
+      <c r="K47" s="252"/>
+      <c r="L47" s="252"/>
+      <c r="M47" s="252"/>
+      <c r="N47" s="252"/>
+      <c r="O47" s="252"/>
+      <c r="P47" s="252"/>
+      <c r="Q47" s="252"/>
+      <c r="R47" s="252"/>
+      <c r="S47" s="252"/>
+      <c r="T47" s="252"/>
+      <c r="U47" s="252"/>
+      <c r="V47" s="252"/>
+      <c r="W47" s="252"/>
+      <c r="X47" s="252"/>
+      <c r="Y47" s="252"/>
+      <c r="Z47" s="252"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="254"/>
-      <c r="B48" s="254"/>
-      <c r="C48" s="254"/>
-      <c r="D48" s="254"/>
-      <c r="E48" s="254"/>
-      <c r="F48" s="254"/>
-      <c r="G48" s="254"/>
-      <c r="H48" s="254"/>
-      <c r="I48" s="254"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="254"/>
-      <c r="L48" s="254"/>
-      <c r="M48" s="254"/>
-      <c r="N48" s="254"/>
-      <c r="O48" s="254"/>
-      <c r="P48" s="254"/>
-      <c r="Q48" s="254"/>
-      <c r="R48" s="254"/>
-      <c r="S48" s="254"/>
-      <c r="T48" s="254"/>
-      <c r="U48" s="254"/>
-      <c r="V48" s="254"/>
-      <c r="W48" s="254"/>
-      <c r="X48" s="254"/>
-      <c r="Y48" s="254"/>
-      <c r="Z48" s="254"/>
+      <c r="A48" s="252"/>
+      <c r="B48" s="252"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="252"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="252"/>
+      <c r="H48" s="252"/>
+      <c r="I48" s="252"/>
+      <c r="J48" s="252"/>
+      <c r="K48" s="252"/>
+      <c r="L48" s="252"/>
+      <c r="M48" s="252"/>
+      <c r="N48" s="252"/>
+      <c r="O48" s="252"/>
+      <c r="P48" s="252"/>
+      <c r="Q48" s="252"/>
+      <c r="R48" s="252"/>
+      <c r="S48" s="252"/>
+      <c r="T48" s="252"/>
+      <c r="U48" s="252"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="252"/>
+      <c r="X48" s="252"/>
+      <c r="Y48" s="252"/>
+      <c r="Z48" s="252"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="254"/>
-      <c r="B49" s="254"/>
-      <c r="C49" s="254"/>
-      <c r="D49" s="254"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="254"/>
-      <c r="G49" s="254"/>
-      <c r="H49" s="254"/>
-      <c r="I49" s="254"/>
-      <c r="J49" s="254"/>
-      <c r="K49" s="254"/>
-      <c r="L49" s="254"/>
-      <c r="M49" s="254"/>
-      <c r="N49" s="254"/>
-      <c r="O49" s="254"/>
-      <c r="P49" s="254"/>
-      <c r="Q49" s="254"/>
-      <c r="R49" s="254"/>
-      <c r="S49" s="254"/>
-      <c r="T49" s="254"/>
-      <c r="U49" s="254"/>
-      <c r="V49" s="254"/>
-      <c r="W49" s="254"/>
-      <c r="X49" s="254"/>
-      <c r="Y49" s="254"/>
-      <c r="Z49" s="254"/>
+      <c r="A49" s="252"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="252"/>
+      <c r="E49" s="252"/>
+      <c r="F49" s="252"/>
+      <c r="G49" s="252"/>
+      <c r="H49" s="252"/>
+      <c r="I49" s="252"/>
+      <c r="J49" s="252"/>
+      <c r="K49" s="252"/>
+      <c r="L49" s="252"/>
+      <c r="M49" s="252"/>
+      <c r="N49" s="252"/>
+      <c r="O49" s="252"/>
+      <c r="P49" s="252"/>
+      <c r="Q49" s="252"/>
+      <c r="R49" s="252"/>
+      <c r="S49" s="252"/>
+      <c r="T49" s="252"/>
+      <c r="U49" s="252"/>
+      <c r="V49" s="252"/>
+      <c r="W49" s="252"/>
+      <c r="X49" s="252"/>
+      <c r="Y49" s="252"/>
+      <c r="Z49" s="252"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="254"/>
-      <c r="B50" s="254"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="254"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="254"/>
-      <c r="G50" s="254"/>
-      <c r="H50" s="254"/>
-      <c r="I50" s="254"/>
-      <c r="J50" s="254"/>
-      <c r="K50" s="254"/>
-      <c r="L50" s="254"/>
-      <c r="M50" s="254"/>
-      <c r="N50" s="254"/>
-      <c r="O50" s="254"/>
-      <c r="P50" s="254"/>
-      <c r="Q50" s="254"/>
-      <c r="R50" s="254"/>
-      <c r="S50" s="254"/>
-      <c r="T50" s="254"/>
-      <c r="U50" s="254"/>
-      <c r="V50" s="254"/>
-      <c r="W50" s="254"/>
-      <c r="X50" s="254"/>
-      <c r="Y50" s="254"/>
-      <c r="Z50" s="254"/>
+      <c r="A50" s="252"/>
+      <c r="B50" s="252"/>
+      <c r="C50" s="252"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
+      <c r="F50" s="252"/>
+      <c r="G50" s="252"/>
+      <c r="H50" s="252"/>
+      <c r="I50" s="252"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="252"/>
+      <c r="L50" s="252"/>
+      <c r="M50" s="252"/>
+      <c r="N50" s="252"/>
+      <c r="O50" s="252"/>
+      <c r="P50" s="252"/>
+      <c r="Q50" s="252"/>
+      <c r="R50" s="252"/>
+      <c r="S50" s="252"/>
+      <c r="T50" s="252"/>
+      <c r="U50" s="252"/>
+      <c r="V50" s="252"/>
+      <c r="W50" s="252"/>
+      <c r="X50" s="252"/>
+      <c r="Y50" s="252"/>
+      <c r="Z50" s="252"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="254"/>
-      <c r="B51" s="254"/>
-      <c r="C51" s="254"/>
-      <c r="D51" s="254"/>
-      <c r="E51" s="254"/>
-      <c r="F51" s="254"/>
-      <c r="G51" s="254"/>
-      <c r="H51" s="254"/>
-      <c r="I51" s="254"/>
-      <c r="J51" s="254"/>
-      <c r="K51" s="254"/>
-      <c r="L51" s="254"/>
-      <c r="M51" s="254"/>
-      <c r="N51" s="254"/>
-      <c r="O51" s="254"/>
-      <c r="P51" s="254"/>
-      <c r="Q51" s="254"/>
-      <c r="R51" s="254"/>
-      <c r="S51" s="254"/>
-      <c r="T51" s="254"/>
-      <c r="U51" s="254"/>
-      <c r="V51" s="254"/>
-      <c r="W51" s="254"/>
-      <c r="X51" s="254"/>
-      <c r="Y51" s="254"/>
-      <c r="Z51" s="254"/>
+      <c r="A51" s="252"/>
+      <c r="B51" s="252"/>
+      <c r="C51" s="252"/>
+      <c r="D51" s="252"/>
+      <c r="E51" s="252"/>
+      <c r="F51" s="252"/>
+      <c r="G51" s="252"/>
+      <c r="H51" s="252"/>
+      <c r="I51" s="252"/>
+      <c r="J51" s="252"/>
+      <c r="K51" s="252"/>
+      <c r="L51" s="252"/>
+      <c r="M51" s="252"/>
+      <c r="N51" s="252"/>
+      <c r="O51" s="252"/>
+      <c r="P51" s="252"/>
+      <c r="Q51" s="252"/>
+      <c r="R51" s="252"/>
+      <c r="S51" s="252"/>
+      <c r="T51" s="252"/>
+      <c r="U51" s="252"/>
+      <c r="V51" s="252"/>
+      <c r="W51" s="252"/>
+      <c r="X51" s="252"/>
+      <c r="Y51" s="252"/>
+      <c r="Z51" s="252"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="254"/>
-      <c r="B52" s="254"/>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="254"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="254"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="254"/>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="254"/>
-      <c r="M52" s="254"/>
-      <c r="N52" s="254"/>
-      <c r="O52" s="254"/>
-      <c r="P52" s="254"/>
-      <c r="Q52" s="254"/>
-      <c r="R52" s="254"/>
-      <c r="S52" s="254"/>
-      <c r="T52" s="254"/>
-      <c r="U52" s="254"/>
-      <c r="V52" s="254"/>
-      <c r="W52" s="254"/>
-      <c r="X52" s="254"/>
-      <c r="Y52" s="254"/>
-      <c r="Z52" s="254"/>
+      <c r="A52" s="252"/>
+      <c r="B52" s="252"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="252"/>
+      <c r="M52" s="252"/>
+      <c r="N52" s="252"/>
+      <c r="O52" s="252"/>
+      <c r="P52" s="252"/>
+      <c r="Q52" s="252"/>
+      <c r="R52" s="252"/>
+      <c r="S52" s="252"/>
+      <c r="T52" s="252"/>
+      <c r="U52" s="252"/>
+      <c r="V52" s="252"/>
+      <c r="W52" s="252"/>
+      <c r="X52" s="252"/>
+      <c r="Y52" s="252"/>
+      <c r="Z52" s="252"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="254"/>
-      <c r="B53" s="254"/>
-      <c r="C53" s="254"/>
-      <c r="D53" s="254"/>
-      <c r="E53" s="254"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="254"/>
-      <c r="H53" s="254"/>
-      <c r="I53" s="254"/>
-      <c r="J53" s="254"/>
-      <c r="K53" s="254"/>
-      <c r="L53" s="254"/>
-      <c r="M53" s="254"/>
-      <c r="N53" s="254"/>
-      <c r="O53" s="254"/>
-      <c r="P53" s="254"/>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="254"/>
-      <c r="S53" s="254"/>
-      <c r="T53" s="254"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="254"/>
-      <c r="W53" s="254"/>
-      <c r="X53" s="254"/>
-      <c r="Y53" s="254"/>
-      <c r="Z53" s="254"/>
+      <c r="A53" s="252"/>
+      <c r="B53" s="252"/>
+      <c r="C53" s="252"/>
+      <c r="D53" s="252"/>
+      <c r="E53" s="252"/>
+      <c r="F53" s="252"/>
+      <c r="G53" s="252"/>
+      <c r="H53" s="252"/>
+      <c r="I53" s="252"/>
+      <c r="J53" s="252"/>
+      <c r="K53" s="252"/>
+      <c r="L53" s="252"/>
+      <c r="M53" s="252"/>
+      <c r="N53" s="252"/>
+      <c r="O53" s="252"/>
+      <c r="P53" s="252"/>
+      <c r="Q53" s="252"/>
+      <c r="R53" s="252"/>
+      <c r="S53" s="252"/>
+      <c r="T53" s="252"/>
+      <c r="U53" s="252"/>
+      <c r="V53" s="252"/>
+      <c r="W53" s="252"/>
+      <c r="X53" s="252"/>
+      <c r="Y53" s="252"/>
+      <c r="Z53" s="252"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="254"/>
-      <c r="B54" s="254"/>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="254"/>
-      <c r="F54" s="254"/>
-      <c r="G54" s="254"/>
-      <c r="H54" s="254"/>
-      <c r="I54" s="254"/>
-      <c r="J54" s="254"/>
-      <c r="K54" s="254"/>
-      <c r="L54" s="254"/>
-      <c r="M54" s="254"/>
-      <c r="N54" s="254"/>
-      <c r="O54" s="254"/>
-      <c r="P54" s="254"/>
-      <c r="Q54" s="254"/>
-      <c r="R54" s="254"/>
-      <c r="S54" s="254"/>
-      <c r="T54" s="254"/>
-      <c r="U54" s="254"/>
-      <c r="V54" s="254"/>
-      <c r="W54" s="254"/>
-      <c r="X54" s="254"/>
-      <c r="Y54" s="254"/>
-      <c r="Z54" s="254"/>
+      <c r="A54" s="252"/>
+      <c r="B54" s="252"/>
+      <c r="C54" s="252"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="252"/>
+      <c r="G54" s="252"/>
+      <c r="H54" s="252"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="252"/>
+      <c r="N54" s="252"/>
+      <c r="O54" s="252"/>
+      <c r="P54" s="252"/>
+      <c r="Q54" s="252"/>
+      <c r="R54" s="252"/>
+      <c r="S54" s="252"/>
+      <c r="T54" s="252"/>
+      <c r="U54" s="252"/>
+      <c r="V54" s="252"/>
+      <c r="W54" s="252"/>
+      <c r="X54" s="252"/>
+      <c r="Y54" s="252"/>
+      <c r="Z54" s="252"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="254"/>
-      <c r="B55" s="254"/>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
-      <c r="E55" s="254"/>
-      <c r="F55" s="254"/>
-      <c r="G55" s="254"/>
-      <c r="H55" s="254"/>
-      <c r="I55" s="254"/>
-      <c r="J55" s="254"/>
-      <c r="K55" s="254"/>
-      <c r="L55" s="254"/>
-      <c r="M55" s="254"/>
-      <c r="N55" s="254"/>
-      <c r="O55" s="254"/>
-      <c r="P55" s="254"/>
-      <c r="Q55" s="254"/>
-      <c r="R55" s="254"/>
-      <c r="S55" s="254"/>
-      <c r="T55" s="254"/>
-      <c r="U55" s="254"/>
-      <c r="V55" s="254"/>
-      <c r="W55" s="254"/>
-      <c r="X55" s="254"/>
-      <c r="Y55" s="254"/>
-      <c r="Z55" s="254"/>
+      <c r="A55" s="252"/>
+      <c r="B55" s="252"/>
+      <c r="C55" s="252"/>
+      <c r="D55" s="252"/>
+      <c r="E55" s="252"/>
+      <c r="F55" s="252"/>
+      <c r="G55" s="252"/>
+      <c r="H55" s="252"/>
+      <c r="I55" s="252"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="252"/>
+      <c r="L55" s="252"/>
+      <c r="M55" s="252"/>
+      <c r="N55" s="252"/>
+      <c r="O55" s="252"/>
+      <c r="P55" s="252"/>
+      <c r="Q55" s="252"/>
+      <c r="R55" s="252"/>
+      <c r="S55" s="252"/>
+      <c r="T55" s="252"/>
+      <c r="U55" s="252"/>
+      <c r="V55" s="252"/>
+      <c r="W55" s="252"/>
+      <c r="X55" s="252"/>
+      <c r="Y55" s="252"/>
+      <c r="Z55" s="252"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="254"/>
-      <c r="B56" s="254"/>
-      <c r="C56" s="254"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="254"/>
-      <c r="F56" s="254"/>
-      <c r="G56" s="254"/>
-      <c r="H56" s="254"/>
-      <c r="I56" s="254"/>
-      <c r="J56" s="254"/>
-      <c r="K56" s="254"/>
-      <c r="L56" s="254"/>
-      <c r="M56" s="254"/>
-      <c r="N56" s="254"/>
-      <c r="O56" s="254"/>
-      <c r="P56" s="254"/>
-      <c r="Q56" s="254"/>
-      <c r="R56" s="254"/>
-      <c r="S56" s="254"/>
-      <c r="T56" s="254"/>
-      <c r="U56" s="254"/>
-      <c r="V56" s="254"/>
-      <c r="W56" s="254"/>
-      <c r="X56" s="254"/>
-      <c r="Y56" s="254"/>
-      <c r="Z56" s="254"/>
+      <c r="A56" s="252"/>
+      <c r="B56" s="252"/>
+      <c r="C56" s="252"/>
+      <c r="D56" s="252"/>
+      <c r="E56" s="252"/>
+      <c r="F56" s="252"/>
+      <c r="G56" s="252"/>
+      <c r="H56" s="252"/>
+      <c r="I56" s="252"/>
+      <c r="J56" s="252"/>
+      <c r="K56" s="252"/>
+      <c r="L56" s="252"/>
+      <c r="M56" s="252"/>
+      <c r="N56" s="252"/>
+      <c r="O56" s="252"/>
+      <c r="P56" s="252"/>
+      <c r="Q56" s="252"/>
+      <c r="R56" s="252"/>
+      <c r="S56" s="252"/>
+      <c r="T56" s="252"/>
+      <c r="U56" s="252"/>
+      <c r="V56" s="252"/>
+      <c r="W56" s="252"/>
+      <c r="X56" s="252"/>
+      <c r="Y56" s="252"/>
+      <c r="Z56" s="252"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="254"/>
-      <c r="B57" s="254"/>
-      <c r="C57" s="254"/>
-      <c r="D57" s="254"/>
-      <c r="E57" s="254"/>
-      <c r="F57" s="254"/>
-      <c r="G57" s="254"/>
-      <c r="H57" s="254"/>
-      <c r="I57" s="254"/>
-      <c r="J57" s="254"/>
-      <c r="K57" s="254"/>
-      <c r="L57" s="254"/>
-      <c r="M57" s="254"/>
-      <c r="N57" s="254"/>
-      <c r="O57" s="254"/>
-      <c r="P57" s="254"/>
-      <c r="Q57" s="254"/>
-      <c r="R57" s="254"/>
-      <c r="S57" s="254"/>
-      <c r="T57" s="254"/>
-      <c r="U57" s="254"/>
-      <c r="V57" s="254"/>
-      <c r="W57" s="254"/>
-      <c r="X57" s="254"/>
-      <c r="Y57" s="254"/>
-      <c r="Z57" s="254"/>
+      <c r="A57" s="252"/>
+      <c r="B57" s="252"/>
+      <c r="C57" s="252"/>
+      <c r="D57" s="252"/>
+      <c r="E57" s="252"/>
+      <c r="F57" s="252"/>
+      <c r="G57" s="252"/>
+      <c r="H57" s="252"/>
+      <c r="I57" s="252"/>
+      <c r="J57" s="252"/>
+      <c r="K57" s="252"/>
+      <c r="L57" s="252"/>
+      <c r="M57" s="252"/>
+      <c r="N57" s="252"/>
+      <c r="O57" s="252"/>
+      <c r="P57" s="252"/>
+      <c r="Q57" s="252"/>
+      <c r="R57" s="252"/>
+      <c r="S57" s="252"/>
+      <c r="T57" s="252"/>
+      <c r="U57" s="252"/>
+      <c r="V57" s="252"/>
+      <c r="W57" s="252"/>
+      <c r="X57" s="252"/>
+      <c r="Y57" s="252"/>
+      <c r="Z57" s="252"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="254"/>
-      <c r="B58" s="254"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="254"/>
-      <c r="F58" s="254"/>
-      <c r="G58" s="254"/>
-      <c r="H58" s="254"/>
-      <c r="I58" s="254"/>
-      <c r="J58" s="254"/>
-      <c r="K58" s="254"/>
-      <c r="L58" s="254"/>
-      <c r="M58" s="254"/>
-      <c r="N58" s="254"/>
-      <c r="O58" s="254"/>
-      <c r="P58" s="254"/>
-      <c r="Q58" s="254"/>
-      <c r="R58" s="254"/>
-      <c r="S58" s="254"/>
-      <c r="T58" s="254"/>
-      <c r="U58" s="254"/>
-      <c r="V58" s="254"/>
-      <c r="W58" s="254"/>
-      <c r="X58" s="254"/>
-      <c r="Y58" s="254"/>
-      <c r="Z58" s="254"/>
+      <c r="A58" s="252"/>
+      <c r="B58" s="252"/>
+      <c r="C58" s="252"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="252"/>
+      <c r="G58" s="252"/>
+      <c r="H58" s="252"/>
+      <c r="I58" s="252"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="252"/>
+      <c r="L58" s="252"/>
+      <c r="M58" s="252"/>
+      <c r="N58" s="252"/>
+      <c r="O58" s="252"/>
+      <c r="P58" s="252"/>
+      <c r="Q58" s="252"/>
+      <c r="R58" s="252"/>
+      <c r="S58" s="252"/>
+      <c r="T58" s="252"/>
+      <c r="U58" s="252"/>
+      <c r="V58" s="252"/>
+      <c r="W58" s="252"/>
+      <c r="X58" s="252"/>
+      <c r="Y58" s="252"/>
+      <c r="Z58" s="252"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="254"/>
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="254"/>
-      <c r="K59" s="254"/>
-      <c r="L59" s="254"/>
-      <c r="M59" s="254"/>
-      <c r="N59" s="254"/>
-      <c r="O59" s="254"/>
-      <c r="P59" s="254"/>
-      <c r="Q59" s="254"/>
-      <c r="R59" s="254"/>
-      <c r="S59" s="254"/>
-      <c r="T59" s="254"/>
-      <c r="U59" s="254"/>
-      <c r="V59" s="254"/>
-      <c r="W59" s="254"/>
-      <c r="X59" s="254"/>
-      <c r="Y59" s="254"/>
-      <c r="Z59" s="254"/>
+      <c r="A59" s="252"/>
+      <c r="B59" s="252"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="252"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="252"/>
+      <c r="G59" s="252"/>
+      <c r="H59" s="252"/>
+      <c r="I59" s="252"/>
+      <c r="J59" s="252"/>
+      <c r="K59" s="252"/>
+      <c r="L59" s="252"/>
+      <c r="M59" s="252"/>
+      <c r="N59" s="252"/>
+      <c r="O59" s="252"/>
+      <c r="P59" s="252"/>
+      <c r="Q59" s="252"/>
+      <c r="R59" s="252"/>
+      <c r="S59" s="252"/>
+      <c r="T59" s="252"/>
+      <c r="U59" s="252"/>
+      <c r="V59" s="252"/>
+      <c r="W59" s="252"/>
+      <c r="X59" s="252"/>
+      <c r="Y59" s="252"/>
+      <c r="Z59" s="252"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="254"/>
-      <c r="B60" s="254"/>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="254"/>
-      <c r="F60" s="254"/>
-      <c r="G60" s="254"/>
-      <c r="H60" s="254"/>
-      <c r="I60" s="254"/>
-      <c r="J60" s="254"/>
-      <c r="K60" s="254"/>
-      <c r="L60" s="254"/>
-      <c r="M60" s="254"/>
-      <c r="N60" s="254"/>
-      <c r="O60" s="254"/>
-      <c r="P60" s="254"/>
-      <c r="Q60" s="254"/>
-      <c r="R60" s="254"/>
-      <c r="S60" s="254"/>
-      <c r="T60" s="254"/>
-      <c r="U60" s="254"/>
-      <c r="V60" s="254"/>
-      <c r="W60" s="254"/>
-      <c r="X60" s="254"/>
-      <c r="Y60" s="254"/>
-      <c r="Z60" s="254"/>
+      <c r="A60" s="252"/>
+      <c r="B60" s="252"/>
+      <c r="C60" s="252"/>
+      <c r="D60" s="252"/>
+      <c r="E60" s="252"/>
+      <c r="F60" s="252"/>
+      <c r="G60" s="252"/>
+      <c r="H60" s="252"/>
+      <c r="I60" s="252"/>
+      <c r="J60" s="252"/>
+      <c r="K60" s="252"/>
+      <c r="L60" s="252"/>
+      <c r="M60" s="252"/>
+      <c r="N60" s="252"/>
+      <c r="O60" s="252"/>
+      <c r="P60" s="252"/>
+      <c r="Q60" s="252"/>
+      <c r="R60" s="252"/>
+      <c r="S60" s="252"/>
+      <c r="T60" s="252"/>
+      <c r="U60" s="252"/>
+      <c r="V60" s="252"/>
+      <c r="W60" s="252"/>
+      <c r="X60" s="252"/>
+      <c r="Y60" s="252"/>
+      <c r="Z60" s="252"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="254"/>
-      <c r="B61" s="254"/>
-      <c r="C61" s="254"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="254"/>
-      <c r="G61" s="254"/>
-      <c r="H61" s="254"/>
-      <c r="I61" s="254"/>
-      <c r="J61" s="254"/>
-      <c r="K61" s="254"/>
-      <c r="L61" s="254"/>
-      <c r="M61" s="254"/>
-      <c r="N61" s="254"/>
-      <c r="O61" s="254"/>
-      <c r="P61" s="254"/>
-      <c r="Q61" s="254"/>
-      <c r="R61" s="254"/>
-      <c r="S61" s="254"/>
-      <c r="T61" s="254"/>
-      <c r="U61" s="254"/>
-      <c r="V61" s="254"/>
-      <c r="W61" s="254"/>
-      <c r="X61" s="254"/>
-      <c r="Y61" s="254"/>
-      <c r="Z61" s="254"/>
+      <c r="A61" s="252"/>
+      <c r="B61" s="252"/>
+      <c r="C61" s="252"/>
+      <c r="D61" s="252"/>
+      <c r="E61" s="252"/>
+      <c r="F61" s="252"/>
+      <c r="G61" s="252"/>
+      <c r="H61" s="252"/>
+      <c r="I61" s="252"/>
+      <c r="J61" s="252"/>
+      <c r="K61" s="252"/>
+      <c r="L61" s="252"/>
+      <c r="M61" s="252"/>
+      <c r="N61" s="252"/>
+      <c r="O61" s="252"/>
+      <c r="P61" s="252"/>
+      <c r="Q61" s="252"/>
+      <c r="R61" s="252"/>
+      <c r="S61" s="252"/>
+      <c r="T61" s="252"/>
+      <c r="U61" s="252"/>
+      <c r="V61" s="252"/>
+      <c r="W61" s="252"/>
+      <c r="X61" s="252"/>
+      <c r="Y61" s="252"/>
+      <c r="Z61" s="252"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="254"/>
-      <c r="B62" s="254"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="254"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="254"/>
-      <c r="K62" s="254"/>
-      <c r="L62" s="254"/>
-      <c r="M62" s="254"/>
-      <c r="N62" s="254"/>
-      <c r="O62" s="254"/>
-      <c r="P62" s="254"/>
-      <c r="Q62" s="254"/>
-      <c r="R62" s="254"/>
-      <c r="S62" s="254"/>
-      <c r="T62" s="254"/>
-      <c r="U62" s="254"/>
-      <c r="V62" s="254"/>
-      <c r="W62" s="254"/>
-      <c r="X62" s="254"/>
-      <c r="Y62" s="254"/>
-      <c r="Z62" s="254"/>
+      <c r="A62" s="252"/>
+      <c r="B62" s="252"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="252"/>
+      <c r="E62" s="252"/>
+      <c r="F62" s="252"/>
+      <c r="G62" s="252"/>
+      <c r="H62" s="252"/>
+      <c r="I62" s="252"/>
+      <c r="J62" s="252"/>
+      <c r="K62" s="252"/>
+      <c r="L62" s="252"/>
+      <c r="M62" s="252"/>
+      <c r="N62" s="252"/>
+      <c r="O62" s="252"/>
+      <c r="P62" s="252"/>
+      <c r="Q62" s="252"/>
+      <c r="R62" s="252"/>
+      <c r="S62" s="252"/>
+      <c r="T62" s="252"/>
+      <c r="U62" s="252"/>
+      <c r="V62" s="252"/>
+      <c r="W62" s="252"/>
+      <c r="X62" s="252"/>
+      <c r="Y62" s="252"/>
+      <c r="Z62" s="252"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
@@ -34240,433 +34234,433 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="232" customWidth="1"/>
-    <col min="2" max="2" width="34.125" style="232" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="232"/>
+    <col min="1" max="1" width="43.25" style="230" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="230" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="230"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:2">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="232" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:2">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="236" t="b">
+      <c r="B2" s="234" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:2">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="238">
+      <c r="B3" s="236">
         <v>45758</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:2">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="239" t="str">
+      <c r="B4" s="237" t="str">
         <f>IF(B2,TEXT(EDATE(B3,1)-1,"dd-mmm-yyyy"),B4)</f>
         <v>10-May-2025</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:2">
-      <c r="A5" s="235" t="s">
+      <c r="A5" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="238">
         <v>45761</v>
       </c>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:2">
-      <c r="A6" s="235"/>
-      <c r="B6" s="240"/>
+      <c r="A6" s="233"/>
+      <c r="B6" s="238"/>
     </row>
     <row r="7" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A7" s="241"/>
-      <c r="B7" s="242"/>
+      <c r="A7" s="239"/>
+      <c r="B7" s="240"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:2">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="243"/>
+      <c r="B8" s="241"/>
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A9" s="244" t="str">
+      <c r="A9" s="242" t="str">
         <f>TEXT(B3,"dd mmmm yyyy")&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,1)-1,"dd mmmm yyyy"),TEXT(B3+B5-B3,"dd mmmm yyyy"))</f>
         <v>11 April 2025 - 10 May 2025</v>
       </c>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="243" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A10" s="236" t="str">
+      <c r="A10" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,1),"dd mmmm yyyy"),TEXT(B3+(B5-B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,2)-1,"dd mmmm yyyy"),TEXT(B3+(B5-B3)*2+1,"dd mmmm yyyy"))</f>
         <v>11 May 2025 - 10 June 2025</v>
       </c>
-      <c r="B10" s="245"/>
+      <c r="B10" s="243"/>
     </row>
     <row r="11" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A11" s="236" t="str">
+      <c r="A11" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,2),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*2)+2,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,3)-1,"dd mmmm yyyy"),TEXT(B3+((B5-B3)*3+2),"dd mmmm yyyy"))</f>
         <v>11 June 2025 - 10 July 2025</v>
       </c>
-      <c r="B11" s="246"/>
+      <c r="B11" s="244"/>
     </row>
     <row r="12" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A12" s="247" t="str">
+      <c r="A12" s="245" t="str">
         <f>IF(B2,TEXT(EDATE(B3,3),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*3)+3,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,4)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*4)+3),"dd mmmm yyyy"))</f>
         <v>11 July 2025 - 10 August 2025</v>
       </c>
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="232" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A13" s="247" t="str">
+      <c r="A13" s="245" t="str">
         <f>IF(B2,TEXT(EDATE(B3,4),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,5)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*5)+4),"dd mmmm yyyy"))</f>
         <v>11 August 2025 - 10 September 2025</v>
       </c>
-      <c r="B13" s="248"/>
+      <c r="B13" s="246"/>
     </row>
     <row r="14" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A14" s="236" t="str">
+      <c r="A14" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,5),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*5)+5,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,6)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*6)+5),"dd mmmm yyyy"))</f>
         <v>11 September 2025 - 10 October 2025</v>
       </c>
-      <c r="B14" s="249"/>
+      <c r="B14" s="247"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A15" s="236" t="str">
+      <c r="A15" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,6),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*6)+6,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,7)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*7)+6),"dd mmmm yyyy"))</f>
         <v>11 October 2025 - 10 November 2025</v>
       </c>
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="232" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A16" s="236" t="str">
+      <c r="A16" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,7),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*7)+7,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,8)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*8)+7),"dd mmmm yyyy"))</f>
         <v>11 November 2025 - 10 December 2025</v>
       </c>
-      <c r="B16" s="248"/>
+      <c r="B16" s="246"/>
     </row>
     <row r="17" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A17" s="236" t="str">
+      <c r="A17" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,8),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*8)+8,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,9)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*9)+8),"dd mmmm yyyy"))</f>
         <v>11 December 2025 - 10 January 2026</v>
       </c>
-      <c r="B17" s="249"/>
+      <c r="B17" s="247"/>
     </row>
     <row r="18" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A18" s="236" t="str">
+      <c r="A18" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,9),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*9)+9,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,10)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*10)+9),"dd mmmm yyyy"))</f>
         <v>11 January 2026 - 10 February 2026</v>
       </c>
-      <c r="B18" s="250" t="s">
+      <c r="B18" s="248" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A19" s="236" t="str">
+      <c r="A19" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,10),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*10)+10,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,11)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*11)+10),"dd mmmm yyyy"))</f>
         <v>11 February 2026 - 10 March 2026</v>
       </c>
-      <c r="B19" s="248"/>
+      <c r="B19" s="246"/>
     </row>
     <row r="20" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A20" s="251" t="str">
+      <c r="A20" s="249" t="str">
         <f>IF(B2,TEXT(EDATE(B3,11),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,12)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*12)+11),"dd mmmm yyyy"))</f>
         <v>11 March 2026 - 10 April 2026</v>
       </c>
-      <c r="B20" s="248"/>
+      <c r="B20" s="246"/>
     </row>
     <row r="21" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A21" s="252" t="str">
+      <c r="A21" s="250" t="str">
         <f>IF(B2,TEXT(EDATE(B3,12),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*12)+12,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,13)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*13)+12),"dd mmmm yyyy"))</f>
         <v>11 April 2026 - 10 May 2026</v>
       </c>
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="234" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A22" s="252" t="str">
+      <c r="A22" s="250" t="str">
         <f>IF(B2,TEXT(EDATE(B3,13),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,14)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*14)+13),"dd mmmm yyyy"))</f>
         <v>11 May 2026 - 10 June 2026</v>
       </c>
-      <c r="B22" s="236"/>
+      <c r="B22" s="234"/>
     </row>
     <row r="23" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A23" s="251" t="str">
+      <c r="A23" s="249" t="str">
         <f>IF(B2,TEXT(EDATE(B3,14),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*14)+14,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,15)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*15)+14),"dd mmmm yyyy"))</f>
         <v>11 June 2026 - 10 July 2026</v>
       </c>
-      <c r="B23" s="234"/>
+      <c r="B23" s="232"/>
     </row>
     <row r="24" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A24" s="236" t="str">
+      <c r="A24" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,15),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*15)+15,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,16)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*16)+15),"dd mmmm yyyy"))</f>
         <v>11 July 2026 - 10 August 2026</v>
       </c>
-      <c r="B24" s="236" t="s">
+      <c r="B24" s="234" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A25" s="236" t="str">
+      <c r="A25" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,16),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*16)+16,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,17)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*17)+16),"dd mmmm yyyy"))</f>
         <v>11 August 2026 - 10 September 2026</v>
       </c>
-      <c r="B25" s="236"/>
+      <c r="B25" s="234"/>
     </row>
     <row r="26" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A26" s="234" t="str">
+      <c r="A26" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,17),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*17)+17,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,18)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*18)+17),"dd mmmm yyyy"))</f>
         <v>11 September 2026 - 10 October 2026</v>
       </c>
-      <c r="B26" s="234"/>
+      <c r="B26" s="232"/>
     </row>
     <row r="27" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A27" s="236" t="str">
+      <c r="A27" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,18),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*18)+18,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,19)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*19)+18),"dd mmmm yyyy"))</f>
         <v>11 October 2026 - 10 November 2026</v>
       </c>
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="234" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A28" s="236" t="str">
+      <c r="A28" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,19),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*19)+19,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,20)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*20)+19),"dd mmmm yyyy"))</f>
         <v>11 November 2026 - 10 December 2026</v>
       </c>
-      <c r="B28" s="236"/>
+      <c r="B28" s="234"/>
     </row>
     <row r="29" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A29" s="234" t="str">
+      <c r="A29" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,20),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*20)+20,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,21)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*21)+20),"dd mmmm yyyy"))</f>
         <v>11 December 2026 - 10 January 2027</v>
       </c>
-      <c r="B29" s="234"/>
+      <c r="B29" s="232"/>
     </row>
     <row r="30" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A30" s="236" t="str">
+      <c r="A30" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,21),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*21)+21,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,22)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*22)+21),"dd mmmm yyyy"))</f>
         <v>11 January 2027 - 10 February 2027</v>
       </c>
-      <c r="B30" s="236" t="s">
+      <c r="B30" s="234" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A31" s="236" t="str">
+      <c r="A31" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,22),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*22)+22,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,23)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*23)+22),"dd mmmm yyyy"))</f>
         <v>11 February 2027 - 10 March 2027</v>
       </c>
-      <c r="B31" s="236"/>
+      <c r="B31" s="234"/>
     </row>
     <row r="32" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A32" s="234" t="str">
+      <c r="A32" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,23),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*23)+23,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,24)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*24)+23),"dd mmmm yyyy"))</f>
         <v>11 March 2027 - 10 April 2027</v>
       </c>
-      <c r="B32" s="234"/>
+      <c r="B32" s="232"/>
     </row>
     <row r="33" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A33" s="236" t="str">
+      <c r="A33" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,24),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*24)+24,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,25)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*25)+24),"dd mmmm yyyy"))</f>
         <v>11 April 2027 - 10 May 2027</v>
       </c>
-      <c r="B33" s="236" t="s">
+      <c r="B33" s="234" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A34" s="236" t="str">
+      <c r="A34" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,25),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*25)+25,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,26)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*26)+25),"dd mmmm yyyy"))</f>
         <v>11 May 2027 - 10 June 2027</v>
       </c>
-      <c r="B34" s="236"/>
+      <c r="B34" s="234"/>
     </row>
     <row r="35" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A35" s="234" t="str">
+      <c r="A35" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,26),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*26)+26,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,27)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*27)+26),"dd mmmm yyyy"))</f>
         <v>11 June 2027 - 10 July 2027</v>
       </c>
-      <c r="B35" s="234"/>
+      <c r="B35" s="232"/>
     </row>
     <row r="36" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A36" s="236" t="str">
+      <c r="A36" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,27),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*27)+27,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,28)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*28)+27),"dd mmmm yyyy"))</f>
         <v>11 July 2027 - 10 August 2027</v>
       </c>
-      <c r="B36" s="236" t="s">
+      <c r="B36" s="234" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A37" s="236" t="str">
+      <c r="A37" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,28),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*28)+28,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,29)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*29)+28),"dd mmmm yyyy"))</f>
         <v>11 August 2027 - 10 September 2027</v>
       </c>
-      <c r="B37" s="236"/>
+      <c r="B37" s="234"/>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A38" s="234" t="str">
+      <c r="A38" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,29),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*29)+29,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,30)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*30)+29),"dd mmmm yyyy"))</f>
         <v>11 September 2027 - 10 October 2027</v>
       </c>
-      <c r="B38" s="234"/>
+      <c r="B38" s="232"/>
     </row>
     <row r="39" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A39" s="236" t="str">
+      <c r="A39" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,30),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*30)+30,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,31)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*31)+30),"dd mmmm yyyy"))</f>
         <v>11 October 2027 - 10 November 2027</v>
       </c>
-      <c r="B39" s="236" t="s">
+      <c r="B39" s="234" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A40" s="236" t="str">
+      <c r="A40" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,31),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*31)+31,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,32)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*32)+31),"dd mmmm yyyy"))</f>
         <v>11 November 2027 - 10 December 2027</v>
       </c>
-      <c r="B40" s="236"/>
+      <c r="B40" s="234"/>
     </row>
     <row r="41" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A41" s="234" t="str">
+      <c r="A41" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,32),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*32)+32,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,33)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*33)+32),"dd mmmm yyyy"))</f>
         <v>11 December 2027 - 10 January 2028</v>
       </c>
-      <c r="B41" s="234"/>
+      <c r="B41" s="232"/>
     </row>
     <row r="42" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A42" s="236" t="str">
+      <c r="A42" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,33),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*33)+33,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,34)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*34)+33),"dd mmmm yyyy"))</f>
         <v>11 January 2028 - 10 February 2028</v>
       </c>
-      <c r="B42" s="236" t="s">
+      <c r="B42" s="234" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A43" s="236" t="str">
+      <c r="A43" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,34),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*34)+34,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,35)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*35)+34),"dd mmmm yyyy"))</f>
         <v>11 February 2028 - 10 March 2028</v>
       </c>
-      <c r="B43" s="236"/>
+      <c r="B43" s="234"/>
     </row>
     <row r="44" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A44" s="234" t="str">
+      <c r="A44" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,35),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*35)+35,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,36)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*36)+35),"dd mmmm yyyy"))</f>
         <v>11 March 2028 - 10 April 2028</v>
       </c>
-      <c r="B44" s="234"/>
+      <c r="B44" s="232"/>
     </row>
     <row r="45" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A45" s="236" t="str">
+      <c r="A45" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,36),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*36)+36,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,37)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*37)+36),"dd mmmm yyyy"))</f>
         <v>11 April 2028 - 10 May 2028</v>
       </c>
-      <c r="B45" s="236" t="s">
+      <c r="B45" s="234" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A46" s="236" t="str">
+      <c r="A46" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,37),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*37)+37,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,38)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*38)+37),"dd mmmm yyyy"))</f>
         <v>11 May 2028 - 10 June 2028</v>
       </c>
-      <c r="B46" s="236"/>
+      <c r="B46" s="234"/>
     </row>
     <row r="47" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A47" s="234" t="str">
+      <c r="A47" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,38),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*38)+38,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,39)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*39)+38),"dd mmmm yyyy"))</f>
         <v>11 June 2028 - 10 July 2028</v>
       </c>
-      <c r="B47" s="234"/>
+      <c r="B47" s="232"/>
     </row>
     <row r="48" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A48" s="236" t="str">
+      <c r="A48" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,39),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*39)+39,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,40)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*40)+39),"dd mmmm yyyy"))</f>
         <v>11 July 2028 - 10 August 2028</v>
       </c>
-      <c r="B48" s="236" t="s">
+      <c r="B48" s="234" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A49" s="236" t="str">
+      <c r="A49" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,40),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*40)+40,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,41)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*41)+40),"dd mmmm yyyy"))</f>
         <v>11 August 2028 - 10 September 2028</v>
       </c>
-      <c r="B49" s="236"/>
+      <c r="B49" s="234"/>
     </row>
     <row r="50" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A50" s="234" t="str">
+      <c r="A50" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,41),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*41)+41,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,42)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*42)+41),"dd mmmm yyyy"))</f>
         <v>11 September 2028 - 10 October 2028</v>
       </c>
-      <c r="B50" s="234"/>
+      <c r="B50" s="232"/>
     </row>
     <row r="51" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A51" s="236" t="str">
+      <c r="A51" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,42),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*42)+42,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,43)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*43)+42),"dd mmmm yyyy"))</f>
         <v>11 October 2028 - 10 November 2028</v>
       </c>
-      <c r="B51" s="236" t="s">
+      <c r="B51" s="234" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A52" s="236" t="str">
+      <c r="A52" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,43),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*43)+43,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,44)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*44)+43),"dd mmmm yyyy"))</f>
         <v>11 November 2028 - 10 December 2028</v>
       </c>
-      <c r="B52" s="236"/>
+      <c r="B52" s="234"/>
     </row>
     <row r="53" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A53" s="234" t="str">
+      <c r="A53" s="232" t="str">
         <f>IF(B2,TEXT(EDATE(B3,44),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*44)+44,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,45)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*45)+44),"dd mmmm yyyy"))</f>
         <v>11 December 2028 - 10 January 2029</v>
       </c>
-      <c r="B53" s="234"/>
+      <c r="B53" s="232"/>
     </row>
     <row r="54" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A54" s="236" t="str">
+      <c r="A54" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,45),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*45)+45,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,46)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*46)+45),"dd mmmm yyyy"))</f>
         <v>11 January 2029 - 10 February 2029</v>
       </c>
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="234" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A55" s="236" t="str">
+      <c r="A55" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,46),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*46)+46,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,47)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*47)+46),"dd mmmm yyyy"))</f>
         <v>11 February 2029 - 10 March 2029</v>
       </c>
-      <c r="B55" s="236"/>
+      <c r="B55" s="234"/>
     </row>
     <row r="56" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A56" s="236" t="str">
+      <c r="A56" s="234" t="str">
         <f>IF(B2,TEXT(EDATE(B3,47),"dd mmmm yyyy"),TEXT(B3+((B5-B3)*47)+47,"dd mmmm yyyy"))&amp;" - "&amp;IF(B2,TEXT(EDATE(B3,48)-1,"dd mmmm yyyy"),TEXT(B3+(((B5-B3)*48)+47),"dd mmmm yyyy"))</f>
         <v>11 March 2029 - 10 April 2029</v>
       </c>
-      <c r="B56" s="236"/>
+      <c r="B56" s="234"/>
     </row>
     <row r="57" ht="20.25" customHeight="1"/>
     <row r="58" ht="20.25" customHeight="1"/>
@@ -34676,75 +34670,75 @@
     <row r="62" ht="20.25" customHeight="1"/>
     <row r="63" ht="20.25" customHeight="1"/>
     <row r="64" ht="20.25" customHeight="1"/>
-    <row r="65" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="66" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="67" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="68" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="69" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="70" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="71" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="72" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="73" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="74" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="75" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="76" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="77" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="78" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="79" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="80" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="81" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="82" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="83" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="84" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="85" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="86" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="87" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="88" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="89" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="90" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="91" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="92" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="93" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="94" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="95" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="96" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="97" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="98" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="99" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="100" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="101" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="102" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="103" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="104" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="105" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="106" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="107" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="108" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="109" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="110" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="111" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="112" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="113" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="114" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="115" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="116" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="117" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="118" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="119" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="120" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="121" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="122" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="123" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="124" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="125" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="126" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="127" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="129" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="130" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="131" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="132" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="133" s="232" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="134" s="232" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="65" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="66" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="67" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="68" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="69" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="70" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="71" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="72" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="73" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="74" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="75" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="76" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="77" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="78" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="79" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="80" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="81" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="82" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="83" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="84" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="85" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="86" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="87" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="88" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="89" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="90" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="91" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="92" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="93" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="94" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="95" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="96" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="97" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="98" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="99" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="100" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="101" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="102" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="103" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="104" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="105" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="106" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="107" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="108" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="109" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="110" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="111" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="112" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="113" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="114" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="115" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="116" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="117" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="118" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="119" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="120" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="121" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="122" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="123" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="124" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="125" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="126" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="127" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="129" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="130" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="131" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="132" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="133" s="230" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="134" s="230" customFormat="1" ht="20.25" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" objects="1"/>
   <protectedRanges>
@@ -34788,562 +34782,562 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="180" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="180" customWidth="1"/>
-    <col min="3" max="4" width="20.625" style="180" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="180" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="180" customWidth="1"/>
-    <col min="7" max="7" width="9" style="180"/>
-    <col min="8" max="8" width="23" style="180" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="178" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="178" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="178" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="178" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="178" customWidth="1"/>
+    <col min="7" max="7" width="9" style="178"/>
+    <col min="8" max="8" width="23" style="178" customWidth="1"/>
     <col min="9" max="9" width="40.75" style="51" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="180" customWidth="1"/>
-    <col min="11" max="12" width="9" style="180"/>
-    <col min="13" max="13" width="36.625" style="180" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="180" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="180"/>
+    <col min="10" max="10" width="28.625" style="178" customWidth="1"/>
+    <col min="11" max="12" width="9" style="178"/>
+    <col min="13" max="13" width="36.625" style="178" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="178" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="178"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:14">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="179" t="str">
         <f>"Forecasts For the Year "&amp;TEXT(Main!B3,"mmmm yyyy")&amp;" to "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,3)-1,"mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+2),"mmmm yyyy"))</f>
         <v>Forecasts For the Year April 2025 to July 2025</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="I1" s="213" t="s">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="I1" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="213"/>
-      <c r="M1" s="213" t="s">
+      <c r="J1" s="211"/>
+      <c r="M1" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="213"/>
+      <c r="N1" s="211"/>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:14">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="I2" s="214" t="s">
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="I2" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="215" t="s">
+      <c r="J2" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="224" t="s">
+      <c r="M2" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="215" t="s">
+      <c r="N2" s="213" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="187">
-        <v>0</v>
-      </c>
-      <c r="D3" s="188" t="s">
+      <c r="C3" s="185">
+        <v>0</v>
+      </c>
+      <c r="D3" s="186" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="209">
-        <v>0</v>
-      </c>
-      <c r="I3" s="216" t="str">
+      <c r="F3" s="207">
+        <v>0</v>
+      </c>
+      <c r="I3" s="214" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
         <v>11 April 2025 - 10 May 2025</v>
       </c>
-      <c r="J3" s="217">
+      <c r="J3" s="215">
         <f>E149</f>
         <v>0</v>
       </c>
-      <c r="M3" s="222" t="str">
+      <c r="M3" s="220" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,3)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+2),"dd mmmm yyyy"))</f>
         <v>11 April 2025 - 10 July 2025</v>
       </c>
-      <c r="N3" s="217">
+      <c r="N3" s="215">
         <f>-C122</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A4" s="185"/>
-      <c r="B4" s="186" t="s">
+      <c r="A4" s="183"/>
+      <c r="B4" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="187">
-        <v>0</v>
-      </c>
-      <c r="D4" s="189"/>
+      <c r="C4" s="185">
+        <v>0</v>
+      </c>
+      <c r="D4" s="187"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="209">
-        <v>0</v>
-      </c>
-      <c r="I4" s="218" t="str">
+      <c r="F4" s="207">
+        <v>0</v>
+      </c>
+      <c r="I4" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
         <v>11 May 2025 - 10 June 2025</v>
       </c>
-      <c r="J4" s="217">
+      <c r="J4" s="215">
         <f>E176</f>
         <v>0</v>
       </c>
-      <c r="M4" s="222" t="str">
+      <c r="M4" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,3),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+3),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,6)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*6+5),"dd mmmm yyyy"))</f>
         <v>11 July 2025 - 10 October 2025</v>
       </c>
-      <c r="N4" s="217">
+      <c r="N4" s="215">
         <f ca="1">Forecast_2!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A5" s="185"/>
-      <c r="B5" s="186" t="s">
+      <c r="A5" s="183"/>
+      <c r="B5" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="187">
-        <v>0</v>
-      </c>
-      <c r="D5" s="189"/>
+      <c r="C5" s="185">
+        <v>0</v>
+      </c>
+      <c r="D5" s="187"/>
       <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="209">
-        <v>0</v>
-      </c>
-      <c r="I5" s="218" t="str">
+      <c r="F5" s="207">
+        <v>0</v>
+      </c>
+      <c r="I5" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,2),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*2)+2,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,3)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+2),"dd mmmm yyyy"))</f>
         <v>11 June 2025 - 10 July 2025</v>
       </c>
-      <c r="J5" s="217">
+      <c r="J5" s="215">
         <f>E203</f>
         <v>0</v>
       </c>
-      <c r="M5" s="222" t="str">
+      <c r="M5" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,6),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*6+6),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,9)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+8),"dd mmmm yyyy"))</f>
         <v>11 October 2025 - 10 January 2026</v>
       </c>
-      <c r="N5" s="217">
+      <c r="N5" s="215">
         <f ca="1">Forecast_3!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A6" s="185"/>
-      <c r="B6" s="186" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="187">
-        <v>0</v>
-      </c>
-      <c r="D6" s="189"/>
+      <c r="C6" s="185">
+        <v>0</v>
+      </c>
+      <c r="D6" s="187"/>
       <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="209">
-        <v>0</v>
-      </c>
-      <c r="I6" s="219" t="str">
+      <c r="F6" s="207">
+        <v>0</v>
+      </c>
+      <c r="I6" s="217" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,3),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3)+3,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,4)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4+3),"dd mmmm yyyy"))</f>
         <v>11 July 2025 - 10 August 2025</v>
       </c>
-      <c r="J6" s="217">
+      <c r="J6" s="215">
         <f ca="1">Forecast_2!E136</f>
         <v>0</v>
       </c>
-      <c r="M6" s="222" t="str">
+      <c r="M6" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+9),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
         <v>11 January 2026 - 10 April 2026</v>
       </c>
-      <c r="N6" s="217">
+      <c r="N6" s="215">
         <f ca="1">Forecast_4!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186" t="s">
+      <c r="A7" s="183"/>
+      <c r="B7" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="190">
-        <v>0</v>
-      </c>
-      <c r="D7" s="189"/>
+      <c r="C7" s="188">
+        <v>0</v>
+      </c>
+      <c r="D7" s="187"/>
       <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="209">
-        <v>0</v>
-      </c>
-      <c r="I7" s="219" t="str">
+      <c r="F7" s="207">
+        <v>0</v>
+      </c>
+      <c r="I7" s="217" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,4),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,5)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5+4),"dd mmmm yyyy"))</f>
         <v>11 August 2025 - 10 September 2025</v>
       </c>
-      <c r="J7" s="217">
+      <c r="J7" s="215">
         <f ca="1">Forecast_2!E163</f>
         <v>0</v>
       </c>
-      <c r="M7" s="222" t="str">
+      <c r="M7" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
         <v>11 April 2026 - 10 July 2026</v>
       </c>
-      <c r="N7" s="217">
+      <c r="N7" s="215">
         <f ca="1">Forecast_5!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:14">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="183"/>
+      <c r="B8" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="187">
-        <v>0</v>
-      </c>
-      <c r="D8" s="189"/>
+      <c r="C8" s="185">
+        <v>0</v>
+      </c>
+      <c r="D8" s="187"/>
       <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="209">
-        <v>0</v>
-      </c>
-      <c r="H8" s="210"/>
-      <c r="I8" s="218" t="str">
+      <c r="F8" s="207">
+        <v>0</v>
+      </c>
+      <c r="H8" s="208"/>
+      <c r="I8" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,5),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5)+5,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,6)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*6+5),"dd mmmm yyyy"))</f>
         <v>11 September 2025 - 10 October 2025</v>
       </c>
-      <c r="J8" s="217">
+      <c r="J8" s="215">
         <f ca="1">Forecast_2!E190</f>
         <v>0</v>
       </c>
-      <c r="M8" s="225" t="str">
+      <c r="M8" s="223" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
         <v>11 July 2026 - 10 October 2026</v>
       </c>
-      <c r="N8" s="217">
+      <c r="N8" s="215">
         <f ca="1">Forecast_6!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="39.75" customHeight="1" spans="1:14">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186" t="s">
+      <c r="A9" s="183"/>
+      <c r="B9" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="187">
-        <v>0</v>
-      </c>
-      <c r="D9" s="189"/>
+      <c r="C9" s="185">
+        <v>0</v>
+      </c>
+      <c r="D9" s="187"/>
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="211">
-        <v>0</v>
-      </c>
-      <c r="I9" s="218" t="str">
+      <c r="F9" s="209">
+        <v>0</v>
+      </c>
+      <c r="I9" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,6),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*6)+6,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,7)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*7+6),"dd mmmm yyyy"))</f>
         <v>11 October 2025 - 10 November 2025</v>
       </c>
-      <c r="J9" s="217">
+      <c r="J9" s="215">
         <f ca="1">Forecast_3!E136</f>
         <v>0</v>
       </c>
-      <c r="M9" s="222" t="str">
+      <c r="M9" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
         <v>11 October 2026 - 10 January 2027</v>
       </c>
-      <c r="N9" s="226">
+      <c r="N9" s="224">
         <f ca="1">Forecast_7!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A10" s="185"/>
-      <c r="B10" s="186" t="s">
+      <c r="A10" s="183"/>
+      <c r="B10" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="187">
-        <v>0</v>
-      </c>
-      <c r="D10" s="189"/>
+      <c r="C10" s="185">
+        <v>0</v>
+      </c>
+      <c r="D10" s="187"/>
       <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="209">
-        <v>0</v>
-      </c>
-      <c r="I10" s="218" t="str">
+      <c r="F10" s="207">
+        <v>0</v>
+      </c>
+      <c r="I10" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,7),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*7)+7,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,8)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*8+7),"dd mmmm yyyy"))</f>
         <v>11 November 2025 - 10 December 2025</v>
       </c>
-      <c r="J10" s="217">
+      <c r="J10" s="215">
         <f ca="1">Forecast_3!E163</f>
         <v>0</v>
       </c>
-      <c r="M10" s="227" t="str">
+      <c r="M10" s="225" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
         <v>11 January 2027 - 10 April 2027</v>
       </c>
-      <c r="N10" s="217">
+      <c r="N10" s="215">
         <f ca="1">Forecast_8!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A11" s="185"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="187">
-        <v>0</v>
-      </c>
-      <c r="D11" s="189"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185">
+        <v>0</v>
+      </c>
+      <c r="D11" s="187"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="209">
-        <v>0</v>
-      </c>
-      <c r="H11" s="210"/>
-      <c r="I11" s="218" t="str">
+      <c r="F11" s="207">
+        <v>0</v>
+      </c>
+      <c r="H11" s="208"/>
+      <c r="I11" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,8),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*8)+8,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,9)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+8),"dd mmmm yyyy"))</f>
         <v>11 December 2025 - 10 January 2026</v>
       </c>
-      <c r="J11" s="217">
+      <c r="J11" s="215">
         <f ca="1">Forecast_3!E190</f>
         <v>0</v>
       </c>
-      <c r="M11" s="222" t="str">
+      <c r="M11" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
         <v>11 April 2027 - 10 July 2027</v>
       </c>
-      <c r="N11" s="221">
+      <c r="N11" s="219">
         <f ca="1">Forecast_9!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A12" s="185"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="187">
-        <v>0</v>
-      </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="209">
-        <v>0</v>
-      </c>
-      <c r="I12" s="218" t="str">
+      <c r="A12" s="183"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185">
+        <v>0</v>
+      </c>
+      <c r="D12" s="187"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="207">
+        <v>0</v>
+      </c>
+      <c r="I12" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9)+9,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,10)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10+9),"dd mmmm yyyy"))</f>
         <v>11 January 2026 - 10 February 2026</v>
       </c>
-      <c r="J12" s="217">
+      <c r="J12" s="215">
         <f ca="1">Forecast_4!E136</f>
         <v>0</v>
       </c>
-      <c r="M12" s="218" t="str">
+      <c r="M12" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
         <v>11 July 2027 - 10 October 2027</v>
       </c>
-      <c r="N12" s="221">
+      <c r="N12" s="219">
         <f ca="1">Forecast_10!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A13" s="185"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="187">
-        <v>0</v>
-      </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="209">
-        <v>0</v>
-      </c>
-      <c r="I13" s="220" t="str">
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185">
+        <v>0</v>
+      </c>
+      <c r="D13" s="187"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="207">
+        <v>0</v>
+      </c>
+      <c r="I13" s="218" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,10),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10)+10,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,11)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11+10),"dd mmmm yyyy"))</f>
         <v>11 February 2026 - 10 March 2026</v>
       </c>
-      <c r="J13" s="217">
+      <c r="J13" s="215">
         <f ca="1">Forecast_4!E163</f>
         <v>0</v>
       </c>
-      <c r="M13" s="218" t="str">
+      <c r="M13" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
         <v>11 October 2027 - 10 January 2028</v>
       </c>
-      <c r="N13" s="221">
+      <c r="N13" s="219">
         <f ca="1">Forecast_11!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A14" s="185"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="187">
-        <v>0</v>
-      </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="209">
-        <v>0</v>
-      </c>
-      <c r="I14" s="220" t="str">
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185">
+        <v>0</v>
+      </c>
+      <c r="D14" s="187"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="207">
+        <v>0</v>
+      </c>
+      <c r="I14" s="218" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
         <v>11 March 2026 - 10 April 2026</v>
       </c>
-      <c r="J14" s="221">
+      <c r="J14" s="219">
         <f ca="1">Forecast_4!E190</f>
         <v>0</v>
       </c>
-      <c r="M14" s="218" t="str">
+      <c r="M14" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
         <v>11 January 2028 - 10 April 2028</v>
       </c>
-      <c r="N14" s="221">
+      <c r="N14" s="219">
         <f ca="1">Forecast_12!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A15" s="185"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="187">
-        <v>0</v>
-      </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="209">
-        <v>0</v>
-      </c>
-      <c r="I15" s="222" t="str">
+      <c r="A15" s="183"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="185">
+        <v>0</v>
+      </c>
+      <c r="D15" s="187"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="207">
+        <v>0</v>
+      </c>
+      <c r="I15" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12)+12,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,13)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13+12),"dd mmmm yyyy"))</f>
         <v>11 April 2026 - 10 May 2026</v>
       </c>
-      <c r="J15" s="221">
+      <c r="J15" s="219">
         <f ca="1">Forecast_5!E136</f>
         <v>0</v>
       </c>
-      <c r="M15" s="218" t="str">
+      <c r="M15" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
         <v>11 April 2028 - 10 July 2028</v>
       </c>
-      <c r="N15" s="221">
+      <c r="N15" s="219">
         <f ca="1">Forecast_13!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="35.25" customHeight="1" spans="1:14">
-      <c r="A16" s="192"/>
-      <c r="B16" s="193" t="s">
+      <c r="A16" s="190"/>
+      <c r="B16" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="194">
+      <c r="C16" s="192">
         <f>SUM(C3:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="195"/>
-      <c r="E16" s="193" t="s">
+      <c r="D16" s="193"/>
+      <c r="E16" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="209">
+      <c r="F16" s="207">
         <f>SUM(F3:F15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="222" t="str">
+      <c r="I16" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
         <v>11 May 2026 - 10 June 2026</v>
       </c>
-      <c r="J16" s="221">
+      <c r="J16" s="219">
         <f ca="1">Forecast_5!E163</f>
         <v>0</v>
       </c>
-      <c r="M16" s="218" t="str">
+      <c r="M16" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
         <v>11 July 2028 - 10 October 2028</v>
       </c>
-      <c r="N16" s="221">
+      <c r="N16" s="219">
         <f ca="1">Forecast_14!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="35.25" customHeight="1" spans="9:14">
-      <c r="I17" s="222" t="str">
+      <c r="I17" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,14),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14)+14,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
         <v>11 June 2026 - 10 July 2026</v>
       </c>
-      <c r="J17" s="221">
+      <c r="J17" s="219">
         <f ca="1">Forecast_5!E190</f>
         <v>0</v>
       </c>
-      <c r="M17" s="218" t="str">
+      <c r="M17" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
         <v>11 October 2028 - 10 January 2029</v>
       </c>
-      <c r="N17" s="221">
+      <c r="N17" s="219">
         <f ca="1">Forecast_15!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="9:14">
-      <c r="I18" s="222" t="str">
+      <c r="I18" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15)+15,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,16)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*16+15),"dd mmmm yyyy"))</f>
         <v>11 July 2026 - 10 August 2026</v>
       </c>
-      <c r="J18" s="221">
+      <c r="J18" s="219">
         <f ca="1">Forecast_6!E136</f>
         <v>0</v>
       </c>
-      <c r="M18" s="218" t="str">
+      <c r="M18" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
         <v>11 January 2029 - 10 April 2029</v>
       </c>
-      <c r="N18" s="217">
+      <c r="N18" s="215">
         <f ca="1">Forecast_16!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="9:10">
-      <c r="I19" s="222" t="str">
+      <c r="I19" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,16),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*16)+16,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,17)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*17+16),"dd mmmm yyyy"))</f>
         <v>11 August 2026 - 10 September 2026</v>
       </c>
-      <c r="J19" s="221">
+      <c r="J19" s="219">
         <f ca="1">Forecast_6!E163</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
-      <c r="I20" s="222" t="str">
+      <c r="I20" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,17),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*17)+17,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
         <v>11 September 2026 - 10 October 2026</v>
       </c>
-      <c r="J20" s="221">
+      <c r="J20" s="219">
         <f ca="1">Forecast_6!E190</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
-      <c r="I21" s="222" t="str">
+      <c r="I21" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18)+18,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,19)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*19+18),"dd mmmm yyyy"))</f>
         <v>11 October 2026 - 10 November 2026</v>
       </c>
-      <c r="J21" s="221">
+      <c r="J21" s="219">
         <f ca="1">Forecast_7!E136</f>
         <v>0</v>
       </c>
@@ -35359,11 +35353,11 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="I22" s="222" t="str">
+      <c r="I22" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,19),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*19)+19,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,20)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*20+19),"dd mmmm yyyy"))</f>
         <v>11 November 2026 - 10 December 2026</v>
       </c>
-      <c r="J22" s="221">
+      <c r="J22" s="219">
         <f ca="1">Forecast_7!E163</f>
         <v>0</v>
       </c>
@@ -35384,11 +35378,11 @@
         <v>45</v>
       </c>
       <c r="G23" s="19"/>
-      <c r="I23" s="222" t="str">
+      <c r="I23" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,20),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*20)+20,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
         <v>11 December 2026 - 10 January 2027</v>
       </c>
-      <c r="J23" s="221">
+      <c r="J23" s="219">
         <f ca="1">Forecast_7!E190</f>
         <v>0</v>
       </c>
@@ -35403,11 +35397,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="46"/>
-      <c r="I24" s="222" t="str">
+      <c r="I24" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21)+21,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,22)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*22+21),"dd mmmm yyyy"))</f>
         <v>11 January 2027 - 10 February 2027</v>
       </c>
-      <c r="J24" s="221">
+      <c r="J24" s="219">
         <f ca="1">Forecast_8!E136</f>
         <v>0</v>
       </c>
@@ -35422,11 +35416,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="46"/>
-      <c r="I25" s="222" t="str">
+      <c r="I25" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,22),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*22)+22,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,23)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*23+22),"dd mmmm yyyy"))</f>
         <v>11 February 2027 - 10 March 2027</v>
       </c>
-      <c r="J25" s="221">
+      <c r="J25" s="219">
         <f ca="1">Forecast_8!E163</f>
         <v>0</v>
       </c>
@@ -35441,11 +35435,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="46"/>
-      <c r="I26" s="220" t="str">
+      <c r="I26" s="218" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,23),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*23)+23,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
         <v>11 March 2027 - 10 April 2027</v>
       </c>
-      <c r="J26" s="221">
+      <c r="J26" s="219">
         <f ca="1">Forecast_8!E190</f>
         <v>0</v>
       </c>
@@ -35460,11 +35454,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="46"/>
-      <c r="I27" s="222" t="str">
+      <c r="I27" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24)+24,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,25)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*25+24),"dd mmmm yyyy"))</f>
         <v>11 April 2027 - 10 May 2027</v>
       </c>
-      <c r="J27" s="221">
+      <c r="J27" s="219">
         <f ca="1">Forecast_9!E136</f>
         <v>0</v>
       </c>
@@ -35479,11 +35473,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="46"/>
-      <c r="I28" s="222" t="str">
+      <c r="I28" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,25),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*25)+25,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,26)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*26+25),"dd mmmm yyyy"))</f>
         <v>11 May 2027 - 10 June 2027</v>
       </c>
-      <c r="J28" s="221">
+      <c r="J28" s="219">
         <f ca="1">Forecast_9!E163</f>
         <v>0</v>
       </c>
@@ -35498,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="46"/>
-      <c r="I29" s="218" t="str">
+      <c r="I29" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,26),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*26)+26,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
         <v>11 June 2027 - 10 July 2027</v>
       </c>
-      <c r="J29" s="217">
+      <c r="J29" s="215">
         <f ca="1">Forecast_9!E190</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
-      <c r="A30" s="196"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="198"/>
+      <c r="A30" s="194"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="28" t="s">
         <v>46</v>
       </c>
@@ -35520,41 +35514,41 @@
         <v>0</v>
       </c>
       <c r="G30" s="50"/>
-      <c r="I30" s="222" t="str">
+      <c r="I30" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27)+27,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,28)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*28+27),"dd mmmm yyyy"))</f>
         <v>11 July 2027 - 10 August 2027</v>
       </c>
-      <c r="J30" s="223">
+      <c r="J30" s="221">
         <f ca="1">Forecast_10!E136</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
-      <c r="I31" s="222" t="str">
+      <c r="I31" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,28),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*28)+28,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,29)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*29+28),"dd mmmm yyyy"))</f>
         <v>11 August 2027 - 10 September 2027</v>
       </c>
-      <c r="J31" s="221">
+      <c r="J31" s="219">
         <f ca="1">Forecast_10!E163</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
-      <c r="I32" s="222" t="str">
+      <c r="I32" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,29),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*29)+29,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
         <v>11 September 2027 - 10 October 2027</v>
       </c>
-      <c r="J32" s="221">
+      <c r="J32" s="219">
         <f ca="1">Forecast_10!E190</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
-      <c r="I33" s="222" t="str">
+      <c r="I33" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30)+30,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,31)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*31+30),"dd mmmm yyyy"))</f>
         <v>11 October 2027 - 10 November 2027</v>
       </c>
-      <c r="J33" s="221">
+      <c r="J33" s="219">
         <f ca="1">Forecast_11!E136</f>
         <v>0</v>
       </c>
@@ -35570,11 +35564,11 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="I34" s="222" t="str">
+      <c r="I34" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,31),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*31)+31,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,32)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*32+31),"dd mmmm yyyy"))</f>
         <v>11 November 2027 - 10 December 2027</v>
       </c>
-      <c r="J34" s="221">
+      <c r="J34" s="219">
         <f ca="1">Forecast_11!E163</f>
         <v>0</v>
       </c>
@@ -35595,11 +35589,11 @@
         <v>45</v>
       </c>
       <c r="G35" s="19"/>
-      <c r="I35" s="222" t="str">
+      <c r="I35" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,32),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*32)+32,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
         <v>11 December 2027 - 10 January 2028</v>
       </c>
-      <c r="J35" s="221">
+      <c r="J35" s="219">
         <f ca="1">Forecast_11!E190</f>
         <v>0</v>
       </c>
@@ -35614,11 +35608,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="46"/>
-      <c r="I36" s="222" t="str">
+      <c r="I36" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33)+33,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,34)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*34+33),"dd mmmm yyyy"))</f>
         <v>11 January 2028 - 10 February 2028</v>
       </c>
-      <c r="J36" s="221">
+      <c r="J36" s="219">
         <f ca="1">Forecast_12!E136</f>
         <v>0</v>
       </c>
@@ -35633,11 +35627,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="46"/>
-      <c r="I37" s="222" t="str">
+      <c r="I37" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,34),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*34)+34,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,35)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*35+34),"dd mmmm yyyy"))</f>
         <v>11 February 2028 - 10 March 2028</v>
       </c>
-      <c r="J37" s="221">
+      <c r="J37" s="219">
         <f ca="1">Forecast_12!E163</f>
         <v>0</v>
       </c>
@@ -35652,11 +35646,11 @@
         <v>0</v>
       </c>
       <c r="G38" s="46"/>
-      <c r="I38" s="222" t="str">
+      <c r="I38" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,35),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*35)+35,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
         <v>11 March 2028 - 10 April 2028</v>
       </c>
-      <c r="J38" s="221">
+      <c r="J38" s="219">
         <f ca="1">Forecast_12!E190</f>
         <v>0</v>
       </c>
@@ -35671,11 +35665,11 @@
         <v>0</v>
       </c>
       <c r="G39" s="46"/>
-      <c r="I39" s="222" t="str">
+      <c r="I39" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36)+36,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,37)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*37+36),"dd mmmm yyyy"))</f>
         <v>11 April 2028 - 10 May 2028</v>
       </c>
-      <c r="J39" s="221">
+      <c r="J39" s="219">
         <f ca="1">Forecast_13!E136</f>
         <v>0</v>
       </c>
@@ -35690,11 +35684,11 @@
         <v>0</v>
       </c>
       <c r="G40" s="46"/>
-      <c r="I40" s="222" t="str">
+      <c r="I40" s="220" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,37),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*37)+37,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,38)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*38+37),"dd mmmm yyyy"))</f>
         <v>11 May 2028 - 10 June 2028</v>
       </c>
-      <c r="J40" s="221">
+      <c r="J40" s="219">
         <f ca="1">Forecast_13!E163</f>
         <v>0</v>
       </c>
@@ -35709,19 +35703,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="46"/>
-      <c r="I41" s="218" t="str">
+      <c r="I41" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,38),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*38)+38,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
         <v>11 June 2028 - 10 July 2028</v>
       </c>
-      <c r="J41" s="221">
+      <c r="J41" s="219">
         <f ca="1">Forecast_13!E190</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
-      <c r="A42" s="196"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="198"/>
+      <c r="A42" s="194"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="196"/>
       <c r="D42" s="28" t="s">
         <v>46</v>
       </c>
@@ -35731,41 +35725,41 @@
         <v>0</v>
       </c>
       <c r="G42" s="50"/>
-      <c r="I42" s="218" t="str">
+      <c r="I42" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39)+39,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,40)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*40+39),"dd mmmm yyyy"))</f>
         <v>11 July 2028 - 10 August 2028</v>
       </c>
-      <c r="J42" s="221">
+      <c r="J42" s="219">
         <f ca="1">Forecast_14!E136</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
-      <c r="I43" s="218" t="str">
+      <c r="I43" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,40),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*40)+40,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,41)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*41+40),"dd mmmm yyyy"))</f>
         <v>11 August 2028 - 10 September 2028</v>
       </c>
-      <c r="J43" s="221">
+      <c r="J43" s="219">
         <f ca="1">Forecast_14!E163</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
-      <c r="I44" s="218" t="str">
+      <c r="I44" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,41),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*41)+41,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
         <v>11 September 2028 - 10 October 2028</v>
       </c>
-      <c r="J44" s="221">
+      <c r="J44" s="219">
         <f ca="1">Forecast_14!E190</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
-      <c r="I45" s="218" t="str">
+      <c r="I45" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42)+42,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,43)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*43+42),"dd mmmm yyyy"))</f>
         <v>11 October 2028 - 10 November 2028</v>
       </c>
-      <c r="J45" s="221">
+      <c r="J45" s="219">
         <f ca="1">Forecast_15!E136</f>
         <v>0</v>
       </c>
@@ -35781,11 +35775,11 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="I46" s="218" t="str">
+      <c r="I46" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,43),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*43)+43,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,44)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*44+43),"dd mmmm yyyy"))</f>
         <v>11 November 2028 - 10 December 2028</v>
       </c>
-      <c r="J46" s="221">
+      <c r="J46" s="219">
         <f ca="1">Forecast_15!E163</f>
         <v>0</v>
       </c>
@@ -35806,11 +35800,11 @@
         <v>45</v>
       </c>
       <c r="G47" s="19"/>
-      <c r="I47" s="218" t="str">
+      <c r="I47" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,44),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*44)+44,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
         <v>11 December 2028 - 10 January 2029</v>
       </c>
-      <c r="J47" s="221">
+      <c r="J47" s="219">
         <f ca="1">Forecast_15!E190</f>
         <v>0</v>
       </c>
@@ -35825,11 +35819,11 @@
         <v>0</v>
       </c>
       <c r="G48" s="46"/>
-      <c r="I48" s="218" t="str">
+      <c r="I48" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45)+45,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,46)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*46+45),"dd mmmm yyyy"))</f>
         <v>11 January 2029 - 10 February 2029</v>
       </c>
-      <c r="J48" s="221">
+      <c r="J48" s="219">
         <f ca="1">Forecast_16!E136</f>
         <v>0</v>
       </c>
@@ -35844,11 +35838,11 @@
         <v>0</v>
       </c>
       <c r="G49" s="46"/>
-      <c r="I49" s="218" t="str">
+      <c r="I49" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,46),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*46)+46,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,47)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*47+46),"dd mmmm yyyy"))</f>
         <v>11 February 2029 - 10 March 2029</v>
       </c>
-      <c r="J49" s="221">
+      <c r="J49" s="219">
         <f ca="1">Forecast_16!E163</f>
         <v>0</v>
       </c>
@@ -35863,11 +35857,11 @@
         <v>0</v>
       </c>
       <c r="G50" s="46"/>
-      <c r="I50" s="218" t="str">
+      <c r="I50" s="216" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,47),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*47)+47,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
         <v>11 March 2029 - 10 April 2029</v>
       </c>
-      <c r="J50" s="217">
+      <c r="J50" s="215">
         <f ca="1">Forecast_16!E190</f>
         <v>0</v>
       </c>
@@ -35906,9 +35900,9 @@
       <c r="G53" s="46"/>
     </row>
     <row r="54" ht="24.75" customHeight="1" spans="1:7">
-      <c r="A54" s="196"/>
-      <c r="B54" s="197"/>
-      <c r="C54" s="198"/>
+      <c r="A54" s="194"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="196"/>
       <c r="D54" s="28" t="s">
         <v>46</v>
       </c>
@@ -35921,84 +35915,84 @@
     </row>
     <row r="55" ht="24.75" customHeight="1"/>
     <row r="58" ht="20.4" spans="1:3">
-      <c r="A58" s="199" t="str">
+      <c r="A58" s="197" t="str">
         <f>"Fixed Expense For the Year "&amp;TEXT(Main!B3,"mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,3)-1,"mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+2),"mmmm yyyy"))</f>
         <v>Fixed Expense For the Year April 2025 - July 2025</v>
       </c>
-      <c r="B58" s="200"/>
-      <c r="C58" s="201"/>
+      <c r="B58" s="198"/>
+      <c r="C58" s="199"/>
     </row>
     <row r="59" ht="21" spans="1:3">
-      <c r="A59" s="202" t="s">
+      <c r="A59" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="202" t="s">
+      <c r="B59" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="203" t="s">
+      <c r="C59" s="201" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="204" t="s">
+      <c r="A60" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="205"/>
-      <c r="C60" s="206"/>
+      <c r="B60" s="203"/>
+      <c r="C60" s="204"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="36"/>
-      <c r="B61" s="207"/>
-      <c r="C61" s="208">
+      <c r="B61" s="205"/>
+      <c r="C61" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="36"/>
-      <c r="B62" s="207"/>
-      <c r="C62" s="208">
+      <c r="B62" s="205"/>
+      <c r="C62" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:3">
       <c r="A63" s="36"/>
-      <c r="B63" s="207"/>
-      <c r="C63" s="208">
+      <c r="B63" s="205"/>
+      <c r="C63" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="38"/>
-      <c r="B64" s="207"/>
-      <c r="C64" s="208">
+      <c r="B64" s="205"/>
+      <c r="C64" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="38"/>
-      <c r="B65" s="207"/>
-      <c r="C65" s="208">
+      <c r="B65" s="205"/>
+      <c r="C65" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="38"/>
-      <c r="B66" s="207"/>
-      <c r="C66" s="208">
+      <c r="B66" s="205"/>
+      <c r="C66" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="38"/>
-      <c r="B67" s="207"/>
-      <c r="C67" s="208">
+      <c r="B67" s="205"/>
+      <c r="C67" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="38"/>
-      <c r="B68" s="207"/>
-      <c r="C68" s="208">
+      <c r="B68" s="205"/>
+      <c r="C68" s="206">
         <v>0</v>
       </c>
     </row>
@@ -36007,150 +36001,150 @@
       <c r="B69" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="208">
+      <c r="C69" s="206">
         <f>SUM(C61:C68)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="204" t="s">
+      <c r="A70" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="205"/>
-      <c r="C70" s="206"/>
+      <c r="B70" s="203"/>
+      <c r="C70" s="204"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="36"/>
-      <c r="B71" s="207"/>
-      <c r="C71" s="208">
+      <c r="B71" s="205"/>
+      <c r="C71" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="36"/>
-      <c r="B72" s="207"/>
-      <c r="C72" s="208">
+      <c r="B72" s="205"/>
+      <c r="C72" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="36"/>
-      <c r="B73" s="207"/>
-      <c r="C73" s="208">
+      <c r="B73" s="205"/>
+      <c r="C73" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="38"/>
-      <c r="B74" s="207"/>
-      <c r="C74" s="208">
+      <c r="B74" s="205"/>
+      <c r="C74" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="38"/>
-      <c r="B75" s="207"/>
-      <c r="C75" s="208">
+      <c r="B75" s="205"/>
+      <c r="C75" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="38"/>
-      <c r="B76" s="207"/>
-      <c r="C76" s="208">
+      <c r="B76" s="205"/>
+      <c r="C76" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="38"/>
-      <c r="B77" s="207"/>
-      <c r="C77" s="208">
+      <c r="B77" s="205"/>
+      <c r="C77" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="38"/>
-      <c r="B78" s="207"/>
-      <c r="C78" s="208">
+      <c r="B78" s="205"/>
+      <c r="C78" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="38"/>
-      <c r="B79" s="207"/>
-      <c r="C79" s="208">
+      <c r="B79" s="205"/>
+      <c r="C79" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="228"/>
-      <c r="B80" s="229" t="s">
+      <c r="A80" s="226"/>
+      <c r="B80" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="208">
+      <c r="C80" s="206">
         <f>SUM(C71:C79)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="204" t="s">
+      <c r="A81" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="205"/>
-      <c r="C81" s="206"/>
+      <c r="B81" s="203"/>
+      <c r="C81" s="204"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="36"/>
-      <c r="B82" s="207"/>
+      <c r="B82" s="205"/>
       <c r="C82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="36"/>
-      <c r="B83" s="207"/>
+      <c r="B83" s="205"/>
       <c r="C83" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="36"/>
-      <c r="B84" s="207"/>
+      <c r="B84" s="205"/>
       <c r="C84" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="38"/>
-      <c r="B85" s="207"/>
+      <c r="B85" s="205"/>
       <c r="C85" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="38"/>
-      <c r="B86" s="207"/>
+      <c r="B86" s="205"/>
       <c r="C86" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="38"/>
-      <c r="B87" s="207"/>
+      <c r="B87" s="205"/>
       <c r="C87" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="38"/>
-      <c r="B88" s="207"/>
+      <c r="B88" s="205"/>
       <c r="C88" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="228"/>
-      <c r="B89" s="229" t="s">
+      <c r="A89" s="226"/>
+      <c r="B89" s="227" t="s">
         <v>48</v>
       </c>
       <c r="C89" s="37">
@@ -36159,65 +36153,65 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="204" t="s">
+      <c r="A90" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="205"/>
-      <c r="C90" s="206"/>
+      <c r="B90" s="203"/>
+      <c r="C90" s="204"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="36"/>
-      <c r="B91" s="207"/>
-      <c r="C91" s="208">
+      <c r="B91" s="205"/>
+      <c r="C91" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="36"/>
-      <c r="B92" s="207"/>
-      <c r="C92" s="208">
+      <c r="B92" s="205"/>
+      <c r="C92" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="93" ht="20.25" customHeight="1" spans="1:3">
       <c r="A93" s="36"/>
-      <c r="B93" s="207"/>
-      <c r="C93" s="208">
+      <c r="B93" s="205"/>
+      <c r="C93" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:3">
       <c r="A94" s="38"/>
-      <c r="B94" s="207"/>
-      <c r="C94" s="208">
+      <c r="B94" s="205"/>
+      <c r="C94" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="38"/>
-      <c r="B95" s="207"/>
-      <c r="C95" s="208">
+      <c r="B95" s="205"/>
+      <c r="C95" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="38"/>
-      <c r="B96" s="207"/>
-      <c r="C96" s="208">
+      <c r="B96" s="205"/>
+      <c r="C96" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="38"/>
-      <c r="B97" s="207"/>
-      <c r="C97" s="208">
+      <c r="B97" s="205"/>
+      <c r="C97" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="38"/>
-      <c r="B98" s="207"/>
-      <c r="C98" s="208">
+      <c r="B98" s="205"/>
+      <c r="C98" s="206">
         <v>0</v>
       </c>
     </row>
@@ -36232,65 +36226,65 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="204" t="s">
+      <c r="A100" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="B100" s="205"/>
-      <c r="C100" s="206"/>
+      <c r="B100" s="203"/>
+      <c r="C100" s="204"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36"/>
-      <c r="B101" s="207"/>
-      <c r="C101" s="208">
+      <c r="B101" s="205"/>
+      <c r="C101" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36"/>
-      <c r="B102" s="207"/>
-      <c r="C102" s="208">
+      <c r="B102" s="205"/>
+      <c r="C102" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="36"/>
-      <c r="B103" s="207"/>
-      <c r="C103" s="208">
+      <c r="B103" s="205"/>
+      <c r="C103" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="38"/>
-      <c r="B104" s="207"/>
-      <c r="C104" s="208">
+      <c r="B104" s="205"/>
+      <c r="C104" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="38"/>
-      <c r="B105" s="207"/>
-      <c r="C105" s="208">
+      <c r="B105" s="205"/>
+      <c r="C105" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="38"/>
-      <c r="B106" s="207"/>
-      <c r="C106" s="208">
+      <c r="B106" s="205"/>
+      <c r="C106" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="38"/>
-      <c r="B107" s="207"/>
-      <c r="C107" s="208">
+      <c r="B107" s="205"/>
+      <c r="C107" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="38"/>
-      <c r="B108" s="207"/>
-      <c r="C108" s="208">
+      <c r="B108" s="205"/>
+      <c r="C108" s="206">
         <v>0</v>
       </c>
     </row>
@@ -36299,7 +36293,7 @@
       <c r="B109" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="208">
+      <c r="C109" s="206">
         <f>SUM(C101:C108)</f>
         <v>0</v>
       </c>
@@ -36309,21 +36303,21 @@
       <c r="B110" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C110" s="208">
+      <c r="C110" s="206">
         <f>C69+C80+C89+C99+C109</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="204" t="s">
+      <c r="A111" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B111" s="205"/>
-      <c r="C111" s="206"/>
+      <c r="B111" s="203"/>
+      <c r="C111" s="204"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="36"/>
-      <c r="B112" s="207"/>
+      <c r="B112" s="205"/>
       <c r="C112" s="37">
         <v>0</v>
       </c>
@@ -36335,7 +36329,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="36"/>
-      <c r="B113" s="207"/>
+      <c r="B113" s="205"/>
       <c r="C113" s="37">
         <v>0</v>
       </c>
@@ -36347,7 +36341,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="36"/>
-      <c r="B114" s="207"/>
+      <c r="B114" s="205"/>
       <c r="C114" s="37">
         <v>0</v>
       </c>
@@ -36359,7 +36353,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="38"/>
-      <c r="B115" s="207"/>
+      <c r="B115" s="205"/>
       <c r="C115" s="37">
         <v>0</v>
       </c>
@@ -36371,7 +36365,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="38"/>
-      <c r="B116" s="207"/>
+      <c r="B116" s="205"/>
       <c r="C116" s="37">
         <v>0</v>
       </c>
@@ -36383,7 +36377,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="38"/>
-      <c r="B117" s="207"/>
+      <c r="B117" s="205"/>
       <c r="C117" s="37">
         <v>0</v>
       </c>
@@ -36395,7 +36389,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="38"/>
-      <c r="B118" s="207"/>
+      <c r="B118" s="205"/>
       <c r="C118" s="37">
         <v>0</v>
       </c>
@@ -36407,7 +36401,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="38"/>
-      <c r="B119" s="207"/>
+      <c r="B119" s="205"/>
       <c r="C119" s="37">
         <v>0</v>
       </c>
@@ -36419,7 +36413,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="38"/>
-      <c r="B120" s="207"/>
+      <c r="B120" s="205"/>
       <c r="C120" s="37">
         <v>0</v>
       </c>
@@ -36431,7 +36425,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="38"/>
-      <c r="B121" s="207"/>
+      <c r="B121" s="205"/>
       <c r="C121" s="37">
         <v>0</v>
       </c>
@@ -36442,18 +36436,18 @@
       <c r="H121" s="15"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="228"/>
-      <c r="B122" s="229" t="s">
+      <c r="A122" s="226"/>
+      <c r="B122" s="227" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="208">
+      <c r="C122" s="206">
         <f>SUM(C112:C121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="228"/>
-      <c r="B123" s="229" t="s">
+      <c r="A123" s="226"/>
+      <c r="B123" s="227" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="37">
@@ -36462,10 +36456,10 @@
       </c>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="230"/>
+      <c r="E124" s="228"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="230"/>
+      <c r="E125" s="228"/>
     </row>
     <row r="127" ht="45" customHeight="1"/>
     <row r="128" ht="45" customHeight="1" spans="1:5">
@@ -36739,8 +36733,8 @@
         <v>Balance Brought Forward From May 2025</v>
       </c>
       <c r="B156" s="58"/>
-      <c r="C156" s="231"/>
-      <c r="D156" s="231"/>
+      <c r="C156" s="229"/>
+      <c r="D156" s="229"/>
       <c r="E156" s="89">
         <f>E149</f>
         <v>0</v>
@@ -36994,8 +36988,8 @@
         <v>Balance Brought Forward From June 2025</v>
       </c>
       <c r="B183" s="58"/>
-      <c r="C183" s="231"/>
-      <c r="D183" s="231"/>
+      <c r="C183" s="229"/>
+      <c r="D183" s="229"/>
       <c r="E183" s="92">
         <f>E176</f>
         <v>0</v>
@@ -39268,7 +39262,7 @@
         <v>0</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="179"/>
+      <c r="E102" s="177"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -39482,11 +39476,11 @@
       <c r="I115" s="51"/>
     </row>
     <row r="116" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A116" s="177" t="str">
+      <c r="A116" s="57" t="str">
         <f>"Balance Brought Forward From "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,3)-1,"mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+3),"mmmm yyyy"))</f>
         <v>Balance Brought Forward From July 2025</v>
       </c>
-      <c r="B116" s="178"/>
+      <c r="B116" s="58"/>
       <c r="C116" s="59"/>
       <c r="D116" s="59"/>
       <c r="E116" s="89" cm="1">
@@ -40896,7 +40890,7 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A116" sqref="A116:B116"/>
     </sheetView>
   </sheetViews>

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -2254,7 +2254,7 @@
     <cellStyle name="Revenue Header Font" xfId="53"/>
     <cellStyle name="Total Label" xfId="54"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="3" tint="0.5"/>
@@ -2296,36 +2296,6 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B9BD5"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -7323,7 +7293,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -7504,10 +7474,10 @@
     <mergeCell ref="A171:B188"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7528,10 +7498,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="31" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7648,15 +7618,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="30" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="29" operator="greaterThan">
@@ -7664,7 +7634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -7672,7 +7642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -7698,12 +7668,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="39" operator="greaterThan">
@@ -10632,7 +10602,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -10813,10 +10783,10 @@
     <mergeCell ref="A171:B188"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10837,10 +10807,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10957,15 +10927,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -10973,7 +10943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -10981,7 +10951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -11007,12 +10977,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -13943,7 +13913,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -14124,10 +14094,10 @@
     <mergeCell ref="A171:B188"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14148,10 +14118,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14268,15 +14238,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -14284,7 +14254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -14292,7 +14262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -14318,12 +14288,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -17251,7 +17221,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -17432,10 +17402,10 @@
     <mergeCell ref="A171:B188"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17456,10 +17426,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17576,15 +17546,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -17592,7 +17562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -17600,7 +17570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -17626,12 +17596,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -20562,7 +20532,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -20743,10 +20713,10 @@
     <mergeCell ref="A171:B188"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20767,10 +20737,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20887,15 +20857,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -20903,7 +20873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -20911,7 +20881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -20937,12 +20907,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -20959,7 +20929,7 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -23871,7 +23841,7 @@
     </row>
     <row r="194" ht="24.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C98:C107 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -24052,10 +24022,10 @@
     <mergeCell ref="A117:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24076,10 +24046,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24196,15 +24166,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -24212,7 +24182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -24220,7 +24190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -24246,12 +24216,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -27179,7 +27149,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C98:C107 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -27360,10 +27330,10 @@
     <mergeCell ref="A117:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27384,10 +27354,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27504,15 +27474,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -27520,7 +27490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -27528,7 +27498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -27554,12 +27524,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -27576,7 +27546,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -30487,7 +30457,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C98:C107 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -30668,10 +30638,10 @@
     <mergeCell ref="A117:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30692,10 +30662,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30812,15 +30782,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -30828,7 +30798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -30836,7 +30806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -30862,12 +30832,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -33798,7 +33768,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -33979,10 +33949,10 @@
     <mergeCell ref="A117:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34003,10 +33973,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34123,15 +34093,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="26" operator="greaterThan">
@@ -34139,7 +34109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -34147,7 +34117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -34173,12 +34143,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="36" operator="greaterThan">
@@ -37182,7 +37152,7 @@
     </row>
     <row r="204" ht="24.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="C3:C15 F3:F15 A24:G29 A36:G41 A48:G53 A61:C68 A71:C79 A82:C88 A91:C98 A101:C108 A112:C121 C131:E140 C142:E147 C158:E167 C185:E194 C196:E201" name="Values"/>
     <protectedRange sqref="B3:B15 E3:E15" name="Label"/>
@@ -37502,7 +37472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:E140">
-    <cfRule type="cellIs" dxfId="5" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="28" operator="greaterThan">
@@ -37510,7 +37480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E167">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
@@ -37518,7 +37488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185:E194">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -37526,12 +37496,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J50">
-    <cfRule type="cellIs" dxfId="6" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N18">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37557,7 +37527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157 E168:E175">
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="44" operator="greaterThan">
@@ -37565,7 +37535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184 E195:E202">
-    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="36" operator="greaterThan">
@@ -40469,7 +40439,7 @@
     </row>
     <row r="193" s="44" customFormat="1" ht="24.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -40650,10 +40620,10 @@
     <mergeCell ref="A117:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40674,10 +40644,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="27" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40786,15 +40756,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="24" operator="greaterThan">
@@ -40802,7 +40772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
@@ -40810,7 +40780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
@@ -40836,12 +40806,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="34" operator="greaterThan">
@@ -43743,7 +43713,7 @@
     </row>
     <row r="192" ht="30" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -43948,10 +43918,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43980,7 +43950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
@@ -44060,15 +44030,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -44076,7 +44046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E153">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
@@ -44084,7 +44054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -44110,12 +44080,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -47249,10 +47219,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47369,15 +47339,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="21" operator="greaterThan">
@@ -47385,7 +47355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -47393,7 +47363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
@@ -47419,12 +47389,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="31" operator="greaterThan">
@@ -50355,7 +50325,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -50560,10 +50530,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50680,15 +50650,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="28" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="27" operator="greaterThan">
@@ -50696,7 +50666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
@@ -50704,7 +50674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -50730,12 +50700,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="37" operator="greaterThan">
@@ -53663,7 +53633,7 @@
       <c r="I193" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C84 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -53868,10 +53838,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53988,15 +53958,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -54004,7 +53974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -54012,7 +53982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -54038,12 +54008,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
@@ -56970,7 +56940,7 @@
       <c r="I193" s="126"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A10:G15 A22:G27 A34:G39 C47:C54 C57:C65 C68:C74 C77:C83 C87:C94 C118:E127 C129:E134 C145:E154 C156:E161 C172:E181 C183:E188" name="Values"/>
   </protectedRanges>
@@ -57175,10 +57145,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57295,15 +57265,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E127">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
@@ -57311,7 +57281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
@@ -57319,7 +57289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172:E181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
@@ -57345,12 +57315,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155:E162">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182:E189">
-    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">

--- a/Income And Expenses Forecast Template.xlsx
+++ b/Income And Expenses Forecast Template.xlsx
@@ -34739,8 +34739,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -37599,7 +37599,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -40876,7 +40876,7 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
